--- a/Excel reports/clb sentiment_analysis_initial.xlsx
+++ b/Excel reports/clb sentiment_analysis_initial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,1125 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2023-01-04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CORE LABORATORIES' FOURTH QUARTER 2022 WEBCAST AT 7:30 A.M. CST / 2:30 P.M. CET ON FEBRUARY 2, 2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AMSTERDAM, Jan. 4, 2023 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its fourth quarter 2022 conference call over the Internet at 7:30 a.m. CST / 2:30 p.m. CET on February 2, 2023.
+Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Gresham, SVP Corporate Development and Investor Relations, will discuss financial and operational results.  An earnings press release will be issued after market close on February 1st and may be accessed through the Company's website at www.corelab.com.
+To participate in the live webcast, simply log on to www.corelab.com at least fifteen minutes prior to the start of the call.  For those who are not available to listen to the live webcast, a Podcast will be available immediately following the conference call and a replay will be available on Core's website shortly after the call which will remain on the site for 10 days.
+To listen to the conference call via telephone, please contact Lena Brennan at lena.brennan@corelab.com for the dial-in number.
+Core Laboratories N.V. (www.corelab.com) is a leading provider of proprietary and patented reservoir description and production enhancement services and products used to optimize petroleum reservoir performance.  The Company has over 70 offices in more than 50 countries and is located in every major oil-producing province in the world. Core Laboratories N.V. logo (PRNewsFoto/Core Laboratories N.V.) Cision
+View original content to download multimedia:https://www.prnewswire.com/news-releases/core-laboratories-fourth-quarter-2022-webcast-at-730-am-cst--230-pm-cet-on-february-2-2023-301713816.html
+SOURCE Core Laboratories N.V.</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-12-29</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10 Small Cap Stocks with Wide Moats</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>In this article, we will be taking a look at the 10 small cap stocks with wide moats. To skip our detailed analysis of wide moat stocks, you can go directly to see the 5 Small Cap Stocks With Wide Moats.
+The beginning of 2022 saw big losses for small-cap stocks, but this soon began to change, as seen by the performance of such stocks as of this July. These stocks have historically been attractive to investors looking to invest early in companies that have a chance of rapidly growing since their market capitalizations are contained within the figures of $300 million to $2 billion. With market caps, this low, small-cap stocks are typically considered to be attractive options for those looking to find a diamond in the rough. Small-cap stocks outperforming the market in July also helped increase the popularity of these stocks among investors. According to a Wall Street Journal article published this July, the Russell 2000 Index of small-cap companies rose by 3.6% that month, while the S&amp;P 500 fell behind with its 3% increase.
+Larger companies with more recognizable names, like Apple Inc. (NASDAQ:AAPL), Visa Inc. (NYSE:V), and Mastercard Incorporated (NYSE:MA) have always been investor favorites. However, the performance of small-cap stocks observed above has made these companies also gain in popularity again this year. Investors are now beginning to focus more on small companies with a niche business model that offers them a huge competitive advantage, thus promising long-term growth. Such companies are said to have a wide economic moat.
+What are wide moat stocks?
+Companies with attractive pricing and a sustainable competitive advantage are called wide moat companies. A company's moat is rapidly becoming one of the leading metrics in investment strategies to pick those stocks that offer prospective growth because of their command over a particular sector. One index that provides exposures to such companies is the Morningstar Wide Moat Focus Index, comprising companies with Morningstar Economic Moat Ratings of Wide that are trading at the lowest current market price with fair value ratios.
+According to a Morningstar Equity Research report, as of 2020, the Wide Moat Focus Index generated an average annual outperformance of 363 basis points versus its benchmark since its 2007 inception date. The Index's annual total return for 2020 stood at 10.71%, compared to an annual total return of 6.91% for the Morningstar US Market Index, which is its benchmark. This shows the capability of wide moat stocks to outperform the general market, leading to their increased popularity among investors today. 10 Small Cap Stocks With Wide Moats
+Source: pexels
+Let's now take a look at the 10 small cap stocks with wide moats.
+OurMethodology
+For our list below, we have selected stocks with market capitalizations between $400 million and $2 billion dollars. According to financial journalists from Morningstar and ETFs tracking wide moat stocks, these are some of the most competitive stocks in the market because of their wide economic moats. We have also considered other fundamentals, such as each company's EPS and revenue growth, and profit margins among more, while selecting them for our list.
+Small Cap Stocks With Wide Moats
+10. Whitestone REIT (NYSE:WSR)
+Number of Hedge Fund Holders: 9
+Market Capitalization as of December 27: $473.1 million
+Whitestone REIT (NYSE:WSR) is a real estate investment trust that acquires, owns, manages, develops, and redevelops high-quality open-air neighborhood centers. The company primarily conducts its business operations in the largest, fastest-growing, and most affluent markets in the Sunbelt. It is based in Houston, Texas.
+A Hold rating was reiterated on Whitestone REIT (NYSE:WSR) shares on December 5.
+Whitestone REIT (NYSE:WSR) is a real estate company that has managed to give itself a competitive edge in the Sunbelt by acquiring 60 retail properties with a focus on favorable demographics and economics. It's also smart with its business, as it targets triple-net leases with annual rent bumps and a share of the tenant's sales, using this strategy to protect itself from inflation while boosting its revenues. As of this November, Whitestone REIT (NYSE:WSR) has seen a 9.1% improvement in its funds from operations per share year-over-year.
+Nine hedge funds were long Whitestone REIT (NYSE:WSR) in the third quarter, with a total stake value of $30.3 million. Of these funds, Highland Capital Management was the largest stakeholder in the company, holding 1.6 million shares worth $13.6 million.
+Whitestone REIT (NYSE:WSR), like Apple Inc. (NASDAQ:AAPL), Visa Inc. (NYSE:V), and Mastercard Incorporated (NYSE:MA), is wide moat stock with a competitive advantage in the market.
+9. Proto Labs, Inc. (NYSE:PRLB)
+Number of Hedge Fund Holders: 17
+Market Capitalization as of December 27: $661.1 million
+Proto Labs, Inc. (NYSE:PRLB) is an e-commerce-driven digital manufacturer of custom prototypes and on-demand production parts. The company operates worldwide and is based in Maple Plain, Minnesota. It offers injection molding, computer numerical control machining, three-dimensional printing, and more.
+On November 29, Troy Jensen at Lake Street initiated coverage of Proto Labs, Inc. (NYSE:PRLB) shares with a Buy rating.
+There are not many companies in the market for digitally manufactured customized prototypes, making Proto Labs, Inc. (NYSE:PRLB) well-positioned to capitalize on an evergrowing market. According to analysts at Bersit Research, the market for such prototypes is expected to grow at a compound annual growth rate of over 17%. Proto Labs, Inc. (NYSE:PRLB) reported that its international revenue accounted for about 21%, 20%, and 22% of the company's total revenue in 2021, 2020, and 2019, respectively. This shows how the company is also making headway outside the US and making a global name for itself to increase its profitability.
+There were 17 hedge funds long Proto Labs, Inc. (NYSE:PRLB) in the third quarter. Their total stake value was $68.4 million.
+Harding Loevner, an investment management firm, mentioned Proto Labs, Inc. (NYSE:PRLB) in its fourth-quarter 2021 investor letter. Here's what the firm said:
+“For the year, the portfolio’s US stocks failed to keep up with the robust returns of the region in the face of a pronounced style headwind, as US small cap growth stocks trailed their value peers by over 1,400 basis points. Disappointing business results from several US companies also worked against us. Earnings at Protolabs, a rapid prototyping and manufacturing company, fell on a margin decline caused by ongoing investments in IT infrastructure and rising material and wage inflation.”
+8. W&amp;T Offshore, Inc. (NYSE:WTI)
+Number of Hedge Fund Holders: 21
+Market Capitalization as of December 27: $825.3 million
+W&amp;T Offshore, Inc. (NYSE:WTI) is an energy company based in Houston, Texas. The company is an independent oil and natural gas producer engaged in the acquisition, exploration, and development of oil and natural gas properties in the Gulf of Mexico. It sells crude oil, natural gas liquids, and natural gas.
+Stifel's Derrick Whitfield resumed coverage of W&amp;T Offshore, Inc. (NYSE:WTI) shares with a Buy rating on October 25.
+W&amp;T Offshore, Inc. (NYSE:WTI) is a competitive stock in the energy sector because, unlike other companies, it has a hedging department. This allows the stock to stay on top of markets and maintain its profitability. In the third quarter, W&amp;T Offshore, Inc. (NYSE:WTI) reported an adjusted EBITDA of $113.9 million and an adjusted net income of $48.7 million. Compared to its competitors, the company also reported a total revenue increase of 98.95% year-on-year.
+D E Shaw was the largest stakeholder in W&amp;T Offshore, Inc. (NYSE:WTI) in the third quarter, holding 2.3 million shares worth $13.5 million. In total, 21 hedge funds were long the stock, with a total stake value of $56.7 million.
+7. Healthcare Services Group, Inc. (NASDAQ:HCSG)
+Number of Hedge Fund Holders: 19
+Market Capitalization as of December 27: $899.8 million
+Healthcare Services Group, Inc. (NASDAQ:HCSG) is a diversified support services company based in Bensalem, Pennsylvania. The company provides management, administrative, and operating services to the housekeeping, laundry, linen, facility maintenance, and dietary service departments of nursing homes, retirement complexes, rehabilitation centers, and hospitals. It operates through its Housekeeping and Dietary segments.
+Benchmark analyst Bill Sutherland upgraded Healthcare Services Group, Inc. (NASDAQ:HCSG) shares from Hold to Buy on October 20.
+With its focus on the senior housing and care industry, Healthcare Services Group, Inc. (NASDAQ:HCSG) is among the few companies commanding a large part of the market in this sector. The company is one of the largest third-party providers of services like housekeeping and dining, and manages almost all of these services at over 3,000 healthcare facilities across the US. As of this February, Healthcare Services Group, Inc. (NASDAQ:HCSG) reported a client retention rate of over 90%. In 2021, the company's net income stood at $45.86 million.
+Healthcare Services Group, Inc. (NASDAQ:HCSG) was found among the 13F holdings of 19 hedge funds in the third quarter, with a total stake value of $77.7 million.
+Harding Loevner, an investment management firm, mentioned Healthcare Services Group, Inc. (NASDAQ:HCSG) in its fourth-quarter 2021 investor letter. Here's what the firm said:
+“For the year, the portfolio’s US stocks failed to keep up with the robust returns of the region in the face of a pronounced style headwind, as US small cap growth stocks trailed their value peers by over 1,400 basis points. Disappointing business results from several US companies also worked against us. Healthcare Services, a provider of outsourced housekeeping and dietary services for post-acute-care and long-term assisted living facilities, saw its rising labor and food costs weigh on both revenues and profits as some of its customers balked at higher fees.”
+6. Core Laboratories N.V. (NYSE:CLB)
+Number of Hedge Fund Holders: 10
+Market Capitalization as of December 27: $903.3 million
+Core Laboratories N.V. (NYSE:CLB) is an energy company providing reservoir description and production enhancement services and products to the oil and gas industry. The company operates in the US, Canada, and internationally. It is based in Amstelveen, Netherlands.
+Luke Lemoine at Piper Sandler assumed coverage of Core Laboratories N.V. (NYSE:CLB) shares with a Neutral rating on October 7.
+The reservoir description business is one that not many companies have waded into just yet, making Core Laboratories N.V. (NYSE:CLB) well-positioned to command a larger percentage of the market there. The company's experience in the US shale, compared to newer competitors, gives it a competitive edge. In the second quarter, Core Laboratories N.V. (NYSE:CLB) saw its revenue grow by 5% quarter-over-quarter to $120.9 million. Its EBITDA stood at $17.1 million, or $64 million on an annualized basis.
+There were 10 hedge funds long Core Laboratories N.V. (NYSE:CLB) in the third quarter, of which Ariel Investments was the largest stakeholder holding 9.8 million shares worth $131.6 million. The total stake value in the company was $141.7 million.
+Alger Capital, an investment management company, mentioned Core Laboratories N.V. (NYSE:CLB) in its third-quarter 2022 investor letter. Here's what the firm said:
+“Core Laboratories N.V. (NYSE:CLB) is a unique oil services company that provides reservoir description and production enhancement services and products to the oil and gas industry. These services and products enable Core Laboratories’ clients to improve performance and increase resource recovery from producing fields. Shares underperformed during the quarter even though the company’s production enhancement segment-with its outsized exposure to domestic activity-reported strong results. However, the reservoir description segment-which is more reliant upon international activity (both onshore and offshore)-has recovered more slowly. The company’s global rig count, which has historically been a leading indicator of future reservoir description activity, has improved recently, giving us confidence in the business’s longer-term fundamentals.”
+Core Laboratories N.V. (NYSE:CLB), like Apple Inc. (NASDAQ:AAPL), Visa Inc. (NYSE:V), and Mastercard Incorporated (NYSE:MA), is a highly competitive stock in the market, and many hedge funds are piling into it today.
+Click to continue reading and see the 5 Small Cap Stocks With Wide Moats.
+Suggested articles:
+20 Countries That Produce the Most Electric Power 10 Best Medical Stocks Under $20 Stan Druckenmiller Portfolio
+Disclosure: None. 10 Small Cap Stocks With Wide Moats is originally published on Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Should You Hold Core Laboratories N.V. (CLB) for Long-Term?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alger Capital, an investment management company, released its “Alger Weatherbie Specialized Growth Fund” third quarter investor letter. A copy of the same can be downloaded here. During the quarter, Class A shares of the fund underperformed the Russell 2500 Growth Index. The Information technology and Industrials sectors contributed to the fund’s relative performance in the quarter, while Health Care and Energy sectors detracted from performance. In addition, you can check the top 5 holdings of the fund to know its best picks in 2022.
+Alger Capital highlighted stocks like Core Laboratories N.V. (NYSE:CLB) in the Q3 2022 investor letter. Headquartered in Amstelveen, the Netherlands, Core Laboratories N.V. (NYSE:CLB) provides reservoir description and enhancement services. On December 13, 2022, Core Laboratories N.V. (NYSE:CLB) stock closed at $19.07 per share. One-month return of Core Laboratories N.V. (NYSE:CLB) was -17.16%, and its shares lost 16.07% of their value over the last 52 weeks. Core Laboratories N.V. (NYSE:CLB) has a market capitalization of $884.301 million.
+Alger Capital made the following comment about Core Laboratories N.V. (NYSE:CLB) in its Q3 2022 investor letter:
+"Core Laboratories N.V. (NYSE:CLB) is a unique oil services company that provides reservoir description and production enhancement services and products to the oil and gas industry. These services and products enable Core Laboratories' clients to improve performance and increase resource recovery from producing fields. Shares underperformed during the quarter even though the company's production enhancement segment-with its outsized exposure to domestic activity-reported strong results. However, the reservoir description segment-which is more reliant upon international activity (both onshore and offshore)-has recovered more slowly. The company's global rig count, which has historically been a leading indicator of future reservoir description activity, has improved recently, giving us confidence in the business's longer-term fundamentals."
+Story continues construction, drill, drilling, energy, equipment, exploration, fuel, gas, gasoline, holland, industrial, industry, maintenance, ocean, offshore, oil, petroleum, plant, platform, port, power, production, pump, refinery, rig, rotterdam, sea, sky, steel, technology, tower, well
+Copyright: 1971yes / 123RF Stock Photo
+Core Laboratories N.V. (NYSE:CLB) is not on our list of 30 Most Popular Stocks Among Hedge Funds. As per our database, 10 hedge fund portfolios held Core Laboratories N.V. (NYSE:CLB) at the end of the third quarter, which was 11 in the previous quarter.
+We discussed Core Laboratories N.V. (NYSE:CLB) in another article and shared the list of growth stocks that are too cheap to ignore. In addition, please check out our hedge fund investor letters Q3 2022 page for more investor letters from hedge funds and other leading investors.
+Suggested Articles:
+13 Best Biotech Penny Stocks To Invest In 11 Best Delivery Stocks To Buy 12 Biggest Militaries in the World
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-12-08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Why ExxonMobil, Chevron, and Core Labs Stocks Popped Today</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Investors cheered ExxonMobil's predictions -- but they may not have fully understood them at first.
+Continue reading</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Do You Believe in the Growth Prospects of Core Laboratories N.V. (CLB)?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ariel Investment, an investment management company, released its “Ariel Fund” third-quarter investor letter. A copy of the same can be downloaded here. In the third quarter, the fund generated a loss of -7.47%, underperforming the Russell 2500 Value Index, which returned a loss of -4.50%, and the Russell 2500 Index, which returned a -2.82% loss. Inflation concerns, Russia-Ukraine tension, energy price, and Federal Reserve’s aggressive actions impacted the investors’ confidence in the quarter. In addition, you can check the top 5 holdings of the fund to know its best picks in 2022.
+Ariel Investment highlighted stocks like Core Laboratories N.V. (NYSE:CLB) in the Q3 2022 investor letter. Headquartered in Amstelveen, the Netherlands, Core Laboratories N.V. (NYSE:CLB) provides reservoir description and enhancement services. On December 1, 2022, Core Laboratories N.V. (NYSE:CLB) stock closed at $21.50 per share. One-month return of Core Laboratories N.V. (NYSE:CLB) was 3.81%, and its shares lost 8.47% of their value over the last 52 weeks. Core Laboratories N.V. (NYSE:CLB) has a market capitalization of $996.983 million.
+Ariel Investment made the following comment about Core Laboratories N.V. (NYSE:CLB) in its Q3 2022 investor letter:
+"Shares of premiere oil services company Core Laboratories N.V. (NYSE:CLB) also underperformed in the quarter. The ongoing geopolitical conflict between Russian and Ukraine as well as associated European and U.S. sanctions continue to disrupt the business and create near-term uncertainty. Although headwinds persist, we believe the industry will realign global supply to meet strong demand for oil and natural gas. In our view, this asset light business will deliver modest growth in reservoir description. We also expect to see greater activity in fracturing rock, which should increase output in well completions and fuel longer term growth of the production enhancement sector. We have conviction in the management team’s long history of delivering strong operating results and robust free cash flow and returning capital to shareholders."
+Story continues
+Photo by Jeff W on Unsplash
+Core Laboratories N.V. (NYSE:CLB) is not on our list of 30 Most Popular Stocks Among Hedge Funds. As per our database, 10 hedge fund portfolios held Core Laboratories N.V. (NYSE:CLB) at the end of the third quarter, which was 11 in the previous quarter.
+We discussed Core Laboratories N.V. (NYSE:CLB) in another article and shared the list of growth stocks that are too cheap to ignore. In addition, please check out our hedge fund investor letters Q3 2022 page for more investor letters from hedge funds and other leading investors.
+Suggested Articles:
+15 Biggest Bitcoin Mining Companies in the World 14 Safe Stocks To Buy for Beginners Warren Buffett's Stock Portfolio
+Disclosure: None. This article is originally published at Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SLB or CLB: Which Is the Better Value Stock Right Now?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Investors with an interest in Oil and Gas - Field Services stocks have likely encountered both Schlumberger (SLB) and Core Laboratories (CLB). But which of these two companies is the best option for those looking for undervalued stocks? Let's take a closer look.
+There are plenty of strategies for discovering value stocks, but we have found that pairing a strong Zacks Rank with an impressive grade in the Value category of our Style Scores system produces the best returns. The Zacks Rank favors stocks with strong earnings estimate revision trends, and our Style Scores highlight companies with specific traits.
+Both Schlumberger and Core Laboratories have a Zacks Rank of # 2 (Buy) right now. This system places an emphasis on companies that have seen positive earnings estimate revisions, so investors should feel comfortable knowing that these stocks have improving earnings outlooks. But this is only part of the picture for value investors.
+Value investors analyze a variety of traditional, tried-and-true metrics to help find companies that they believe are undervalued at their current share price levels.
+Our Value category highlights undervalued companies by looking at a variety of key metrics, including the popular P/E ratio, as well as the P/S ratio, earnings yield, cash flow per share, and a variety of other fundamentals that have been used by value investors for years.
+SLB currently has a forward P/E ratio of 24.10, while CLB has a forward P/E of 38.99. We also note that SLB has a PEG ratio of 0.61. This popular figure is similar to the widely-used P/E ratio, but the PEG ratio also considers a company's expected EPS growth rate. CLB currently has a PEG ratio of 0.80.
+Another notable valuation metric for SLB is its P/B ratio of 4.17. The P/B ratio is used to compare a stock's market value with its book value, which is defined as total assets minus total liabilities. For comparison, CLB has a P/B of 5.48.
+Based on these metrics and many more, SLB holds a Value grade of B, while CLB has a Value grade of C.
+Story continues
+Both SLB and CLB are impressive stocks with solid earnings outlooks, but based on these valuation figures, we feel that SLB is the superior value option right now.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Schlumberger Limited (SLB) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Core Laboratories (CLB) Up 9.6% Since Last Earnings Report: Can It Continue?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A month has gone by since the last earnings report for Core Laboratories (CLB). Shares have added about 9.6% in that time frame, outperforming the S&amp;P 500.
+Will the recent positive trend continue leading up to its next earnings release, or is Core Laboratories due for a pullback? Before we dive into how investors and analysts have reacted as of late, let's take a quick look at its most recent earnings report in order to get a better handle on the important catalysts.
+Core Labs' Q3 Earnings Beat Estimates, Sales Meet
+Core Laboratories reported third-quarter 2022 results, wherein adjusted earnings of 18 cents a share beat the Zacks Consensus Estimate of 9 cents. This could be attributed to the Reservoir Description segment performing better than expected.
+Moreover, earnings in the reported quarter were in line with the year-ago quarter’s earnings. This oilfield service provider’s adjusted revenues of $126 million met the Zacks Consensus Estimate. The top line also rose 6.7% from the year-ago quarter’s revenues of $117.9 million.
+Segmental Performance
+Reservoir Description: Revenues increased marginally to $79 million from $78.8 million in the third quarter of 2021 and met the Zacks Consensus Estimate. Moreover, the operating income rose from $4.4 million in the year-ago period to $9.8 million and also beat the Zacks Consensus Estimate of $5.75 million, mainly due to growth driven by project progression and the realignment of global trading patterns.
+The segment’s operating margin of 12.4% was higher than the prior-year quarter’s 5.6%.
+Production Enhancement: Revenues of $46.97 million compared favorably with $39.2 million in the third quarter a year earlier, which is a 19.8% increase year over year. However, the same underperformed the Zacks Consensus Estimate of $47.42 million.
+Moreover, the segmental operating income of $4.42 million in the quarter underperformed the Zacks Consensus Estimate of an operating profit of $4.76 million. The year-ago period reported an operating income of $2.78 million.
+The segment’s operating margin of 9.4% was higher than the prior-year quarter’s 7.1% due to an increase in the blend of manufacturing margins and service margins.
+Story continues
+Financials and Dividend
+As of Sep 30, 2022, Core Labs had cash and cash equivalents worth $13.7 million and long-term debt of $182.7 million. The company’s debt-to-capitalization was approximately 50%.
+CLB generated $5.8 million of operating cash in the reported quarter. Its capital expenditure totaled $2.7 million.
+Core Labs’ board of directors approved a regular quarterly dividend of a cent per share on the company's common stock, payable on Nov 28, 2022, to all shareholders of record as of Nov 7, 2022.
+2022 Outlook
+For the fourth quarter of 2022, Core Labs’ revenues are anticipated in the $126-$131 million range, while the operating income is estimated in the $13-$15 million band.
+Earnings per share for the fourth quarter of 2022 are expected between 17 cents and 21 cents. The fourth-quarter 2022 guidance also assumes an effective tax rate of 20%.
+How Have Estimates Been Moving Since Then?
+It turns out, estimates review flatlined during the past month.
+VGM Scores
+Currently, Core Laboratories has an average Growth Score of C, a grade with the same score on the momentum front. Following the exact same course, the stock was allocated a grade of C on the value side, putting it in the middle 20% for this investment strategy.
+Overall, the stock has an aggregate VGM Score of C. If you aren't focused on one strategy, this score is the one you should be interested in.
+Outlook
+Core Laboratories has a Zacks Rank #2 (Buy). We expect an above average return from the stock in the next few months.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SLB vs. CLB: Which Stock Is the Better Value Option?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Investors with an interest in Oil and Gas - Field Services stocks have likely encountered both Schlumberger (SLB) and Core Laboratories (CLB). But which of these two stocks is more attractive to value investors? We'll need to take a closer look to find out.
+Everyone has their own methods for finding great value opportunities, but our model includes pairing an impressive grade in the Value category of our Style Scores system with a strong Zacks Rank. The proven Zacks Rank emphasizes companies with positive estimate revision trends, and our Style Scores highlight stocks with specific traits.
+Currently, both Schlumberger and Core Laboratories are holding a Zacks Rank of # 2 (Buy). This system places an emphasis on companies that have seen positive earnings estimate revisions, so investors should feel comfortable knowing that these stocks have improving earnings outlooks. However, value investors will care about much more than just this.
+Value investors analyze a variety of traditional, tried-and-true metrics to help find companies that they believe are undervalued at their current share price levels.
+Our Value category grades stocks based on a number of key metrics, including the tried-and-true P/E ratio, the P/S ratio, earnings yield, and cash flow per share, as well as a variety of other fundamentals that value investors frequently use.
+SLB currently has a forward P/E ratio of 25.41, while CLB has a forward P/E of 40.43. We also note that SLB has a PEG ratio of 0.64. This popular metric is similar to the widely-known P/E ratio, with the difference being that the PEG ratio also takes into account the company's expected earnings growth rate. CLB currently has a PEG ratio of 0.83.
+Another notable valuation metric for SLB is its P/B ratio of 4.38. The P/B is a method of comparing a stock's market value to its book value, which is defined as total assets minus total liabilities. By comparison, CLB has a P/B of 5.69.
+These metrics, and several others, help SLB earn a Value grade of B, while CLB has been given a Value grade of C.
+Both SLB and CLB are impressive stocks with solid earnings outlooks, but based on these valuation figures, we feel that SLB is the superior value option right now.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Schlumberger Limited (SLB) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core Laboratories Scores RS Rating Upgrade; Hits Key Benchmark</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Core Laboratories cleared that benchmark Monday, with a jump from 66 to 88 Monday. Over 100 years of market history reveals that the market's biggest winners typically have an RS Rating north of 80 as they launch their biggest climbs. When looking for the best stocks to buy and watch, one factor to watch closely is relative price strength.
+Continue reading</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Why Oil and Gas Stocks Rallied Today, and Why It Might Continue</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>The end of Strategic Petroleum Reserve releases and upcoming sanctions on Russian oil could bolster oil prices.
+Continue reading</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core Laboratories' (NYSE:CLB) earnings have declined over five years, contributing to shareholders 79% loss</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>While it may not be enough for some shareholders, we think it is good to see the Core Laboratories N.V. (NYSE:CLB) share price up 27% in a single quarter. But spare a thought for the long term holders, who have held the stock as it bled value over the last five years. Indeed, the share price is down a whopping 80% in that time. The recent bounce might mean the long decline is over, but we are not confident. The real question is whether the business can leave its past behind and improve itself over the years ahead. While a drop like that is definitely a body blow, money isn't as important as health and happiness.
+While the last five years has been tough for Core Laboratories shareholders, this past week has shown signs of promise. So let's look at the longer term fundamentals and see if they've been the driver of the negative returns.
+View our latest analysis for Core Laboratories
+In his essay The Superinvestors of Graham-and-Doddsville Warren Buffett described how share prices do not always rationally reflect the value of a business. By comparing earnings per share (EPS) and share price changes over time, we can get a feel for how investor attitudes to a company have morphed over time.
+During the five years over which the share price declined, Core Laboratories' earnings per share (EPS) dropped by 28% each year. This change in EPS is remarkably close to the 28% average annual decrease in the share price. This implies that the market has had a fairly steady view of the stock. So it's fair to say the share price has been responding to changes in EPS.
+The graphic below depicts how EPS has changed over time (unveil the exact values by clicking on the image). earnings-per-share-growth
+It might be well worthwhile taking a look at our freereport on Core Laboratories' earnings, revenue and cash flow.
+A Different Perspective
+Core Laboratories shareholders are down 25% over twelve months (even including dividends), which isn't far from the market return of -25%. However, the loss over the last year isn't as bad as the 12% per annum loss investors have suffered over the last half decade. Generally speaking we'd prefer see an improvement in the fundamental metrics before becoming enthusiastic about the stock. While it is well worth considering the different impacts that market conditions can have on the share price, there are other factors that are even more important. Consider for instance, the ever-present spectre of investment risk.  We've identified 2 warning signs  with Core Laboratories (at least 1 which doesn't sit too well with us)  , and understanding them should be part of your investment process.
+Story continues
+If you are like me, then you will not want to miss this freelist of growing companies that insiders are buying.
+Please note, the market returns quoted in this article reflect the market weighted average returns of stocks that currently trade on US exchanges.
+Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.
+This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.
+Join A Paid User Research Session
+You’ll receive a US$30 Amazon Gift card for 1 hour of your time while helping us build better investing tools for the individual investors like yourself. Sign up here</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10 Growth Stocks To Buy That Are Too Cheap To Ignore</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>In this piece, we will take a look at the ten growth stocks that are too cheap to ignore. For more stocks, head on over to 5 Growth Stocks To Buy That Are Too Cheap To Ignore.
+The 2022 stock market crash wiped out billions from market capitalization and shattered investor confidence just as the market and the economy as a whole were starting to recover from the coronavirus pandemic. The ongoing Russian invasion of Ukraine has shocked the global energy markets, which has driven up the price of commodities such as oil and natural gas and contributed to inflation. This contribution in itself has come at a time when central bank balance sheets are at historic high levels as the aftermath of the 2008 financial crisis and the coronavirus pandemic led the banks to provide easy access to money. These high levels, which themselves contribute to inflation by increasing the money supply in the market, can only be controlled through high interest rates. The rates end up making it harder for companies to manage their working capital and raise funding, which saps investor confidence already rattled by inflation.
+In the midst of all this, a host of companies see their share prices drop simply because capital allocation is being readjusted in hedge fund portfolios. The allocation depresses their share price without a due cause being present in the fundamental performance. Additionally, the market entering bear territory does not mean that all stocks will see their share prices drop. Some of these, as you will find out throughout this list, have in fact seen their share prices rise year to date.
+Some sectors that will continue to grow and have grown this year include energy and fertilizers. For instance, a research report from Allied Markets Research estimates that the fertilizer industry was worth $184 billion last year and it will grow at a compounded annual growth rate (CAGR) of 3.55% from then until 2030 to stand at a value of $252 billion by the end of the forecast period. Additionally, the natural gas market is an investor favorite these days, and The Business Research Company wagers that this segment, which was worth $840 billion last year, will grow at a whopping CAGR of 12% to sit at $940 billion this year and from then until 2030 will go on to grow at a CAGR of 6.9% to be worth $1.23 trillion.
+This piece will focus on growth companies too, and the top picks are PayPal Holdings, Inc. (NASDAQ:PYPL), Pfizer Inc. (NYSE:PFE), and United Parcel Service, Inc. (NYSE:UPS).
+Photo by Chris Liverani on Unsplash
+Our Methodology
+We analyzed countless stocks present on the stock market to sift out those that have either performed well this year or those that have become cheap in terms of either share price or valuation ratios due to the wider stock market downturn. The firms are ranked according to hedge fund sentiment gathered from Insider Monkey's 895 hedge fund survey for this year's second quarter.
+Growth Stocks To Buy That Are Too Cheap To Ignore
+10. CVR Partners, LP (NYSE:UAN)
+Number of Hedge Fund Holders: 4
+CVR Partners, LP (NYSE:UAN) is a nitrogen fertilizer company that sells ammonia based fertilizers to farmers, industrial customers, retailers and distributors. The firm is headquartered in Sugar Land, Texas, the United States.
+CVR Partners, LP (NYSE:UAN) is massively undervalued if we compare its current enterprise value to the operating income (EV/EBITDA) ratio of 3.6x with the peak ratio of 16x. The firm's fertilizer plants have been running at full capacity lately, and after they were down for scheduled maintenance this year, the output will fall in the third quarter but pick up in the next. Additionally, ammonia prices have recovered this year, and food shortages in the wake of the Russian invasion of Ukraine and the Indian and the Chinese economy's slowdown will bode well for the firm.
+CVR Partners, LP (NYSE:UAN)'s shares have also appreciated by 45% year to date and the firm pays a solid dividend of $5.23 per share for a 17% yield. Insider Monkey's Q2 2022 survey of 895 hedge funds outlined that four had held a stake in the company.
+Out of these, CVR Partners, LP (NYSE:UAN)’s largest investor is Ken Griffin’s Citadel Investment Group which owns 43,651 shares that are worth $4.3 million.
+CVR Partners, LP (NYSE:UAN), Pfizer Inc. (NYSE:PFE), PayPal Holdings, Inc. (NASDAQ:PYPL), and United Parcel Service, Inc. (NYSE:UPS) are some of the hottest and cheapest growth stocks that you are likely to come across.
+9. Core Laboratories N.V. (NYSE:CLB)
+Number of Hedge Fund Holders: 11
+Core Laboratories N.V. (NYSE:CLB) is an upstream oil and gas supplier that lets firms extracting the resources map out their sites and manage their wells. These include taking reservoir fluid, rock, and gas samples to determine whether a site is suitable to place a well for drilling and extracting oil and gas. It is headquartered in Amstelveen, the Netherlands.
+Core Laboratories N.V. (NYSE:CLB) is heavily slated to grow its revenues according to analysts, which are forecasting that it will grow the revenue by 9% annually this year, and by 16% and 11% in 2023 and 2024, respectively. More importantly, the firm's earnings per share is forecast to hit $1.47 next year, to mark for a whopping 98% increase over this year's forecast value of $0.74. Core Laboratories N.V. (NYSE:CLB)'s latest quarter saw its revenue grow by 7% annually and 4% sequentially, even as it battled with currency devaluation.
+Core Laboratories N.V. (NYSE:CLB) pays a 1 cent dividend for a 0.21% yield. By the end of this year's second quarter, 11 out of the 895 hedge funds polled by Insider Monkey had bought its shares.
+Core Laboratories N.V. (NYSE:CLB)'s largest investor is John W. Rogers' Ariel Investments which owns nine million shares that are worth $181 million.
+8. Compass Minerals International, Inc. (NYSE:CMP)
+Number of Hedge Fund Holders: 17
+Compass Minerals International, Inc. (NYSE:CMP) is a minerals company that mines and sells items such as salt and its derivatives, fertilizers, potassium products, and plant nutrients. The company is headquartered in Overland Park, Kansas, the United States.
+Using Compass Minerals International, Inc. (NYSE:CMP)'s management forecast of $220 million to $250 million for this year, and using it to forecast a net income of $42 million, leads to an enterprise value to operating income ratio ranging between 3.3 to 22.1. Compared to the industry range of 4.5 to 86.9, this makes the stock quite undervalued. Compass Minerals International, Inc. (NYSE:CMP) also received $252 million in funding from the Koch Group in September 2022, which will boost the company's lithium carbonate production.
+Compass Minerals International, Inc. (NYSE:CMP) pays a 15 cent dividend for a 1.5% yield. Insider Monkey studied 895 hedge fund portfolios for their June quarter of 2022 investments to discover that 17 had held a stake in the company.
+Compass Minerals International, Inc. (NYSE:CMP)'s largest investor is Jeffery Bronchick's Cove Street Capital which owns 535,692 shares that are worth $18 million.
+Bernzott Capital Advisors mentioned the company in its Q2 2022 investor letter. Here is what the fund said:
+“Compass Minerals International, Inc. (NYSE:CMP): Despite a strong winter season in which salt volumes came in higher than expectations buoyed by a more normalized snowfall year, higher logistics and freight costs negatively impacted the bottom line. Within their plant nutrient segment, margins remained strong driven by strong potash pricing, however drought conditions negatively impacted overall volumes. Looking ahead, CMP should benefit from improved pricing during the upcoming salt selling season while actions taken within their plant segment to improve efficiencies should help improve overall results. Finally, the company is making progress in the development of its Lithium assets, supported by a recent offtake agreement with a leading global manufacturer of lithium-ion batteries which we believe is not reflected in the current stock price.”
+7. Fastly, Inc. (NYSE:FSLY)
+Number of Hedge Fund Holders: 22
+Fastly, Inc. (NYSE:FSLY) is a cloud services platform provider that operates right at the 'edge' of cloud computing. In the technology industry, edge refers to the portion of the cloud that is closest to the customer, and the company's platform lets developers conduct a variety of tasks such as securing their applications
+Fastly, Inc. (NYSE:FSLY) is significantly undervalued when its enterprise value is estimated. Accounting for $767 million in cash and $703 million in debt, the firm's enterprise value sits at $937 million, while at an $8 share price (current share price is $8.24), its market capitalization is $1 billion. The firm also increased its annual revenue guidance to $415 million - $425 million this year, over the previous guidance of $405 million - $415 million, to mark a remarkable 17% to 19% growth in an environment that has not seen technology companies perform well.
+Insider Monkey's Q2 2022 survey of 895 hedge funds revealed that 22 had held a stake in Fastly, Inc. (NYSE:FSLY).
+Out of these, Fastly, Inc. (NYSE:FSLY)'s largest investor is D.E Shaw's D E Shaw which owns 2.8 million shares that are worth $32 million.
+6. Confluent, Inc. (NASDAQ:CFLT)
+Number of Hedge Fund Holders: 26
+Confluent, Inc. (NASDAQ:CFLT) provides a cloud platform that lets companies speed up their data communications with each other. The platform lets companies stream their data easily without having to navigate through risk management and regulatory compliance regulations. It is headquartered in Mountain View, California.
+Confluent, Inc. (NASDAQ:CFLT) is one of the strongest growing companies in the technology industry, and over the past five quarters, the firm has consistently grown its revenue from a starting value of $77 million to $122 million for a strong 56% growth. During the same time period, its gross profit has also grown from roughly $55 million to a little over $75 million.
+By the end of this year's second quarter, 26 out of the 895 hedge funds polled by Insider Monkey had bought Confluent, Inc. (NASDAQ:CFLT)'s shares.
+Confluent, Inc. (NASDAQ:CFLT)'s largest investor in our database is Brad Gerstner's Altimeter Capital Management which owns 14 million shares that are worth $335 million.
+Along with PayPal Holdings, Inc. (NASDAQ:PYPL), Pfizer Inc. (NYSE:PFE), and United Parcel Service, Inc. (NYSE:UPS), Confluent, Inc. (NASDAQ:CFLT) is one of the cheapest growth stocks in the market right now.
+Click to continue reading and see 5 Growth Stocks To Buy That Are Too Cheap To Ignore.
+Suggested Articles:
+15 Largest Defense Contractors in the World in 2022 25 Most Polluted Cities in the World 15 Biggest Banana Producers in the World
+Disclosure: None. 10 Growth Stocks To Buy That Are Too Cheap To Ignore is originally published on Insider Monkey.</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core Laboratories (CLB) Q3 2022 Earnings Call Transcript</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>This morning, I'm joined by Chris Hill, Core's chief financial officer; and Gwen Gresham, Core's senior vice president and head of investor relations. Gwen will start by making remarks regarding forward-looking statements.
+Continue reading</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Edited Transcript of CLB.N earnings conference call or presentation 27-Oct-22 12:30pm GMT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Q3 2022 Core Laboratories NV Earnings Call AMSTERDAM Nov 29, 2022 (Thomson StreetEvents) -- Edited Transcript of Core Laboratories NV earnings conference call or presentation Thursday, October 27, 2022 at 12:30:00pm GMT TEXT version of Transcript ================================================================================ Corporate Participants ================================================================================ * Christopher Scott Hill Core Laboratories N.V. - Senior VP &amp; CFO * Gwendolyn Y. Gresham Core Laboratories N.V. - SVP of Corporate Development &amp; IR * Lawrence V. Bruno Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO ================================================================================ Conference Call Participants ================================================================================ * Daniel Robert Kutz Morgan Stanley, Research Division - Research Associate * David Smith;Pickering Energy Partners;Vice President * Donald Peter Crist Johnson Rice &amp; Company, L.L.C., Research Division - Research Analyst * John Daniel;Daniel Energy Partners;Managing Partner and Founder * Kay Hoh Evercore ISI Institutional Equities, Research Division - Research Analyst * Simon Galligani;Awilco AS;Investment Manager * Stephen David Gengaro Stifel, Nicolaus &amp; Company, Incorporated, Research Division - MD &amp; Senior Analyst ================================================================================ Presentation -------------------------------------------------------------------------------- Operator [1] -------------------------------------------------------------------------------- Good morning, and welcome to the Core Laboratories Third Quarter 2022 Conference Call. (Operator Instructions) Please note, that this event is being recorded. I would now like to turn the conference over to Mr. Larry Bruno, Chairman and CEO. Please go ahead. -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [2] -------------------------------------------------------------------------------- Thanks, Faizan. Good morning in the Americas; good afternoon in Europe, Africa and the Middle East; and good evening in Asia Pacific. We'd like to welcome all of our shareholders, analysts and most importantly, our employees to Core Laboratories Third Quarter 2022 Earnings Call. This morning, I'm joined by Chris Hill, Core's Chief Financial Officer; and Gwen Gresham, Core's Senior Vice President and Head of Investor Relations. The call will be divided into 6 segments. Gwen will start by making remarks regarding forward-looking statements. We'll then have some opening comments, including a high-level review of important factors in Core's Q3 performance. In addition, we will review Core's strategies and the 3 financial tenets that the company employs to build long-term shareholder value. Chris will then give a detailed financial overview and have additional comments regarding shareholder value. Following Chris, Gwen will provide some comments on the company's outlook and guidance. I'll then review Core's 2 operating segments, detailing our progress and discussing the continued successful introduction and deployment of Core Lab's technologies as well as highlighting some of Core's operations and major projects worldwide. Then we'll open the phones for a Q&amp;A session. I'll now turn the call over to Gwen for remarks on forward-looking statements. -------------------------------------------------------------------------------- Gwendolyn Y. Gresham, Core Laboratories N.V. - SVP of Corporate Development &amp; IR [3] -------------------------------------------------------------------------------- Before we start the conference this morning, I'll mention that some of the statements that we make during this call may include projections, estimates and other forward-looking information. This would include any discussion of the company's business outlook. These types of forward-looking statements are subject to a number of risks and uncertainties that could cause actual results to materially differ from our forward-looking statements. These risks and uncertainties are discussed in our most recent annual report on Form 10-K as well as other reports and registration statements filed by us with the SEC and the AFM. We undertake no obligation to publicly update or revise any forward-looking statements, whether as a result of new information, future events or otherwise. Our comments also include non-GAAP financial measures. Reconciliation to the most directly comparable GAAP financial measures is included in the press release announcing our third quarter results. Those non-GAAP measures can also be found on our website. With that said, I'll pass the discussion back to Larry. -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [4] -------------------------------------------------------------------------------- Thanks, Gwen. For the third quarter of 2022, Core Lab achieved sequential improvement in revenue, operating income, operating margins, free cash flow, EPS and EBIT margins. Year-over-year, revenue increased by 7%. For the full company, EBIT margins for the third quarter grew to 11% and operating margins improved sequentially in both business segments. Following Q2's strong 43% sequential incremental EBIT margins, even after accounting for currency devaluations of the euro and the British pound, full company sequential incremental EBIT margins for Q3 grew to over 55%, once again reinforcing the operational leverage available to Core Lab as global activity improves. Sequentially, EPS grew by 50% to $0.18 per share ex-items. In the third quarter, we saw a modest sequential improvement in demand for lab work in our European, Ukrainian and Russian operations as global trade patterns continue to realign. While we anticipate this trend will continue, the situation does pose uncertainties and potential volatility for both lab services and product sales in the company's Russian, Ukrainian and European markets. Aside from these uncertainties, we expect continued improvement in both business segments across international arenas and in the U.S. for the remainder of 2022 and into 2023. Core continues to execute on its key strategic objectives by: one, introducing new products and services in key geographic markets; two, maintaining a lean and focused organization; and three, maintaining a commitment to delevering the company. Now to review Core Lab's strategies and the financial tenets that Core has used to build shareholder value over our 26-plus year history as a publicly traded company. The interest of our shareholders, clients and employees will always be well served by Core Lab's resilient culture, which relies on innovation, leveraging technology to solve problems and dedicated customer service. I'll talk more about some of our latest innovations in the operational review section of this call. While we navigate through the current challenges and pursue growth opportunities, the company will remain focused on its 3 long-standing, long-term financial tenets, those being to maximize free cash flow, maximize return on invested capital and returning excess free cash to our shareholders. Before moving on, I want to thank all of our employees for their dedication, loyalty and adaptability in meeting all of our clients' needs and for the commitment that many have shown as we navigate the moment and prepare for a more active market. I'll now turn it over to Chris for the detailed financial review. -------------------------------------------------------------------------------- Christopher Scott Hill, Core Laboratories N.V. - Senior VP &amp; CFO [5] -------------------------------------------------------------------------------- Thanks, Larry. Before we review the financial performance for the quarter, the guidance we gave on our last call and past calls specifically excluded the impact of any FX gains and losses and assumed an effective tax rate of 20%. So accordingly, our discussion today excludes any foreign exchange gain or loss for current and prior periods. So now looking at the income statement. Revenue from continuing operations was $126 million in the third quarter, up over 4% from $120.9 million in the prior quarter and up almost 7% year-over-year. The sequential increase in revenue was driven by growth in both the U.S. and international markets. However, nice growth in the underlying operations in multiple international regions has been partially offset by the devaluation of the euro and British pound, which I will expand on later in the discussion. Additionally, although we have seen some improvement, the Ukraine-Russia conflict continues to adversely impact service revenue in the affected regions. Of this revenue, service revenue, which is more international, was $87.9 million for the quarter, up 3% sequentially from $85.4 million last quarter. The growth in service revenue this quarter has come from multiple international regions, including some recovery from disruptions caused by the conflict in Ukraine. While underlying activity continues to grow, our international service revenue was negatively impacted by foreign currency exchange rates versus the U.S. dollar. Using a constant U.S. dollar, international service revenue would have been translated into an additional $1.5 million when compared to last quarter and an additional $4.3 million when compared to Q3 of last year. The impact of these currency movements during the first 9 months of 2022 was approximately $9 million compared to the same period in the prior year. Product sales, which are more equally tied to U.S. and international activity, were $38.1 million for the quarter, up over 7% sequentially and up 15% from last year. U.S. product sales for the quarter were up over 22% sequentially and up over 13% year-over-year. Our energetic product sales into the U.S. markets continues to be the primary driver, and were up over 19% sequentially and up over 27% year-over-year. International product sales, which are typically larger bulk orders and can vary from one quarter to another, decreased approximately 4% sequentially, but were up over 16% when compared to third quarter last year. Moving on to cost of services ex-items for the quarter were a little below 77% of service revenue, which improved from 80% last quarter and 79% from last year. Cost of sales ex-items in the third quarter was 82% of revenue and also improved from 84% last quarter. The improvement this quarter was primarily driven by gains in manufacturing efficiencies and higher U.S. sales. We anticipate improvement in the manufacturing absorption rate in future quarters to be in line with projected growth in product sales. G&amp;A ex-items for the quarter was $10 million, relatively flat compared to last quarter. G&amp;A ex-items is anticipated to be approximately $40 million for the full year of 2022. Depreciation and amortization for the quarter was $4.2 million and down a little from $4.4 million last quarter. EBIT ex-items for the quarter was $13.3 million, up from $9.6 million last quarter, yielding an EBIT margin of 11% and up over 260 basis points sequentially. This quarter marked the company's highest sequential incremental margins since the COVID-19 pandemic. On a GAAP basis, EBIT was $14.6 million for the quarter. Interest expense ex-items was $2.9 million, up from $2.7 million in the last quarter. GAAP interest expense was $3.1 million, which includes writing off $210,000 of unamortized debt costs associated with renewing our credit facility during the quarter. Income tax expense ex-items at an effective tax rate of 20% was $2.1 million for the quarter and on a GAAP basis was $3.9 million for the quarter. Higher tax expense for the quarter was largely impacted by foreign currency gains, primarily in the U.K., where unrealized foreign currency gains associated with U.S. dollar-denominated receivables are subject to tax locally. The company has taken additional steps to further mitigate this type of foreign currency risk to reduce future tax expense associated with foreign exchange rates. Effective tax rate will continue to be somewhat sensitive to the geographic mix of earnings across the globe and the impact of items discrete to each quarter. However, we continue to project the company's effective tax rate to be approximately 20%. Income from continuing operations ex-items for the quarter was $8.3 million, up $2.8 million or over 50% from the last quarter. On a GAAP basis, we recorded income from continuing operations of $7.6 million for the quarter. Earnings per diluted share from continuing operations ex-items was $0.18 for the quarter, up from $0.12 last quarter, and GAAP earnings per diluted share was $0.16 for the quarter. Turning to the balance sheet. Receivables were $100.2 million and up slightly from $99.1 million in the prior quarter. Our DSOs for the third quarter were at 67 days, which improved from 69 days last quarter. Inventory was $54.8 million as of September 30, up approximately $2.2 million from last quarter end. Inventory turns for the quarter were at 2.3 compared to 2.4 in the last quarter. As previously highlighted, the company continues to experience an increase in cost that go into inventory. Additionally, challenges in the supply chain persists, so we continue to carry a larger amount of inventory to help mitigate disruptions. We anticipate inventory turns will remain at similar levels with some improvement as we progress through the remainder of 2022 and into 2023. On the liability side of the balance sheet, our long-term debt was $185 million at the end of the third quarter. And considering cash of $14 million, net debt was $171 million or a slight decrease from last quarter. At September 30, our leverage ratio improved slightly and was 2.42 compared to 2.47 at last quarter end. We are projecting our leverage ratio to continue improving through year-end with a more significant improvement in the first quarter of 2023. Our debt is currently comprised of our senior notes at $135 million as well as $50 million outstanding under our bank revolving credit facility. Looking at cash flow for the third quarter of 2022, cash flow from operating activities was $5.8 million. And after paying for $2.7 million of CapEx in the quarter, our free cash flow was $3.1 million or up $5.7 million from the last quarter. We expect the growth in working capital to moderate cash from operations to strengthen and for the company to generate positive free cash flow in future quarters. We will continue managing capital expenditures to be in line with activity levels for the remainder of 2022. For the full year of 2022, we expect capital expenditures to be in the range of $11 million to $12 million. Core will continue its strict capital discipline and asset-light business model with capital expenditures primarily targeted at growth opportunities and operating efficiency initiatives. Core Lab's operational leverage continues to provide for the ability to grow revenue and profitability with minimum capital requirements. Capital expenditures have historically ranged from 2.5% to 4% of revenue even during periods of significant growth. That same level of laboratory infrastructure, intellectual property and leverage exists in the business today. We believe evaluating a company's ability to generate free cash flow and free cash flow yield is an important metric for shareholders when comparing and projecting company's financial results, particularly for those shareholders who utilize discounted cash flow models to assess valuations. I will now turn it over to Gwen for an update on our guidance and outlook. -------------------------------------------------------------------------------- Gwendolyn Y. Gresham, Core Laboratories N.V. - SVP of Corporate Development &amp; IR [6] -------------------------------------------------------------------------------- Thank you, Chris. As the fourth quarter of 2022 unfolds, Core anticipates the crude oil commodity price to remain near current levels but may fluctuate in response to the crude oil supply and demand uncertainties related to slowing global economic growth, inflationary pressures and government-imposed COVID-19 lockdowns in China. Over the long term, crude oil supply is projected to tighten as production growth faces limitation due to prolonged underinvestment in many regions around the globe. As a result, Core expects operators to expand their upstream spending plans into 2023, supporting Core's outlook for continued improvement in international onshore and offshore activity with projects emerging across most regions. These crude oil fundamentals are leading indicators for what Core sees as a strengthening multiyear international recovery. Turning to the U.S., Core expects U.S. onshore activity to remain steady and modestly grow in 2023, as operators remain focused on capital discipline and availability of additional frac crews and drilling rigs may be constrained. As a result, for the fourth quarter of 2022, Core's Reservoir Description segment revenue is projected to be flat to up slightly. While momentum in international activity continues to build, near-term growth may be affected by 2 factors: volatility associated with the Russia-Ukraine geopolitical conflict and client-driven project delays. Production Enhancement segment revenue is estimated to increase by mid-to high single digits as U.S. land activity is projected to remain steady and international growth continues. For the fourth quarter of 2022, Core projects U.S. activity to remain stable and the recent improvement trends in international offshore and deepwater markets to continue. Core projects fourth quarter revenue to range from $126 million to $131 million and operating income of $13 million to $15 million, yielding operating margins of approximately 11%. EPS for the fourth quarter is expected to be $0.17 to $0.21. The company's fourth quarter guidance is based on projections for underlying operations and excludes gains and losses in foreign exchange. Fourth quarter guidance also assumes an effective tax rate of 20%. Now I'll pass the discussion back over to Larry. -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [7] -------------------------------------------------------------------------------- Thanks, Gwen. First, I'd like to thank our global team of employees for providing innovative solutions, integrity and superior service to our clients. The team's collective dedication to servicing our clients has been very visible during the current challenges and is the foundation of Core Lab's success. Turning first to Reservoir Description. For the third quarter, revenue came in at $79 million, up 4% compared to Q2. When looking at growth in revenue for Reservoir Description, it is important to consider the sharp devaluation of the euro and the British pound. These currency devaluations lowered Reservoir Description revenue when translated into U.S. dollars by approximately $1.5 million for the quarter as compared to Q2 and year-to-date by approximately $9 million for 2022 compared to 2021. Operating income for Reservoir Description ex-items was $8.4 million, and operating margins were 11%. Even after accounting for the currency devaluations I just mentioned, quarterly sequential incremental margins for Reservoir Description were still over 70%. As we look ahead, while still well below pre-COVID levels, we see the growing international rig count as a harbinger of an improving landscape for Reservoir Description, a trend that we project will play out for the next several years, particularly in the Middle East, North and South America and most other regions. Now for some operational highlights from the third quarter. Core continued to leverage its global reach, expertise and proprietary technologies to evaluate core and reservoir fluid samples from a multi-well exploration program in the deepwater, Orange Basin, located offshore Namibia. Conventional core recovered from targeted stratigraphic intervals were scanned using Core Lab's Non-Invasive Technologies for Reservoir Optimization, branded as NITRO. A wide range of critical petrophysical parameters for pay delineation were generated using Core Lab's innovative measurement and modeling techniques, allowing for rapid delivery of data and early-time assessment of the recovered strata. Selected samples are now progressing through the traditional, time-honored program of physical laboratory measurements. Recent successes in Namibia have generated renewed interest in Core Lab's regional study of reservoir and seal rocks from offshore Namibia. This study, conducted in collaboration with the National Oil Company of Namibia, includes geological analysis of samples from more than 20 wells. This study is just 1 of 22 multi-well, multi-company studies that Core Lab has conducted on sedimentary basins offshore Africa. In other developments, Core Lab is pleased to announce that during the third quarter of 2022, Quantum Energy Partners and Trace Midstream Management joined Core's Carbon Capture and Sequestration Consortium, bringing total membership to 8 participants. These new members enhance the consortium's exposure to both private equity engagement and midstream operations expertise in the emerging carbon capture and sequestration market. The objective of the consortium is to analyze geologic risks and challenges associated with carbon sequestration, leveraging Core's expertise and subsurface characterization. Regulatory entities that govern carbon sequestration projects require extensive site evaluation. Core's technologies ensure that the models for simulation and monitoring of CO2 injection and sequestration are built on robust data sets and are applicable for the permitting process. Moving now to Production Enhancement, where Core Lab's strengths in both energetic systems and completion diagnostics helped customers optimize their well completions. Revenue for Production Enhancement came in at $47 million, up 4% sequentially and up 20% year-over-year. Operating income ex-items was $4.7 million. Operating margins were 10% for the third quarter of 2022 and sequential incremental margins were 44%. During the third quarter of 2022, Core Lab continued to build on the success of its proprietary Plug and Abandonment Perforating System called PAC, which is used for oil and gas well abandonment programs. Core Lab provides solutions that leverage its expertise in energetics as an alternative to traditional casing milling, which is slower and more costly. Thus far in 2022, Core successfully deployed its PAC technologies in over 30 wells in the North Sea. Core's PAC energetic solutions are often used in Perf-Wash-Cement applications. This technique enables the operator to selectively establish circulation in the annular space between casing strings, thereby creating pathways for setting the permanent cement plugs required for well abandonment. Over on the service side of Production Enhancement, operators continue to leverage Core's expertise in completion diagnostics for offshore wells during the third quarter of 2022. Core's SpectraStim, SpectraScan and PackScan downhole imaging technologies were utilized in deepwater Gulf of Mexico Miocene wells to evaluate single and dual zone frac pack completions. In addition to those technologies, Core's FLOWPROFILER oil diagnostics were used to assess the production in ultra-deepwater Gulf of Mexico reservoirs involving multi-zone completions. The costs associated with completing multiple wells in these high stakes, deepwater wells necessitates confirmation that each frac pack is properly configured and each targeted zone is contributing oil production as per the completion plan. Recently, Core's Production Enhancement team was tasked to deploy a unique FLOWPROFILER diagnostic tracer in each of 4 frac pack completion zones. Core's proprietary laboratory analytical techniques on produced oil samples confirmed that all 4 zones were contributing to production. FLOWPROFILER also helped the operator understand how the reservoir was responding, allowing them to adjust flowback procedures to achieve the drawdown pressures that would optimize production without damaging the reservoir. Core' completion diagnostics are a critical tool for determining whether planned completion programs were successfully executed downhole, many thousands or even tens of thousands of feet away from the wellhead. That concludes our operational review. We appreciate your participation, and Faizan, we'll now open the call for questions. ================================================================================ Questions and Answers -------------------------------------------------------------------------------- Operator [1] -------------------------------------------------------------------------------- (Operator Instructions) The first question comes from Stephen Gengaro from Stifel Financial Corporation. -------------------------------------------------------------------------------- Stephen David Gengaro, Stifel, Nicolaus &amp; Company, Incorporated, Research Division - MD &amp; Senior Analyst [2] -------------------------------------------------------------------------------- I think 2 questions from me, if you don't mind. And if we could start on the Reservoir Description side, and I understand the FX issues and headwinds. When we -- what we are kind of consistently hearing from other service companies and even large E&amp;Ps is we're on the cusp of kind of pretty strong international growth in '23 and '24 likely. How should we be thinking about the RD business in that environment? Should we start to see consistent double-digit year-over-year growth in that business. I'm just sort of trying to get a sense for how the growth rate should look. And I mean looking at history, that would seem to be reasonable, but I'm trying to put together the puts and takes here. -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [3] -------------------------------------------------------------------------------- Yes, Stephen, I think that's right. It's -- we're -- we agree that we're starting off for -- heading into a multiyear up cycle that is going to really benefit Reservoir Description. As we've talked about with you and with other analysts and investors, Reservoir Description, by its nature, tends to lag directional trends. We've been saying that for a while. It held in very well when COVID hit, and a lot of the sort of service companies that were more exposed to well construction and all really went down sharply. Reservoir Description held in very well. And now those leading indicators of an increased activity, the international rig count being a very good bogey for that is gaining traction. We see that going forward. That aligns very well with our client discussions. And so Reservoir Description is going to start making headway there in terms of its margins, which were, what 11% or so for Q3. And we think it may not be as linear as any of us would like, but we think that it's the beginning of a nice upcycle and getting back into some nice double-digit margins. -------------------------------------------------------------------------------- Stephen David Gengaro, Stifel, Nicolaus &amp; Company, Incorporated, Research Division - MD &amp; Senior Analyst [4] -------------------------------------------------------------------------------- Great. That's helpful. And obviously, the quarter was really strong on the margin side. When we look at the energetics business in the U.S. land market, it sort of seems to have evolved. And there seems to be a lot of offerings on sort of the integrated side, but you had a really good quarter there. Can you talk about some of the underlying positives that sort of drove the product sales in North America in the third quarter? -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [5] -------------------------------------------------------------------------------- Sure. Gwen, why don't you get into some of the details there. -------------------------------------------------------------------------------- Gwendolyn Y. Gresham, Core Laboratories N.V. - SVP of Corporate Development &amp; IR [6] -------------------------------------------------------------------------------- Yes, Stephen. So in spite of the completion activity, I mean, increased a bit, but it was a little bit anemic compared to other quarters. With our energetic sales, though, we outperformed the activity, both completions and frac spreads kind of as our markers there. And so with our U.S. sales, we were up about 19% sequentially and 27% year-over-year. So that's penetration into the market with our existing energetic products that we have. And then we also did pretty well internationally. And as you recall, those are pretty -- those can be bulky, and they can move quarter-to-quarter. And so in Q3, we had some nice shipments there as well. -------------------------------------------------------------------------------- Stephen David Gengaro, Stifel, Nicolaus &amp; Company, Incorporated, Research Division - MD &amp; Senior Analyst [7] -------------------------------------------------------------------------------- And just real quickly on that front, anything on the pricing front around the energetics business right now in North America? -------------------------------------------------------------------------------- Gwendolyn Y. Gresham, Core Laboratories N.V. - SVP of Corporate Development &amp; IR [8] -------------------------------------------------------------------------------- Yes. Getting some pricing improvements, as you know, that area of the market was hit pretty hard during COVID. And we've been working with operators, wireline company since, and we've seen some nice, let's say, modest pricing improvements to date. -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [9] -------------------------------------------------------------------------------- Okay. And Stephen, I might add to that, that we are seeing really nice penetration and demand for our premium energetics, which has always been sort of the bulwark of our products business. -------------------------------------------------------------------------------- Operator [10] -------------------------------------------------------------------------------- The next question comes from John Daniel from Daniel Energy Partners. -------------------------------------------------------------------------------- John Daniel;Daniel Energy Partners;Managing Partner and Founder, [11] -------------------------------------------------------------------------------- Just 2 questions for you this morning. You noted renewed interest in some of the studies. And I'm curious when you look back historically, as you've seen interest rise for reviewing and study purchases, how long does that translate into more business, whether for you or just for the industry at large? -------------------------------------------------------------------------------- Lawrence V. Bruno, Core Laboratories N.V. - Chairman of the Board, CEO, President &amp; COO [12] -------------------------------------------------------------------------------- Yes. So interesting model that we have on those, John. We collaborate on their international studies. We collaborate with national oil companies. And the -- we deliver those to the original participants when we complete the analytical program. And then we retain a resale right on that data. So it was kind of an off-the-shelf sale, which yields some pretty high margins when we do that. We're usually sharing those with our collaborative partner with the national oil companies. But what we see on those is, I would say, after a quiet several years of interest in these offshore studies from the Africa, offshore Africa market, all of a sudden, that's picked up pretty nicely in the last quarter or so. So we think we're early in their reconnaissance phase where people are starting to reengage and l</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CORE LAB REPORTS THIRD QUARTER 2022 RESULTS FROM CONTINUING OPERATIONS:</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>THIRD QUARTER REVENUE OF $126 MILLION; UP 4% SEQUENTIALLY; UP 7% YEAR-OVER-YEAR THIRD QUARTER OPERATING INCOME UP OVER 25% SEQUENTIALLY AND, EX-ITEMS, UP OVER 38% SEQUENTIALLY THIRD QUARTER SEQUENTIAL INCREMENTAL MARGINS, EX-ITEMS, EXCEED 55%, DRIVEN BY RESERVOIR DESCRIPTION THIRD QUARTER GAAP EPS OF $0.16; EX-ITEMS, $0.18 THIRD QUARTER FREE CASH FLOW OF $3.1 MILLION COMPANY ANNOUNCES Q4 2022 QUARTERLY DIVIDEND
+AMSTERDAM, Oct. 26, 2022 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core", "Core Lab", or the "Company") reported third quarter 2022 revenue of $126,000,000. Revenue for the third quarter of 2022 was adversely impacted by the devaluation of the Euro and British Pound when translated into U.S. dollars. Using a constant U.S. dollar exchange rate, revenue would be $1,500,000 higher sequentially and $4,300,000 higher year-over-year. Core's operating income was $14,600,000, with diluted earnings per share ("EPS") of $0.16, all in accordance with U.S. generally accepted accounting principles ("GAAP"). Operating income, ex-items, a non-GAAP financial measure, was $13,300,000, yielding operating margins of 11%, and EPS, ex-items, of $0.18. Sequential incremental margins, excluding the aforementioned currency devaluation, were over 55%. A full reconciliation of non-GAAP financial measures is included in the attached financial tables.
+Core's CEO, Larry Bruno stated, "First, our thoughts remain with our Ukrainian employees and their families during the on-going conflict. Core's results during the third quarter of 2022 displayed continued positive momentum as we achieved sequential improvement in revenue, operating income, operating margins, free cash flow ("FCF") and EPS, with strong incremental margins. This quarter-over-quarter improvement in financial results was driven by steady U.S. activity and an increase in international activity, effectively illustrating the operational leverage that is inherent in our global, asset-light business model. Looking forward, Core sees continued progress in both onshore and offshore client activity across our global operations, although the Russia-Ukraine conflict, and the potential collateral impact in Europe, create uncertainties to growth prospects in those specific regions."
+Story continues
+Russia-Ukraine Conflict
+The on-going geopolitical conflict between Russia and Ukraine, along with the associated sanctions, continue to present some measure of uncertainty for Core's business and financial performance in the affected regions. As part of Core's Reservoir Description laboratory network, the Company provides analytical services on crude oil, natural gas and derived products, including both reservoir condition analysis and ambient condition assay work. Over the course of the third quarter of 2022, demand for laboratory assay work showed modest improvement, as global trading patterns continued to realign.
+Reservoir Description
+Reservoir Description operations are closely correlated with trends in international and offshore activity levels, with approximately 80% of revenue sourced from projects originating outside the U.S. Reservoir Description revenue in the third quarter of 2022 was $79,000,000, up 4% sequentially and flat year-over-year. Third quarter international revenue increased 8% sequentially, driven by project progression and realignment of global trading patterns. Considering the devaluation of the Euro and British Pound, and using a constant U.S. dollar exchange rate, international revenue would be up 11% sequentially and up 6% year-over-year. Operating income for the third quarter of 2022 on a GAAP basis was $9,800,000, while operating income, ex-items, was $8,400,000, yielding operating margins of 11%. Using the aforementioned currency devaluation, sequential incremental margins, ex-items, were in excess of 70%.
+During the third quarter of 2022, Core continued to leverage its global network, expertise and proprietary technologies to evaluate core and reservoir fluid samples acquired from a multi-well exploration program in the deepwater, Orange Basin, located offshore Namibia. Conventional core recovered from targeted stratigraphic intervals were scanned using Core's Non-Invasive Technologies for Reservoir Optimization ("NITRO™"). A wide range of critical petrophysical parameters for pay delineation were generated using Core Lab's innovative measurement and modeling techniques, allowing for early-time assessment of the recovered strata. Selected samples are now progressing through the traditional, time-honored program of physical laboratory measurements. Core's proprietary, full visualization, high-pressure, high-temperature, pressure-volume-temperature ("PVT") cells and other proprietary technologies were utilized to determine the chemical and physical properties of recovered reservoir fluids. Recent successes in Namibia have generated renewed interest in Core Lab's "Reservoirs and Seals of Offshore Namibia Basins, South Atlantic Margin" regional study. This study, conducted in collaboration with the National Oil Company of Namibia, includes geological analysis of samples from more than 20 wells. The study assessed depositional and diagenetic controls on porosity and provides a regional evaluation of prospective reservoir targets. This study is just one of 22 multi-well, multi-company studies that Core Lab has conducted on offshore Africa sedimentary basins.
+Core Lab is pleased to announce that during the third quarter of 2022, Quantum Energy Partners, LLC and Trace Midstream Management II, LLC joined Core's Carbon Capture and Sequestration ("CCS") Consortium, bringing total membership to eight participants. These new members enhance the Consortium's exposure to private equity engagement and midstream operations expertise in the emerging CCS marketplace. Earlier in 2022, Core announced the launch of its CCS Consortium in collaboration with Dr. Birol Dindoruk of the University of Houston. The objective of the Consortium is to analyze geologic risks and challenges associated with subsurface carbon sequestration. This consortium project leverages Core's expertise in subsurface characterization, with a focus on reservoir capacity, subsurface injection and containment integrity, as well as rock-fluid and fluid-fluid compatibility. Regulatory entities that govern carbon sequestration projects require extensive site evaluation. Core's technologies ensure that models for simulation and monitoring of CO2 injection and sequestration are both representative and applicable for the permitting process.
+Production Enhancement
+Production Enhancement operations, which are focused on complex completions in unconventional, tight-oil reservoirs in the U.S., as well as conventional offshore projects across the globe, posted third quarter 2022 revenue of $47,000,000, up 4% sequentially and up 20% year-over-year. Operating income on a GAAP basis was $4,400,000, while operating income, ex-items, was $4,700,000, yielding operating margins of 10% and sequential incremental margins, ex-items, of 44%. During the quarter, Core's proprietary energetic product sales grew over 20% sequentially and over 30% year-over-year, driven by both organic growth from new product sales and market penetration in U.S. and international markets.
+During the third quarter of 2022, Core Lab continued to build on the success of its proprietary Plug and Abandonment Perforating System ("PAC™") in applications for oil and gas well abandonment programs. Core provides solutions that leverage its expertise in energetics as an alternative to traditional section milling, which is slower and more costly. Thus far in 2022, Core has successfully deployed its PAC™ technologies in over 30 wells in the North Sea. Core's PAC™ energetic solutions are commonly used in Perf-Wash-Cement ("PWC") applications. This technique enables the operator to selectively establish circulation in the annular space between casing strings, thereby creating pathways for setting the permanent cement barriers that comply with stringent requirements for well abandonment in the North Sea. Core's Production Enhancement team offers an industry-leading portfolio of plug and abandonment energetic solutions.
+Operators continued to leverage Core's expertise in completion diagnostics for offshore wells during the third quarter of 2022. Core's SpectraStim™, SpectraScan®, and PackScan® downhole imaging technologies were utilized in deepwater Gulf of Mexico Miocene wells to evaluate single and dual zone frac pack completions. In addition to those technologies, Core's FLOWPROFILER™ oil tracers were used to assess production in ultra-deepwater Gulf of Mexico reservoirs involving multi-zone completions. The costs associated with completing multiple zones in these high-stakes wells necessitates confirmation that each frac pack is properly configured, and that each targeted zone is contributing oil production as per the completion plan. Recently, Core's Production Enhancement team was tasked to deploy a unique FLOWPROFILER™ diagnostic tracer in each of four frac pack completion zones. Core's proprietary laboratory analytical techniques confirmed that all four zones were contributing to production. FLOWPROFILER™ also helped the operator understand how the reservoir was responding, allowing them to adjust flowback procedures to achieve drawdown pressure that optimized production without damaging the reservoir. Core's Completion diagnostics are a critical tool for determining whether planned completion programs were successfully executed downhole, many thousands, or even tens of thousands of feet away from the wellhead.
+Liquidity, Free Cash Flow and Dividend
+On 9 June 2022, Core Lab announced a $60,000,000 At-The-Market ("ATM") equity offering program. As of 30 September 2022, the Company had not sold any shares under the ATM program.
+Core continues to focus on maximizing FCF, a non-GAAP financial measure defined as cash from operations less capital expenditures. For the third quarter of 2022, cash from operations was $5,800,000 and capital expenditures were $2,700,000, yielding FCF of $3,100,000. Core expects the growth in working capital associated with higher levels of inventory to moderate, cash from operations to strengthen and the Company to generate positive free cash in future quarters. Core's free cash will continue to be returned to its shareholders through the Company's regular quarterly dividend as well as being focused towards reducing long-term debt.
+Core will continue applying free cash towards reducing debt until the Company reaches its target leverage ratio (calculated as total net debt divided by trailing twelve months adjusted EBITDA) of 1.5 times or lower.
+On 27 July 2022, Core's Board of Supervisory Directors ("Board") announced a quarterly cash dividend of $0.01 per share of common stock, which was paid on 29 August 2022 to shareholders of record on 8 August 2022. Dutch withholding tax was deducted from the dividend at a rate of 15%.
+On 26 October 2022, the Board approved a cash dividend of $0.01 per share of common stock payable in the fourth quarter of 2022. The fourth quarter dividend will be payable on 28 November 2022, to shareholders of record on 7 November 2022. Dutch withholding tax will be deducted from the dividend at a rate of 15%.
+Return On Invested Capital
+The Board and the Company's Executive Management continue to focus on strategies that maximize return on invested capital ("ROIC") and FCF, factors that have high correlation to total shareholder return. Core's commitment to an asset-light business model and disciplined capital stewardship promotes capital efficiency and is designed to produce more predictable and superior long-term ROIC.
+The Board has established an internal performance metric of demonstrating superior ROIC performance relative to the oilfield service companies listed as Core's Comp Group by Bloomberg, as the Company continues to believe superior ROIC will result in higher total return to shareholders. Bloomberg's calculations using the latest comparable data available indicate Core Lab's ROIC of 5.8%.
+Industry and Core Lab Outlook and Guidance
+As the fourth quarter of 2022 unfolds, Core anticipates the crude-oil commodity price will remain near current levels but may fluctuate in response to the crude-oil supply and demand uncertainties related to slowing global economic growth, inflationary pressures and government-imposed COVID-19 lockdowns in China. Over the longer term, crude-oil supply is projected to tighten as production growth faces limitations due to prolonged underinvestment in many regions around the globe. As a result, Core Lab expects operators to expand their upstream spending plans into 2023, supporting Core's outlook for continued improvement in international onshore and offshore activity, with projects emerging across most regions. These crude-oil market fundamentals are leading indicators for what Core sees as a strengthening multi-year international recovery.
+Turning to the U.S., Core expects U.S. onshore activity to remain steady and modestly grow in 2023, as operators remain focused on capital discipline and availability of additional frac crews and drilling rigs may constrain growth.
+As a result, for the fourth quarter of 2022, Core's Reservoir Description segment revenue is projected to be flat to up slightly. While momentum in international activity continues to build, near-term growth may be affected by two factors: 1) volatility associated with the Russia-Ukraine geopolitical conflict, and 2) client-driven project delays. Production Enhancement segment revenue is estimated to increase by mid to high single digits as U.S. land activity is projected to remain steady and international growth continues.
+For the fourth quarter of 2022, Core projects U.S. activity to remain stable and the recent improvement trends in international, offshore and deepwater markets to continue. Core projects fourth quarter 2022 revenue to range from $126,000,000 to $131,000,000 and operating income of $13,000,000 to $15,000,000, yielding operating margins of approximately 11%. EPS for the fourth quarter of 2022 is expected to be $0.17 to $0.21.
+The Company's fourth quarter 2022 guidance is based on projections for underlying operations and excludes gains and losses in foreign exchange. Fourth quarter 2022 guidance also assumes an effective tax rate of 20%.
+Earnings Call Scheduled
+The Company has scheduled a conference call to discuss Core's third quarter 2022 earnings announcement. The call will begin at 7:30 a.m. CDT / 2:30 p.m. CEST on Thursday, 27 October 2022. To listen to the call, please go to Core's website at www.corelab.com.
+Core Laboratories N.V. is a leading provider of proprietary and patented reservoir description and production enhancement services and products used to optimize petroleum reservoir performance. The Company has over 70 offices in more than 50 countries and is located in every major oil-producing province in the world. This release, as well as other statements we make, includes forward-looking statements regarding the future revenue, profitability, business strategies and developments of the Company made in reliance upon the safe harbor provisions of Federal securities law. The Company's outlook is subject to various important cautionary factors, including risks and uncertainties related to the oil and natural gas industry, business and general economic conditions, including inflationary pressures, international markets, international political climates, including the Russia-Ukraine geopolitical conflict, public health crises, such as the COVID-19 pandemic, and any related actions taken by businesses and governments, and other factors as more fully described in the Company's most recent Forms 10-K, 10-Q and 8-K filed with or furnished to the U.S. Securities and Exchange Commission. These important factors could cause the Company's actual results to differ materially from those described in these forward-looking statements. Such statements are based on current expectations of the Company's performance and are subject to a variety of factors, some of which are not under the control of the Company. Because the information herein is based solely on data currently available, and because it is subject to change as a result of changes in conditions over which the Company has no control or influence, such forward-looking statements should not be viewed as assurance regarding the Company's future performance.
+The Company undertakes no obligation to publicly update or revise any forward-looking statement to reflect events or circumstances that may arise after the date of this press release, except as required by law.
+Visit the Company's website at www.corelab.com. Connect with Core Lab on Facebook, LinkedIn and YouTube.
+CORE LABORATORIES N.V. &amp; SUBSIDIARIES
+CONDENSED CONSOLIDATED STATEMENTS OF OPERATIONS
+(amounts in thousands, except per share data)
+(Unaudited) Three Months Ended % Variance September 30,
+2022 June 30,
+2022 September 30,
+2021 vs. Q2-22 vs. Q3-21 REVENUE $125,966 $120,898 $117,985 4.2 % 6.8 % OPERATING EXPENSES: Costs of services and product sales 98,930 97,957 92,918 1.0 % 6.5 % General and administrative expense 10,001 6,847 15,115 46.1 % (33.8) % Depreciation and amortization 4,171 4,360 4,496 (4.3) % (7.2) % Other (income) expense, net (1,781) 82 (1,184) NM NM Total operating expenses 111,321 109,246 111,345 1.9 % — % OPERATING INCOME (LOSS) 14,645 11,652 6,640 25.7 % 120.6 % Interest expense 3,138 2,707 2,669 15.9 % 17.6 % Income (loss) from continuing operations 
+ before income taxes 11,507 8,945 3,971 28.6 % 189.8 % Income tax expense (benefit) 3,856 1,789 2,962 115.5 % 30.2 % Income (loss) from continuing operations 7,651 7,156 1,009 6.9 % 658.3 % Net income (loss) 7,651 7,156 1,009 6.9 % 658.3 % Net income (loss) attributable to non-
+controlling interest 127 90 135 NM NM Net income (loss) attributable to Core 
+Laboratories N.V. $7,524 $7,066 $874 6.5 % 760.9 % Diluted earnings (loss) per share from 
+continuing operations $0.16 $0.15 $0.02 6.7 % 700.0 % Diluted earnings (loss) per share 
+attributable to Core Laboratories N.V. $0.16 $0.15 $0.02 6.7 % 700.0 % Diluted weighted average common 
+shares outstanding 47,012 47,143 47,125 (0.3) % (0.2) % Effective tax rate 34 % 20 % 75 % NM NM SEGMENT INFORMATION: Revenue: Reservoir Description $78,996 $75,818 $78,775 4.2 % 0.3 % Production Enhancement 46,970 45,080 39,210 4.2 % 19.8 % Total $125,966 $120,898 $117,985 4.2 % 6.8 % Operating income (loss): Reservoir Description $9,798 $5,925 $4,425 65.4 % 121.4 % Production Enhancement 4,417 4,949 2,779 (10.7) % 58.9 % Corporate and Other 430 778 (564) NM NM Total $14,645 $11,652 $6,640 25.7 % 120.6 % "NM" means not meaningful
+CORE LABORATORIES N.V. &amp; SUBSIDIARIES
+CONDENSED CONSOLIDATED STATEMENTS OF OPERATIONS
+(amounts in thousands, except per share data)
+(Unaudited) Nine Months Ended 
+September 30, % Variance 2022 2021 REVENUE $362,164 $345,113 4.9 % OPERATING EXPENSES: Costs of services and product sales 293,839 270,909 8.5 % General and administrative expense 29,393 33,246 (11.6) % Depreciation and amortization 13,088 14,118 (7.3) % Other (income) expense, net (62) (4,222) NM Total operating expenses 336,258 314,051 7.1 % OPERATING INCOME (LOSS) 25,906 31,062 (16.6) % Interest expense 8,489 6,562 29.4 % Income (loss) from continuing operations before income taxes 17,417 24,500 (28.9) % Income tax expense (benefit) 4,449 7,068 (37.1) % Income (loss) from continuing operations 12,968 17,432 (25.6) % Net income (loss) 12,968 17,432 (25.6) % Net income (loss) attributable to non-controlling interest 266 393 NM Net income (loss) attributable to Core Laboratories N.V. $12,702 $17,039 (25.5) % Diluted earnings (loss) per share from continuing operations $0.28 $0.37 (24.3) % Diluted earnings (loss) per share attributable to Core Laboratories 
+N.V. $0.27 $0.36 (25.0) % Diluted weighted average common shares outstanding 47,117 46,833 0.6 % Effective tax rate 26 % 29 % NM SEGMENT INFORMATION: Revenue: Reservoir Description $229,567 $233,512 (1.7) % Production Enhancement 132,597 111,601 18.8 % Total $362,164 $345,113 4.9 % Operating income (loss): Reservoir Description $16,085 $21,742 (26.0) % Production Enhancement 8,447 8,170 3.4 % Corporate and Other 1,374 1,150 NM Total $25,906 $31,062 (16.6) % "NM" means not meaningful
+CORE LABORATORIES N.V. &amp; SUBSIDIARIES
+CONDENSED CONSOLIDATED BALANCE SHEETS
+(amounts in thousands)
+(Unaudited % Variance ASSETS: September 30,
+2022 June 30,
+2022 December 31,
+2021 vs. Q2-22 vs. Q4-21 Cash and cash equivalents $ 13,732 $ 16,148 $ 17,703 (15.0) % (22.4) % Accounts receivable, net 100,195 99,180 96,830 1.0 % 3.5 % Inventories 54,795 52,551 45,443 4.3 % 20.6 % Other current assets 26,493 31,742 29,079 (16.5) % (8.9) % Total current assets 195,215 199,621 189,055 (2.2) % 3.3 %</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Eni (E) Scheduled to Report Q3 Earnings: What's in the Cards?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Eni SPA E is set to report third-quarter 2022 results on Oct 28, after the closing bell.
+In the last reported quarter, the Italian energy major’s adjusted earnings from continuing operations of $2.28 per American Depository Receipt beat the Zacks Consensus Estimate of $1.85 due to higher realizations of average liquid and natural gas prices.
+Eni beat the Zacks Consensus Estimate for earnings in the trailing four quarters, delivering a beat of 17.8%, on average. This is depicted in the graph below:
+Eni SpA Price and EPS Surprise Eni SpA Price and EPS Surprise
+Eni SpA price-eps-surprise | Eni SpA Quote
+Estimate Trend
+The Zacks Consensus Estimate for Eni’s third-quarter earnings per share of $2.04 has witnessed no upward and downward movement in the past 30 days. The consensus estimate suggests an increase of 119.4% from the year-ago reported number.
+Key Factors
+Oil and natural gas prices were considerably higher in the September-end quarter of this year. Higher commodity prices were favorable for the exploration and production operations of Eni in the to-be-reported quarter as it holds interests in multiple exploration and production blocks in the shallow and deep offshore waters of the Gulf of Mexico.
+Eni is also expected to have reaped the reward of a better macro environment in its downstream unit. With the post-pandemic demand recovery driving margins, the company is likely to have seen a year-over-year segmental earnings surge.
+Earnings Whispers
+Our proven model does not conclusively predict an earnings beat for Eni this time around. The combination of a positive Earnings ESP and a Zacks Rank #1 (Strong Buy), 2 (Buy) or 3 (Hold) increases the chances of an earnings beat.
+Earnings ESP: Eni has an Earnings ESP of 0.00%. This is because the Most Accurate Estimate and the Zacks Consensus Estimate are both pegged at earnings of $2.04 per share. You can uncover the best stocks to buy or sell before they’re reported with our Earnings ESP Filter.
+Story continues
+Zacks Rank: Eni currently carries a Zacks Rank #2.
+Stocks That Warrant a Look
+Here are some firms that you may want to consider, as these have the right combination of elements to post an earnings beat in the upcoming quarterly reports:
+Core Laboratories N.V. CLB has an Earnings ESP of +1.70% and is a Zacks #2 Ranked player at present. You can see the complete list of today’s Zacks #1 Rank stocks here.
+Core Laboratories is scheduled to release third-quarter results on Oct 26. The Zacks Consensus Estimate for CLB’s earnings is pegged at 15 cents per share, suggesting a decline from the prior-year reported figure.
+Comstock Resources, Inc. CRK has an Earnings ESP of +1.04% and currently flaunts a Zacks Rank of 1.
+Comstock is scheduled to report third-quarter results on Nov 1. The Zacks Consensus Estimate for CRK’s earnings is pegged at $1.16 per share, suggesting a significant increase from the prior-year reported figure.
+Chevron Corporation CVX currently has an Earnings ESP of +0.28% and a Zacks Rank #3.
+Chevron is scheduled to release third-quarter earnings on Oct 28. The Zacks Consensus Estimate for CVX’s earnings is pegged at $5.10 per share, suggesting a massive improvement from the prior-year reported figure.
+Stay on top of upcoming earnings announcements with the Zacks Earnings Calendar.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Chevron Corporation (CVX) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+Comstock Resources, Inc. (CRK) : Free Stock Analysis Report
+Eni SpA (E) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pioneer Natural (PXD) to Post Q3 Earnings: What's in Store?</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pioneer Natural Resources Company PXD is set to report third-quarter 2022 results on Oct 27, after the closing bell.
+In the last reported quarter, the upstream company’s earnings of $9.36 per share (excluding one-time items) beat the Zacks Consensus Estimate of $8.81, owing to higher oil-equivalent production volumes and commodity price realizations.
+Pioneer Natural beat the Zacks Consensus Estimate for earnings in the trailing four quarters, delivering an earnings surprise of 8%, on average. This is depicted in the graph below:
+Pioneer Natural Resources Company Price and EPS Surprise Pioneer Natural Resources Company Price and EPS Surprise
+Pioneer Natural Resources Company price-eps-surprise | Pioneer Natural Resources Company Quote
+Estimate Trend
+The Zacks Consensus Estimate for Pioneer Natural’s third-quarter earnings per share of $7.64 has witnessed one upward and six downward movements in the past 30 days. The consensus estimate suggests an increase of 85% from the year-ago reported number.
+The Zacks Consensus Estimate for the to-be-reported quarter’s revenues of $6.6 billion indicates a 47.7% year-over-year improvement.
+Factors to Consider
+The West Texas Intermediate crude price was considerably higher in the third quarter of this year. Higher oil price was favorable for the exploration and production activities of Pioneer Natural.
+However, the Zacks Consensus Estimate for the company’s average daily total sales volume is pegged at 646,934 barrels of oil equivalent, suggesting a decline from 675,793 barrels of oil equivalent reported in the year-ago quarter. Our estimate for average daily total sales volume is pegged at 642.1 thousand barrels of oil equivalent, also indicating a decline from the prior-year quarter’s reported figure.
+Also, the Zacks Consensus Estimate for Pioneer Natural’s average daily sales volume for oil is pegged at 355,320 barrels, suggesting a decline from 388,829 barrels in the year-ago quarter. Our estimate for average daily total sales volume is pegged at 357.3 thousand barrels, also indicating a decline from the prior-year quarter’s reported figure.
+Story continues
+Lower production is likely to have affected Pioneer Natural’s performance in the third quarter.
+Earnings Whispers
+Our proven model does not conclusively predict an earnings beat for Pioneer Natural this time around. The combination of a positive Earnings ESP and a Zacks Rank #1 (Strong Buy), 2 (Buy) or 3 (Hold) increases the chances of an earnings beat.
+Earnings ESP: Pioneer Natural has an Earnings ESP of -3.26%. This is because the Most Accurate Estimate is currently pegged at earnings of $7.39 per share, whereas the Zacks Consensus Estimate is pinned at $7.64 per share. You can uncover the best stocks to buy or sell before they’re reported with our Earnings ESP Filter.
+Zacks Rank: PXD currently has a Zacks Rank #3.
+Stocks That Warrant a Look
+Here are some firms that you may want to consider, as these have the right combination of elements to post an earnings beat in the upcoming quarterly results:
+Core Laboratories N.V. CLB has an Earnings ESP of +1.70% and is a Zacks #2 Ranked player at present. You can see the complete list of today’s Zacks #1 Rank stocks here.
+Core Laboratories is scheduled to release third-quarter results on Oct 26. The Zacks Consensus Estimate for CLB’s earnings is pegged at 15 cents per share, suggesting a decline from the prior-year reported figure.
+Chevron Corporation CVX currently has an Earnings ESP of +0.28% and a Zacks Rank #3.
+Chevron is scheduled to release third-quarter earnings on Oct 28. The Zacks Consensus Estimate for CVX’s earnings is pegged at $5.10 per share, suggesting a massive increase from the prior-year reported figure.
+EQT Corporation EQT is set to release third-quarter 2022 results on Oct 26. EQT has an Earnings ESP of +2.29% and a Zacks Rank #2.
+The Zacks Consensus Estimate for third-quarter 2022 earnings of EQT is $1.05 per share, suggesting a significant improvement from the prior-year period’s reported number.
+Stay on top of upcoming earnings announcements with the Zacks Earnings Calendar.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Chevron Corporation (CVX) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+Pioneer Natural Resources Company (PXD) : Free Stock Analysis Report
+EQT Corporation (EQT) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Schlumberger (SLB) Tops Q3 Earnings and Revenue Estimates</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Schlumberger (SLB) came out with quarterly earnings of $0.63 per share, beating the Zacks Consensus Estimate of $0.55 per share. This compares to earnings of $0.36 per share a year ago. These figures are adjusted for non-recurring items.
+This quarterly report represents an earnings surprise of 14.55%. A quarter ago, it was expected that this world's largest oilfield services company would post earnings of $0.40 per share when it actually produced earnings of $0.50, delivering a surprise of 25%.
+Over the last four quarters, the company has surpassed consensus EPS estimates four times.
+Schlumberger , which belongs to the Zacks Oil and Gas - Field Services industry, posted revenues of $7.48 billion for the quarter ended September 2022, surpassing the Zacks Consensus Estimate by 4.67%. This compares to year-ago revenues of $5.85 billion. The company has topped consensus revenue estimates four times over the last four quarters.
+The sustainability of the stock's immediate price movement based on the recently-released numbers and future earnings expectations will mostly depend on management's commentary on the earnings call.
+Schlumberger shares have added about 52.6% since the beginning of the year versus the S&amp;P 500's decline of -23.1%.
+What's Next for Schlumberger?
+While Schlumberger has outperformed the market so far this year, the question that comes to investors' minds is: what's next for the stock?
+There are no easy answers to this key question, but one reliable measure that can help investors address this is the company's earnings outlook. Not only does this include current consensus earnings expectations for the coming quarter(s), but also how these expectations have changed lately.
+Empirical research shows a strong correlation between near-term stock movements and trends in earnings estimate revisions. Investors can track such revisions by themselves or rely on a tried-and-tested rating tool like the Zacks Rank, which has an impressive track record of harnessing the power of earnings estimate revisions.
+Story continues
+Ahead of this earnings release, the estimate revisions trend for Schlumberger: favorable. While the magnitude and direction of estimate revisions could change following the company's just-released earnings report, the current status translates into a Zacks Rank #2 (Buy) for the stock. So, the shares are expected to outperform the market in the near future. You can see the complete list of today's Zacks #1 Rank (Strong Buy) stocks here.
+It will be interesting to see how estimates for the coming quarters and current fiscal year change in the days ahead. The current consensus EPS estimate is $0.64 on $7.48 billion in revenues for the coming quarter and $2.03 on $27.36 billion in revenues for the current fiscal year.
+Investors should be mindful of the fact that the outlook for the industry can have a material impact on the performance of the stock as well. In terms of the Zacks Industry Rank, Oil and Gas - Field Services is currently in the top 8% of the 250 plus Zacks industries. Our research shows that the top 50% of the Zacks-ranked industries outperform the bottom 50% by a factor of more than 2 to 1.
+Another stock from the same industry, Core Laboratories (CLB), has yet to report results for the quarter ended September 2022. The results are expected to be released on October 26.
+This energy services company is expected to post quarterly earnings of $0.15 per share in its upcoming report, which represents a year-over-year change of -16.7%. The consensus EPS estimate for the quarter has been revised 3.3% higher over the last 30 days to the current level.
+Core Laboratories' revenues are expected to be $126.14 million, up 6.9% from the year-ago quarter.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Schlumberger Limited (SLB) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Linde (LIN) Earnings Expected to Grow: What to Know Ahead of Next Week's Release</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wall Street expects a year-over-year increase in earnings on higher revenues when Linde (LIN) reports results for the quarter ended September 2022. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
+The stock might move higher if these key numbers top expectations in the upcoming earnings report, which is expected to be released on October 27. On the other hand, if they miss, the stock may move lower.
+While the sustainability of the immediate price change and future earnings expectations will mostly depend on management's discussion of business conditions on the earnings call, it's worth handicapping the probability of a positive EPS surprise.
+Zacks Consensus Estimate
+This gas supplier is expected to post quarterly earnings of $2.94 per share in its upcoming report, which represents a year-over-year change of +7.7%.
+Revenues are expected to be $8.27 billion, up 7.8% from the year-ago quarter.
+Estimate Revisions Trend
+The consensus EPS estimate for the quarter has been revised 0.88% lower over the last 30 days to the current level. This is essentially a reflection of how the covering analysts have collectively reassessed their initial estimates over this period.
+Investors should keep in mind that an aggregate change may not always reflect the direction of estimate revisions by each of the covering analysts.
+Earnings Whisper
+Estimate revisions ahead of a company's earnings release offer clues to the business conditions for the period whose results are coming out. Our proprietary surprise prediction model -- the Zacks Earnings ESP (Expected Surprise Prediction) -- has this insight at its core.
+The Zacks Earnings ESP compares the Most Accurate Estimate to the Zacks Consensus Estimate for the quarter; the Most Accurate Estimate is a more recent version of the Zacks Consensus EPS estimate. The idea here is that analysts revising their estimates right before an earnings release have the latest information, which could potentially be more accurate than what they and others contributing to the consensus had predicted earlier.
+Story continues
+Thus, a positive or negative Earnings ESP reading theoretically indicates the likely deviation of the actual earnings from the consensus estimate. However, the model's predictive power is significant for positive ESP readings only.
+A positive Earnings ESP is a strong predictor of an earnings beat, particularly when combined with a Zacks Rank #1 (Strong Buy), 2 (Buy) or 3 (Hold). Our research shows that stocks with this combination produce a positive surprise nearly 70% of the time, and a solid Zacks Rank actually increases the predictive power of Earnings ESP.
+Please note that a negative Earnings ESP reading is not indicative of an earnings miss. Our research shows that it is difficult to predict an earnings beat with any degree of confidence for stocks with negative Earnings ESP readings and/or Zacks Rank of 4 (Sell) or 5 (Strong Sell).
+How Have the Numbers Shaped Up for Linde?
+For Linde, the Most Accurate Estimate is lower than the Zacks Consensus Estimate, suggesting that analysts have recently become bearish on the company's earnings prospects. This has resulted in an Earnings ESP of -0.23%.
+On the other hand, the stock currently carries a Zacks Rank of #4.
+So, this combination makes it difficult to conclusively predict that Linde will beat the consensus EPS estimate.
+Does Earnings Surprise History Hold Any Clue?
+Analysts often consider to what extent a company has been able to match consensus estimates in the past while calculating their estimates for its future earnings. So, it's worth taking a look at the surprise history for gauging its influence on the upcoming number.
+For the last reported quarter, it was expected that Linde would post earnings of $2.98 per share when it actually produced earnings of $3.10, delivering a surprise of +4.03%.
+Over the last four quarters, the company has beaten consensus EPS estimates four times.
+Bottom Line
+An earnings beat or miss may not be the sole basis for a stock moving higher or lower. Many stocks end up losing ground despite an earnings beat due to other factors that disappoint investors. Similarly, unforeseen catalysts help a number of stocks gain despite an earnings miss.
+That said, betting on stocks that are expected to beat earnings expectations does increase the odds of success. This is why it's worth checking a company's Earnings ESP and Zacks Rank ahead of its quarterly release. Make sure to utilize our Earnings ESP Filter to uncover the best stocks to buy or sell before they've reported.
+Linde doesn't appear a compelling earnings-beat candidate. However, investors should pay attention to other factors too for betting on this stock or staying away from it ahead of its earnings release.
+An Industry Player's Expected Results
+Among the stocks in the Zacks Oil and Gas - Field Services industry, Core Laboratories (CLB) is soon expected to post earnings of $0.15 per share for the quarter ended September 2022. This estimate indicates a year-over-year change of -16.7%. This quarter's revenue is expected to be $126.14 million, up 6.9% from the year-ago quarter.
+Over the last 30 days, the consensus EPS estimate for Core Laboratories has been revised 3.3% up to the current level. Nevertheless, the company now has an Earnings ESP of 1.70%, reflecting a higher Most Accurate Estimate.
+When combined with a Zacks Rank of #2 (Buy), this Earnings ESP indicates that Core Laboratories will most likely beat the consensus EPS estimate. Over the last four quarters, the company surpassed EPS estimates just once.
+Stay on top of upcoming earnings announcements with the Zacks Earnings Calendar.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Linde plc (LIN) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Is a Beat in the Offing for EQT Corp's (EQT) Q3 Earnings?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>EQT Corporation EQT is set to report third-quarter 2022 results on Oct 26, after the closing bell.
+In the last reported quarter, EQT Corp’s adjusted earnings from continuing operations of 83 cents per share beat the Zacks Consensus Estimate of 81 cents due to higher cubic feet equivalent production and realized commodity prices.
+In the trailing four quarters, EQT Corp beat the Zacks Consensus Estimate for earnings twice and missed the same twice, delivering a beat of 75.2%, on average. This is depicted in the graph below:
+EQT Corporation Price and EPS Surprise EQT Corporation Price and EPS Surprise
+EQT Corporation price-eps-surprise | EQT Corporation Quote
+Estimate Trend
+The Zacks Consensus Estimate for EQT Corp’s third-quarter earnings per share of $1.11 has witnessed four upward revisions and two downward movements in the past 30 days. The consensus estimate suggests an increase of 825% from the year-ago reported number.
+The Zacks Consensus Estimate for the to-be-reported quarter’s revenues of $1.8 billion indicates a 52.6% improvement from the year-ago reported figure.
+Earnings Whispers
+Our proven model conclusively predicts an earnings beat for EQT Corp this time around. The combination of a positive Earnings ESP and a Zacks Rank #1 (Strong Buy), 2 (Buy) or 3 (Hold) increases the chances of an earnings beat.
+Earnings ESP: EQT Corp has an Earnings ESP of +23.99%. This is because the Most Accurate Estimate is currently pegged at earnings of $1.37 per share, whereas the Zacks Consensus Estimate is pinned at $1.11 per share. You can uncover the best stocks to buy or sell before they’re reported with our Earnings ESP Filter.
+Zacks Rank: EQT Corp currently carries a Zacks Rank #2.
+Key Factors
+Natural gas prices were considerably higher in the September-end quarter of this year. Higher gas prices were favorable for the exploration and production operations of EQT Corp in the to-be-reported quarter since the firm has a strong footprint in the cores of the Marcellus and Utica Shales in the Appalachian Basin.
+Story continues
+The Zacks Consensus Estimate for EQT’s total sales volume is pegged at 504,289 million cubic feet of natural gas equivalent (MMcfe), suggesting an improvement from 495,013 MMcfe reported in the year-ago quarter. We expect the company’s total sales volume to be 506,788.1 MMcfe.
+The Zacks Consensus Estimate for EQT’s natural gas sales volume is pegged at 478,747 million cubic feet (MMcf), suggesting an improvement from 464,574 MMcf reported in the year-ago quarter. Our estimate for the company’s total sales volume is projected to be 476,901.7 MMcf.
+Higher sales volumes and commodity prices are likely to have aided the leading natural gas producer’s bottom line in the third quarter.
+Other Stocks That Warrant a Look
+Here are some other firms that you may want to consider, as these, too, have the right combination of elements to post an earnings beat in the upcoming quarterly reports:
+Core Laboratories N.V. CLB has an Earnings ESP of +1.70% and is a Zacks #2 Ranked player at present. You can see the complete list of today’s Zacks #1 Rank stocks here.
+Core Laboratories is scheduled to release third-quarter results on Oct 26. The Zacks Consensus Estimate for CLB’s earnings is pegged at 15 cents per share, suggesting a decline from the prior-year reported figure.
+Comstock Resources, Inc. CRK has an Earnings ESP of +4.75% and currently flaunts a Zacks Rank of 1.
+Comstock is scheduled to report third-quarter results on Nov 1. The Zacks Consensus Estimate for CRK’s earnings is pegged at $1.15 per share, suggesting a significant increase from the prior-year reported figure.
+Halliburton Company HAL has an Earnings ESP of +1.54% and a Zacks Rank #2 at present.
+Halliburton is scheduled to release third-quarter earnings on Oct 25. The Zacks Consensus Estimate for HAL’s earnings is pegged at 56 cents per share, suggesting a 100% increase from the prior-year reported figure.
+Stay on top of upcoming earnings announcements with the Zacks Earnings Calendar.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Halliburton Company (HAL) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+Comstock Resources, Inc. (CRK) : Free Stock Analysis Report
+EQT Corporation (EQT) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Why Oil Stocks Are Surprisingly Rallying Today</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oil prices are rising today. West Texas Intermediate, the leading U.S. oil price benchmark, closed up 3% to top $85 a barrel. Several notable names moved higher on the day, including Chevron (NYSE: CVX), Transocean (NYSE: RIG), and Core Laboratories (NYSE: CLB).
+Continue reading</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Core Laboratories (CLB) Expected to Beat Earnings Estimates: Should You Buy?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wall Street expects a year-over-year decline in earnings on higher revenues when Core Laboratories (CLB) reports results for the quarter ended September 2022. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
+The earnings report, which is expected to be released on October 26, 2022, might help the stock move higher if these key numbers are better than expectations. On the other hand, if they miss, the stock may move lower.
+While the sustainability of the immediate price change and future earnings expectations will mostly depend on management's discussion of business conditions on the earnings call, it's worth handicapping the probability of a positive EPS surprise.
+Zacks Consensus Estimate
+This energy services company is expected to post quarterly earnings of $0.15 per share in its upcoming report, which represents a year-over-year change of -16.7%.
+Revenues are expected to be $126.14 million, up 6.9% from the year-ago quarter.
+Estimate Revisions Trend
+The consensus EPS estimate for the quarter has been revised 3.33% higher over the last 30 days to the current level. This is essentially a reflection of how the covering analysts have collectively reassessed their initial estimates over this period.
+Investors should keep in mind that the direction of estimate revisions by each of the covering analysts may not always get reflected in the aggregate change.
+Earnings Whisper
+Estimate revisions ahead of a company's earnings release offer clues to the business conditions for the period whose results are coming out. This insight is at the core of our proprietary surprise prediction model -- the Zacks Earnings ESP (Expected Surprise Prediction).
+The Zacks Earnings ESP compares the Most Accurate Estimate to the Zacks Consensus Estimate for the quarter; the Most Accurate Estimate is a more recent version of the Zacks Consensus EPS estimate. The idea here is that analysts revising their estimates right before an earnings release have the latest information, which could potentially be more accurate than what they and others contributing to the consensus had predicted earlier.
+Story continues
+Thus, a positive or negative Earnings ESP reading theoretically indicates the likely deviation of the actual earnings from the consensus estimate. However, the model's predictive power is significant for positive ESP readings only.
+A positive Earnings ESP is a strong predictor of an earnings beat, particularly when combined with a Zacks Rank #1 (Strong Buy), 2 (Buy) or 3 (Hold). Our research shows that stocks with this combination produce a positive surprise nearly 70% of the time, and a solid Zacks Rank actually increases the predictive power of Earnings ESP.
+Please note that a negative Earnings ESP reading is not indicative of an earnings miss. Our research shows that it is difficult to predict an earnings beat with any degree of confidence for stocks with negative Earnings ESP readings and/or Zacks Rank of 4 (Sell) or 5 (Strong Sell).
+How Have the Numbers Shaped Up for Core Laboratories?
+For Core Laboratories, the Most Accurate Estimate is higher than the Zacks Consensus Estimate, suggesting that analysts have recently become bullish on the company's earnings prospects. This has resulted in an Earnings ESP of +1.70%.
+On the other hand, the stock currently carries a Zacks Rank of #2.
+So, this combination indicates that Core Laboratories will most likely beat the consensus EPS estimate.
+Does Earnings Surprise History Hold Any Clue?
+Analysts often consider to what extent a company has been able to match consensus estimates in the past while calculating their estimates for its future earnings. So, it's worth taking a look at the surprise history for gauging its influence on the upcoming number.
+For the last reported quarter, it was expected that Core Laboratories would post earnings of $0.12 per share when it actually produced earnings of $0.12, delivering no surprise.
+Over the last four quarters, the company has beaten consensus EPS estimates just once.
+Bottom Line
+An earnings beat or miss may not be the sole basis for a stock moving higher or lower. Many stocks end up losing ground despite an earnings beat due to other factors that disappoint investors. Similarly, unforeseen catalysts help a number of stocks gain despite an earnings miss.
+That said, betting on stocks that are expected to beat earnings expectations does increase the odds of success. This is why it's worth checking a company's Earnings ESP and Zacks Rank ahead of its quarterly release. Make sure to utilize our Earnings ESP Filter to uncover the best stocks to buy or sell before they've reported.
+Core Laboratories appears a compelling earnings-beat candidate. However, investors should pay attention to other factors too for betting on this stock or staying away from it ahead of its earnings release.
+Expected Results of an Industry Player
+Halliburton (HAL), another stock in the Zacks Oil and Gas - Field Services industry, is expected to report earnings per share of $0.56 for the quarter ended September 2022. This estimate points to a year-over-year change of +100%. Revenues for the quarter are expected to be $5.33 billion, up 38.1% from the year-ago quarter.
+The consensus EPS estimate for Halliburton has been revised 0.9% higher over the last 30 days to the current level. However, a higher Most Accurate Estimate has resulted in an Earnings ESP of 1.54%.
+This Earnings ESP, combined with its Zacks Rank #2 (Buy), suggests that Halliburton will most likely beat the consensus EPS estimate. Over the last four quarters, the company surpassed consensus EPS estimates two times.
+Stay on top of upcoming earnings announcements with the Zacks Earnings Calendar.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+Halliburton Company (HAL) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SLB or CLB: Which Is the Better Value Stock Right Now?</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Investors interested in stocks from the Oil and Gas - Field Services sector have probably already heard of Schlumberger (SLB) and Core Laboratories (CLB). But which of these two companies is the best option for those looking for undervalued stocks? Let's take a closer look.
+The best way to find great value stocks is to pair a strong Zacks Rank with an impressive grade in the Value category of our Style Scores system. The Zacks Rank favors stocks with strong earnings estimate revision trends, and our Style Scores highlight companies with specific traits.
+Right now, both Schlumberger and Core Laboratories are sporting a Zacks Rank of # 2 (Buy). This means that both companies have witnessed positive earnings estimate revisions, so investors should feel comfortable knowing that both of these stocks have an improving earnings outlook. However, value investors will care about much more than just this.
+Value investors are also interested in a number of tried-and-true valuation metrics that help show when a company is undervalued at its current share price levels.
+The Value category of the Style Scores system identifies undervalued companies by looking at a number of key metrics. These include the long-favored P/E ratio, P/S ratio, earnings yield, cash flow per share, and a variety of other fundamentals that help us determine a company's fair value.
+SLB currently has a forward P/E ratio of 21.88, while CLB has a forward P/E of 30.96. We also note that SLB has a PEG ratio of 0.56. This figure is similar to the commonly-used P/E ratio, with the PEG ratio also factoring in a company's expected earnings growth rate. CLB currently has a PEG ratio of 0.76.
+Another notable valuation metric for SLB is its P/B ratio of 3.76. The P/B ratio pits a stock's market value against its book value, which is defined as total assets minus total liabilities. For comparison, CLB has a P/B of 4.47.
+These are just a few of the metrics contributing to SLB's Value grade of B and CLB's Value grade of C.
+Both SLB and CLB are impressive stocks with solid earnings outlooks, but based on these valuation figures, we feel that SLB is the superior value option right now.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Schlumberger Limited (SLB) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Are Investors Undervaluing Core Laboratories N.V. (NYSE:CLB) By 34%?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>How far off is Core Laboratories N.V. (NYSE:CLB) from its intrinsic value? Using the most recent financial data, we'll take a look at whether the stock is fairly priced by taking the expected future cash flows and discounting them to their present value. We will use the Discounted Cash Flow (DCF) model on this occasion. Before you think you won't be able to understand it, just read on! It's actually much less complex than you'd imagine.
+We would caution that there are many ways of valuing a company and, like the DCF, each technique has advantages and disadvantages in certain scenarios. If you want to learn more about discounted cash flow, the rationale behind this calculation can be read in detail in the Simply Wall St analysis model.
+See our latest analysis for Core Laboratories
+The Method
+We're using the 2-stage growth model, which simply means we take in account two stages of company's growth. In the initial period the company may have a higher growth rate and the second stage is usually assumed to have a stable growth rate. To start off with, we need to estimate the next ten years of cash flows. Where possible we use analyst estimates, but when these aren't available we extrapolate the previous free cash flow (FCF) from the last estimate or reported value. We assume companies with shrinking free cash flow will slow their rate of shrinkage, and that companies with growing free cash flow will see their growth rate slow, over this period. We do this to reflect that growth tends to slow more in the early years than it does in later years.
+A DCF is all about the idea that a dollar in the future is less valuable than a dollar today, so we discount the value of these future cash flows to their estimated value in today's dollars:
+10-year free cash flow (FCF) forecast
+2023 2024 2025 2026 2027 2028 2029 2030 2031 2032 Levered FCF ($, Millions)  US$44.5m US$59.0m US$71.0m US$79.0m US$84.9m US$89.8m US$94.0m US$97.7m US$100.9m US$103.8m Growth Rate Estimate Source Analyst x3 Analyst x2 Analyst x1 Analyst x1 Est @ 7.47% Est @ 5.82% Est @ 4.67% Est @ 3.86% Est @ 3.3% Est @ 2.9% Present Value ($, Millions) Discounted @ 9.3%  US$40.7 US$49.4 US$54.4 US$55.4 US$54.4 US$52.7 US$50.5 US$48.0 US$45.3 US$42.7
+("Est" = FCF growth rate estimated by Simply Wall St)
+Present Value of 10-year Cash Flow (PVCF) = US$493m
+Story continues
+After calculating the present value of future cash flows in the initial 10-year period, we need to calculate the Terminal Value, which accounts for all future cash flows beyond the first stage. The Gordon Growth formula is used to calculate Terminal Value at a future annual growth rate equal to the 5-year average of the 10-year government bond yield of 2.0%. We discount the terminal cash flows to today's value at a cost of equity of 9.3%.
+Terminal Value (TV)= FCF2032 × (1 + g) ÷ (r – g) = US$104m× (1 + 2.0%) ÷ (9.3%– 2.0%) = US$1.4b
+Present Value of Terminal Value (PVTV)= TV / (1 + r)10= US$1.4b÷ ( 1 + 9.3%)10= US$595m
+The total value is the sum of cash flows for the next ten years plus the discounted terminal value, which results in the Total Equity Value, which in this case is US$1.1b. The last step is to then divide the equity value by the number of shares outstanding. Compared to the current share price of US$15.5, the company appears quite good value at a 34% discount to where the stock price trades currently. Valuations are imprecise instruments though, rather like a telescope - move a few degrees and end up in a different galaxy. Do keep this in mind. dcf
+Important Assumptions
+The calculation above is very dependent on two assumptions. The first is the discount rate and the other is the cash flows. Part of investing is coming up with your own evaluation of a company's future performance, so try the calculation yourself and check your own assumptions. The DCF also does not consider the possible cyclicality of an industry, or a company's future capital requirements, so it does not give a full picture of a company's potential performance. Given that we are looking at Core Laboratories as potential shareholders, the cost of equity is used as the discount rate, rather than the cost of capital (or weighted average cost of capital, WACC) which accounts for debt. In this calculation we've used 9.3%, which is based on a levered beta of 1.564. Beta is a measure of a stock's volatility, compared to the market as a whole. We get our beta from the industry average beta of globally comparable companies, with an imposed limit between 0.8 and 2.0, which is a reasonable range for a stable business.
+Next Steps:
+Although the valuation of a company is important, it is only one of many factors that you need to assess for a company. The DCF model is not a perfect stock valuation tool. Rather it should be seen as a guide to "what assumptions need to be true for this stock to be under/overvalued?" If a company grows at a different rate, or if its cost of equity or risk free rate changes sharply, the output can look very different. Can we work out why the company is trading at a discount to intrinsic value? For Core Laboratories, we've put together three pertinent elements you should explore:
+Risks: Consider for instance, the ever-present spectre of investment risk.  We've identified 2 warning signs  with Core Laboratories (at least 1 which doesn't sit too well with us)  , and understanding them should be part of your investment process. Future Earnings: How does CLB's growth rate compare to its peers and the wider market? Dig deeper into the analyst consensus number for the upcoming years by interacting with our free analyst growth expectation chart. Other Solid Businesses: Low debt, high returns on equity and good past performance are fundamental to a strong business. Why not explore our interactive list of stocks with solid business fundamentals to see if there are other companies you may not have considered!
+PS. The Simply Wall St app conducts a discounted cash flow valuation for every stock on the NYSE every day. If you want to find the calculation for other stocks just search here.
+Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.
+This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.
+Join A Paid User Research Session
+You’ll receive a US$30 Amazon Gift card for 1 hour of your time while helping us build better investing tools for the individual investors like yourself. Sign up here</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CORE LABORATORIES' THIRD QUARTER 2022 WEBCAST AT 7:30 A.M. CDT / 2:30 P.M. CEST ON OCTOBER 27, 2022</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AMSTERDAM, Sept. 27, 2022 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its third quarter 2022 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on October 27, 2022. Core Laboratories N.V. logo (PRNewsFoto/Core Laboratories N.V.)
+Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Gresham, SVP Corporate Development and Investor Relations, will discuss financial and operational results.  An earnings press release will be issued after market close on October 26th and may be accessed through the Company's website at www.corelab.com.
+To participate in the live webcast, simply log on to www.corelab.com at least fifteen minutes prior to the start of the call.  For those who are not available to listen to the live webcast, a Podcast will be available immediately following the conference call and a replay will be available on Core's website shortly after the call which will remain on the site for 10 days.
+To listen to the conference call via telephone, please contact Lena Brennan at lena.brennan@corelab.com for the dial-in number.
+Core Laboratories N.V. (www.corelab.com) is a leading provider of proprietary and patented reservoir description and production enhancement services and products used to optimize petroleum reservoir performance.  The Company has over 70 offices in more than 50 countries and is located in every major oil-producing province in the world. Cision
+View original content to download multimedia:https://www.prnewswire.com/news-releases/core-laboratories-third-quarter-2022-webcast-at-730-am-cdt--230-pm-cest-on-october-27-2022-301634754.html
+SOURCE Core Laboratories N.V.</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SLB or CLB: Which Is the Better Value Stock Right Now?</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Investors looking for stocks in the Oil and Gas - Field Services sector might want to consider either Schlumberger (SLB) or Core Laboratories (CLB). But which of these two stocks presents investors with the better value opportunity right now? Let's take a closer look.
+There are plenty of strategies for discovering value stocks, but we have found that pairing a strong Zacks Rank with an impressive grade in the Value category of our Style Scores system produces the best returns. The proven Zacks Rank puts an emphasis on earnings estimates and estimate revisions, while our Style Scores work to identify stocks with specific traits.
+Schlumberger and Core Laboratories are sporting Zacks Ranks of #2 (Buy) and #3 (Hold), respectively, right now. This means that SLB's earnings estimate revision activity has been more impressive, so investors should feel comfortable with its improving analyst outlook. But this is just one piece of the puzzle for value investors.
+Value investors analyze a variety of traditional, tried-and-true metrics to help find companies that they believe are undervalued at their current share price levels.
+The Value category of the Style Scores system identifies undervalued companies by looking at a number of key metrics. These include the long-favored P/E ratio, P/S ratio, earnings yield, cash flow per share, and a variety of other fundamentals that help us determine a company's fair value.
+SLB currently has a forward P/E ratio of 18.96, while CLB has a forward P/E of 29.26. We also note that SLB has a PEG ratio of 0.49. This popular figure is similar to the widely-used P/E ratio, but the PEG ratio also considers a company's expected EPS growth rate. CLB currently has a PEG ratio of 0.72.
+Another notable valuation metric for SLB is its P/B ratio of 3.25. The P/B is a method of comparing a stock's market value to its book value, which is defined as total assets minus total liabilities. By comparison, CLB has a P/B of 4.20.
+Story continues
+These metrics, and several others, help SLB earn a Value grade of B, while CLB has been given a Value grade of C.
+SLB sticks out from CLB in both our Zacks Rank and Style Scores models, so value investors will likely feel that SLB is the better option right now.
+Want the latest recommendations from Zacks Investment Research? Today, you can download 7 Best Stocks for the Next 30 Days. Click to get this free report
+Schlumberger Limited (SLB) : Free Stock Analysis Report
+Core Laboratories N.V. (CLB) : Free Stock Analysis Report
+To read this article on Zacks.com click here.
+Zacks Investment Research</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>2022-09-07</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>SLB vs. CLB: Which Stock Is the Better Value Option?</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Investors interested in stocks from the Oil and Gas - Field Services sector have probably already heard of Schlumberger (SLB) and Core Laboratories (CLB). But which of these two companies is the best option for those looking for undervalued stocks? Let's take a closer look.
 The best way to find great value stocks is to pair a strong Zacks Rank with an impressive grade in the Value category of our Style Scores system. The Zacks Rank favors stocks with strong earnings estimate revision trends, and our Style Scores highlight companies with specific traits.
@@ -487,25 +1597,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E28" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Should You Be Concerned About Core Laboratories N.V.'s (NYSE:CLB) ROE?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Many investors are still learning about the various metrics that can be useful when analysing a stock. This article is for those who would like to learn about Return On Equity (ROE). To keep the lesson grounded in practicality, we'll use ROE to better understand Core Laboratories N.V. (NYSE:CLB).
 Return on Equity or ROE is a test of how effectively a company is growing its value and managing investors’ money. Put another way, it reveals the company's success at turning shareholder investments into profits.
@@ -534,25 +1644,25 @@
 You’ll receive a US$30 Amazon Gift card for 1 hour of your time while helping us build better investing tools for the individual investors like yourself. Sign up here</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E29" t="n">
         <v>0.987</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>SLB vs. CLB: Which Stock Should Value Investors Buy Now?</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Investors interested in Oil and Gas - Field Services stocks are likely familiar with Schlumberger (SLB) and Core Laboratories (CLB). But which of these two companies is the best option for those looking for undervalued stocks? Let's take a closer look.
 The best way to find great value stocks is to pair a strong Zacks Rank with an impressive grade in the Value category of our Style Scores system. The proven Zacks Rank emphasizes companies with positive estimate revision trends, and our Style Scores highlight stocks with specific traits.
@@ -570,48 +1680,48 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E30" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>2022-08-11</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Why Devon Energy, Tellurian, and Core Laboratories Stocks Rocketed Higher Today</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Shares of oil and gas explorer Devon Energy (NYSE: DVN), LNG terminal company Tellurian (NYSEMKT: TELL), and energy services company Core Laboratories (NYSE: CLB) were rallying today, up 7.3%, 6%, and 5.5%, respectively, as of 1:45 p.m. ET on Thursday. Each of these companies plays in a different part of the energy sector, so it's no surprise their rally came in conjunction with a rise in oil and natural gas prices today, the result of an incrementally bullish report from the International Energy Agency (IEA). On Thursday, the IEA raised its oil-demand outlook for the rest of 2022, increasing its forecast by 380,000 barrels per day (bpd) to about 99.7 million bpd globally.</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E31" t="n">
         <v>0.9419999999999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>SLB or CLB: Which Is the Better Value Stock Right Now?</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Investors looking for stocks in the Oil and Gas - Field Services sector might want to consider either Schlumberger (SLB) or Core Laboratories (CLB). But which of these two companies is the best option for those looking for undervalued stocks? Let's take a closer look.
 Everyone has their own methods for finding great value opportunities, but our model includes pairing an impressive grade in the Value category of our Style Scores system with a strong Zacks Rank. The proven Zacks Rank emphasizes companies with positive estimate revision trends, and our Style Scores highlight stocks with specific traits.
@@ -629,48 +1739,48 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E32" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Why Energy Stocks Dropped on Monday</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Oil stocks had a rough start to the week after WTI Crude oil prices fell 4.9% to $93.82 per barrel and Brent Crude fell 3.9% to $99.87 on Monday. Shares of oil producer Centennial Resource Development (NASDAQ: CDEV) plunged as much as 5.6% today, offshore rig owner Transocean (NYSE: RIG) fell 7.7%, and Core Laboratories (NYSE: CLB) dropped 8.9%. The biggest economic news out today was the Institute for Supply Management's (ISM) reading of manufacturing sentiment.</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E33" t="n">
         <v>-0.772</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Core Labs (CLB) Q2 Earnings Meet Estimates, Sales Narrowly Beat</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Core Laboratories CLB reported second-quarter 2022 results, wherein adjusted earnings of 12 cents a share met the Zacks Consensus Estimate. This is attributable to the reported quarter’s revenues being in line with the Zacks Consensus Estimate, marginally beating the same.  However, the bottom line worsened from the year-ago quarter’s earnings of 18 cents per share. This downside is attributable to the year-over-year increase in expenses.
 This oilfield service provider’s adjusted revenues of $120.9 million beat the Zacks Consensus Estimate of $120 million by just 0.75%. The top line also rose from the year-ago quarter’s revenues of $118.7 million.
@@ -705,71 +1815,71 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E34" t="n">
         <v>0.995</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>2022-07-29</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q2 2022 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>This morning, I'm joined by Chris Hill, Core's chief financial officer; and Gwen Gresham, Core's senior vice president and head of investor relations. Gwen will start by making remarks regarding forward-looking statements.</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Sank Today</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Investors weren't in a particularly forgiving mood after the company unveiled its latest set of quarterly earnings Wednesday night.</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E36" t="n">
         <v>-0.162</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>2022-07-27</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q2 Earnings Match Estimates</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.12 per share, in line with the Zacks Consensus Estimate. This compares to earnings of $0.18 per share a year ago. These figures are adjusted for non-recurring items.
 A quarter ago, it was expected that this energy services company would post earnings of $0.06 per share when it actually produced earnings of $0.08, delivering a surprise of 33.33%.
@@ -794,25 +1904,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E37" t="n">
         <v>0.994</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>2022-07-27</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>CORE LAB REPORTS SECOND QUARTER 2022 RESULTS FROM CONTINUING OPERATIONS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>SECOND QUARTER REVENUE OF $120.9 MILLION; UP 5% SEQUENTIALLY; UP 2% YEAR-OVER-YEAR SECOND QUARTER SEQUENTIAL INCREMENTAL MARGINS, EX-ITEMS, 43%, DRIVEN BY RESERVOIR DESCRIPTION SECOND QUARTER GAAP EPS OF $0.15; EPS, EX-ITEMS, $0.12 RENEWS AND EXTENDS REVOLVING CREDIT FACILITY THROUGH 2026 ANNOUNCES Q3 2022 QUARTERLY DIVIDEND
 AMSTERDAM, July 27, 2022 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core", "Core Lab", or the "Company") reported second quarter 2022 revenue of $120,900,000.  Sequential revenue growth was adversely impacted by approximately $2,000,000, due to the devaluation of the Euro and British Pound, as well as a decrease in revenue from operations based in Russia.  Core's operating income was $11,700,000, with earnings per diluted share ("EPS") of $0.15, all in accordance with U.S. generally accepted accounting principles ("GAAP").  Operating income, ex-items, a non-GAAP financial measure, was $9,600,000, yielding operating margins of 8%, sequential incremental margins of 43%, and EPS, ex-items, of $0.12.  An adjustment to reverse previously recognized stock compensation expense was recorded during the second quarter of 2022 for certain performance share awards which are no longer expected to vest.  A full reconciliation of non-GAAP financial measures is included in the attached financial tables.
@@ -865,71 +1975,71 @@
 2021 vs. Q1-22 vs. Q4-21 Cash and cash equivalents $ 16,148 $ 22,037 $ 17,703 (26.7) % (8.8) % Accounts receivable, net 99,180 98,900 96,830 0.3 % 2.4 % Inventories 52,551 48,224 45,443 9.0 % 15.6 % Other current assets 31,742 33,031 29,079 (3.9) % 9.2 % Total current assets 199,621 202,192 189,055 (1.3) % 5.6 % Property, plant and equipment, net 109,176 109,926 110,952 (0.7) % (1.6) % Right of use assets 57,964 60,168 61,387 (3.7) % (5.6) % Intangibles, goodwill and other long-term assets, net 210,779 212,632</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E38" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>SEC Presses Some Companies for Details on Russia-Linked Losses, Risks</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>The Securities and Exchange Commission is pressing some companies for more information on earnings that may be stuck in Russia, currency-related losses and other potential financial impacts related to the war in Ukraine.</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E39" t="n">
         <v>-0.751</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>SEC Seeks More Details From Companies on Russia-Linked Losses, Risks</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>The Securities and Exchange Commission continues to grill companies about how they disclose the financial impact of Russia’s war on Ukraine and has asked many of them to make changes for future filings.</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E40" t="n">
         <v>-0.402</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Earnings Preview: Core Laboratories (CLB) Q2 Earnings Expected to Decline</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Wall Street expects a year-over-year decline in earnings on higher revenues when Core Laboratories (CLB) reports results for the quarter ended June 2022. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
 The earnings report, which is expected to be released on July 27, 2022, might help the stock move higher if these key numbers are better than expectations. On the other hand, if they miss, the stock may move lower.
@@ -970,48 +2080,48 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E41" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Stocks rise, commodities at inflection point, crypto fallout continues</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Yahoo Finance’s Jared Blikre breaks down how markets opened on Tuesday.</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="E42" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Implied Volatility Surging for Core Laboratories (CLB) Stock Options</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Investors in Core Laboratories N.V. CLB need to pay close attention to the stock based on moves in the options market lately. That is because the Sep 16, 2022 $15.00 Call had some of the highest implied volatility of all equity options today.
 What is Implied Volatility?
@@ -1028,25 +2138,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E43" t="n">
         <v>0.986</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>2022-07-10</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Here's What's Concerning About Core Laboratories' (NYSE:CLB) Returns On Capital</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>When researching a stock for investment, what can tell us that the company is in decline? Businesses in decline often have two underlying trends, firstly, a declining return on capital employed (ROCE) and a declining base of capital employed. This indicates to us that the business is not only shrinking the size of its net assets, but its returns are falling as well. So after we looked into Core Laboratories (NYSE:CLB), the trends above didn't look too great.
 Understanding Return On Capital Employed (ROCE)
@@ -1069,48 +2179,48 @@
 You’ll receive a US$30 Amazon Gift card for 1 hour of your time while helping us build better investing tools for the individual investors like yourself. Sign up here</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="E44" t="n">
         <v>0.99</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Why Occidental Petroleum, Devon Energy, and Core Laboratories Plunged Today</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Shares of Occidental Petroleum (NYSE: OXY), Devon Energy (NYSE: DVN), and Core Laboratories (NYSE: CLB) fell hard on Tuesday, plunging 4.2%, 7.1%, and 8.1%, respectively, as of 2:38 p.m. ET. There wasn't any company-specific news out of these three companies today, other than the fact that legendary investor Warren Buffett continues to buy Occidental, according to a filing released over the weekend. Additionally, Devon Energy saw its price target lowered today by a Wall Street analyst, though that analyst kept the same neutral rating on the stock.</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E45" t="n">
         <v>0.71</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>2022-06-28</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>CORE LABORATORIES' SECOND QUARTER 2022 WEBCAST AT 7:30 A.M. CDT / 2:30 P.M. CEST ON JULY 28, 2022</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>AMSTERDAM, June 28, 2022 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its second quarter 2022 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on July 28, 2022.
 Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Gresham, SVP Corporate Development and Investor Relations, will discuss financial and operational results.  An earnings press release will be issued after market close on July 27th and may be accessed through the Company's website at www.corelab.com.
@@ -1121,48 +2231,48 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="E46" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Why Chevron, Core Labs, and Phillips 66 Stocks Dropped Today</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>For the second day in a row, oil prices are tumbling Thursday -- and they're taking down shares of companies all across the energy industry along with them. As of 1:30 p.m. ET, oil-field services company Core Laboratories (NYSE: CLB) is down 5.2%, oil major Chevron (NYSE: CVX) is losing 4.8%, and further down the supply chain, refiner Phillips 66 (NYSE: PSX) is suffering worst of all with a 7.5% loss. Retail sales at gas stations were down 8.2% year over year in the first week of June, and that was "the 14th consecutive week that sales have lagged behind 2021 levels," the Journal reported.</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E47" t="n">
         <v>-0.875</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Is it a Great Move to Invest in Core Laboratories (CLB)?</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Harding Loevner, an investment management firm, published its “International Small Companies Equity Fund” first-quarter 2022 investor letter – a copy of which can be downloaded here. The International Small Companies composite declined 13.4% gross of fees in the first quarter, well beyond the 6.4% decline of the MSCI ACWI ex-US Small Cap Index. The portfolio’s concentration in expensive stocks, a hazard of our commitment to investing in the stocks of high-quality rapidly growing businesses, hurt relative performance in a quarter during which investors fled from richly priced companies. Try to spend some time taking a look at the fund’s top 5 holdings to be informed about their best picks for 2022.
 In its Q1 2022 investor letter, Harding Loevner International Small Companies Equity Fund mentioned Core Laboratories N.V. (NYSE:CLB) and explained its insights for the company. Founded in 1936, Core Laboratories N.V. (NYSE:CLB) is an Amsterdam, Netherlands-based petroleum industry company with a $969.1 million market capitalization. Core Laboratories N.V. (NYSE:CLB) delivered a -6.23% return since the beginning of the year, while its 12-month returns are down by -52.32%. The stock closed at $20.92 per share on June 21, 2022.
@@ -1174,25 +2284,25 @@
 Disclosure: None. This article is originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="E48" t="n">
         <v>0.979</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Is It Too Late To Invest In The Oil Price Rally?</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>The oil market is currently going through one of the most turbulent periods since the infamous March 2020 collapse, as investors continue to grapple with recessionary fears. Oil prices have continued sliding in the wake of the central bank deciding to hike the interest rate by a record-high 75 basis points, with WTI futures for July settlement were quoted at $104.48/barrel on Wednesday's intraday session, down 4.8% on the day and 8.8% below last week's peak. Meanwhile, Brent crude futures for August settlement were trading 4% lower in Wednesday's session at $110.10/barrel, a good 9.4% below last week's peak.
 While crude prices have taken a big hit, oil and gas stocks have fared even worse, with energy equities experiencing nearly double the selling pressure compared to WTI crude.
@@ -1227,71 +2337,71 @@
 Read this article on OilPrice.com</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="E49" t="n">
         <v>0.965</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Why Shares in Core Labs Fell Today</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Shares in reservoir services company Core Laboratories (NYSE: CLB) fell by more than 4% this afternoon. First, the price of oil continued its slide. While it's important not to get too caught up in short-term movements in energy prices, the intensity of the move highlights that some speculative money had undoubtedly gone into energy commodities and that so-called "fast money" can quickly come out.</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="E50" t="n">
         <v>0.765</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>2022-06-09</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Why Core Labs Stock Dived by More Than 10% Today</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Few investors wanted to experiment with owning Core Laboratories (NYSE: CLB) stock on Thursday. As a result, Core Labs' stock closed a bit more than 10% lower on the day. Core Labs said Thursday that it had launched an at-the-market (ATM) stock offering.</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="E51" t="n">
         <v>-0.248</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>2022-06-09</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>CORE LAB ANNOUNCES $60,000,000 AT-THE-MARKET EQUITY OFFERING PROGRAM</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>AMSTERDAM, June 9, 2022 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core," "Core Lab," or the "Company") announced today that it has established an at-the-market equity offering program (the "ATM Program") under which it may, from time to time, sell its common shares having an aggregate sales price of up to $60,000,000 (the "Shares"), and has entered into an equity distribution agreement ("Equity Distribution Agreement") with Wells Fargo Securities, LLC ("Wells Fargo Securities") and BofA Securities, Inc. ("BofAS"), as sales agents.
 Upon delivery of a placement notice and subject to the terms and conditions of the Equity Distribution Agreement, Wells Fargo Securities and BofAS will use reasonable efforts consistent with their normal trading and sales practices, applicable laws and the rules of the New York Stock Exchange to sell the Shares from time to time based upon Core Lab's instructions for the sales, including price, time or size limits specified by Core Lab. Pursuant to the Equity Distribution Agreement, sales of the Shares may be made by any method permitted by law, including in ordinary brokers' transactions, negotiated transactions, block trades, and transactions deemed to be "at-the-market offerings," as defined in Rule 415 under the Securities Act of 1933, as amended. Each of Wells Fargo Securities' and BofAS' obligations to sell the Shares under the Equity Distribution Agreement are subject to satisfaction of certain conditions, including customary closing conditions.
@@ -1307,48 +2417,48 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="E52" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Core Laboratories Stock Generating Improved Relative Strength</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Core Laboratories Nv shows improving price performance, earning an upgrade to its IBD Relative Strength Rating</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="E53" t="n">
         <v>0.718</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>2022-05-29</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Core Laboratories' (NYSE:CLB) earnings have declined over five years, contributing to shareholders 71% loss</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>It's nice to see the Core Laboratories N.V. (NYSE:CLB) share price up 12% in a week. But will that repair the damage for the weary investors who have owned this stock as it declined over half a decade? Probably not. Five years have seen the share price descend precipitously, down a full 73%. While the recent increase might be a green shoot, we're certainly hesitant to rejoice. The fundamental business performance will ultimately determine if the turnaround can be sustained.
 The recent uptick of 12% could be a positive sign of things to come, so let's take a lot at historical fundamentals.
@@ -1368,25 +2478,25 @@
 This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="E54" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>2022-05-27</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Up 2.6% Since Last Earnings Report: Can It Continue?</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>It has been about a month since the last earnings report for Core Laboratories (CLB). Shares have added about 2.6% in that time frame, outperforming the S&amp;P 500.
 Will the recent positive trend continue leading up to its next earnings release, or is Core Laboratories due for a pullback? Before we dive into how investors and analysts have reacted as of late, let's take a quick look at the most recent earnings report in order to get a better handle on the important catalysts.
@@ -1425,25 +2535,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="E55" t="n">
         <v>0.995</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>A Look At The Fair Value Of Core Laboratories N.V. (NYSE:CLB)</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Today we will run through one way of estimating the intrinsic value of Core Laboratories N.V. (NYSE:CLB) by projecting its future cash flows and then discounting them to today's value. One way to achieve this is by employing the Discounted Cash Flow (DCF) model. There's really not all that much to it, even though it might appear quite complex.
 Remember though, that there are many ways to estimate a company's value, and a DCF is just one method. For those who are keen learners of equity analysis, the Simply Wall St analysis model here may be something of interest to you.
@@ -1470,25 +2580,25 @@
 This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="E56" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Core Labs (CLB) Stock Down 3% Since Q1 Earnings &amp;amp; Sales Beat</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Core Laboratories’ CLB stock has gone down 3% since the first-quarter 2022 earnings announcement on Apr 27.
 The stock price slumped despite Core Labs’ first-quarter sales and revenues beating the consensus mark. The performance could be attributed to the poor outcome of the Production Enhancement unit and much increased year-over-year expenses.
@@ -1526,94 +2636,94 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E57" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Why Shares in Core Labs Fell This Week</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Shares in oil-reservoir services company Core Laboratories (NYSE: CLB) had slumped more than 10% in the week leading up to Friday morning. Core Labs is one of the stocks investors bought into due to reservoir optimization services. As the price of oil rises, it makes it more cost-effective for reservoir owners to hire Core Labs to analyze and enhance production thoroughly.</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="E58" t="n">
         <v>0.586</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>2022-04-28</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q1 2022 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q1 2022 Earnings CallApr 28, 2022, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood morning, and welcome to the Core Lab Q1 2022 earnings call.</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E59" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>2022-04-28</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Is Slumping Today</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>After Core Labs (NYSE: CLB) reported first-quarter results, its shares fell as much as 7.8% in early morning trading on Thursday. While those numbers beat expectations, the timing of a recovery in its results and the impact of the Russia-Ukraine conflict weighed on the oilfield service company's outlook. On the one hand, Core Labs posted better-than-expected first-quarter results.</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="E60" t="n">
         <v>0.477</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>2022-04-27</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Tops Q1 Earnings and Revenue Estimates</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.08 per share, beating the Zacks Consensus Estimate of $0.06 per share. This compares to earnings of $0.15 per share a year ago. These figures are adjusted for non-recurring items.
 This quarterly report represents an earnings surprise of 33.33%. A quarter ago, it was expected that this energy services company would post earnings of $0.20 per share when it actually produced earnings of $0.20, delivering no surprise.
@@ -1638,25 +2748,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="E61" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>2022-04-27</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>CORE LAB REPORTS FIRST QUARTER 2022 RESULTS FROM CONTINUING OPERATIONS</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>FIRST QUARTER REVENUE OF $115.3 MILLION; UP 6% YEAR-OVER-YEAR FIRST QUARTER GAAP EPS OF $(0.04); EPS, EX-ITEMS, $0.08 LAUNCH OF INDUSTRY CARBON CAPTURE AND SEQUESTRATION ("CCS") CONSORTIUM CCS STRATEGIC ALLIANCE WITH TALOS ENERGY INC. REDUCES NET DEBT BY $3.3 MILLION ANNOUNCES Q2 2022 QUARTERLY DIVIDEND
 AMSTERDAM, April 27, 2022 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core", "Core Lab", or the "Company") reported first quarter 2022 revenue of $115,300,000. Core's operating loss was $400,000, with a loss per diluted share of $0.04, all in accordance with U.S. generally accepted accounting principles ("GAAP"). Operating income, ex-items, a non-GAAP financial measure, was $7,200,000, yielding operating margins of 6.2% and earnings per diluted share ("EPS"), ex-items, of $0.08. During the first quarter of 2022, the Company recorded: 1) approximately $3,900,000 of non-cash stock compensation expense associated with full recognition of awards when employees reach their eligible retirement age, 2) severance and facility consolidation expense of $3,300,000, and 3) bad debt expense of $800,000 for doubtful accounts receivable due from Ukraine clients. The severance and facility consolidation expense is associated with Core's continuing strategic objective to improve operational efficiencies and optimize Core's global network to support its clients. In addition to the anticipated typical seasonal decline in the first quarter of 2022, financial results were further impacted by higher-than-expected business disruptions associated with COVID-19 and the Russia-Ukraine geopolitical conflict. A full reconciliation of non-GAAP financial measures is included in the attached financial tables.
@@ -1697,25 +2807,25 @@
 CORE LABORATORIES N.V. &amp; SUBSIDIARIES CONDENSED CONSOLIDATED BALANCE SHEET (amounts in thousands) (Unaudited) % Variance ASSETS: March 31, 2022 December 31, 2021 vs. Q4-21 Cash and cash equivalents $ 22,037 $ 17,703 24.5% Accounts receivable, net 98,900 96,830 2.1% Inventories 48,224 45,443 6.1% Other current assets 33,031 29,079 13.6% Total current assets 202,192 189,055 6.9% Property, plant and equipment, net 109,926 110,952 (0.9)% Right of use assets 60,168 61,387 (2.0)% Intangibles, goodwill and other long-term assets, net 212,632 219,459 (3.1)% Total assets $ 584,918 $ 580,853 0.7% LIABILITIES AND EQUITY: Accounts payable $ 34,405 $ 29,726 15.7% Short-term operating lease liabilities 12,669</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="E62" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Is a Surprise Coming for Core Laboratories (CLB) This Earnings Season?</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Investors are always looking for stocks that are poised to beat at earnings season and Core Laboratories N.V. CLB may be one such company. The firm has earnings coming up pretty soon, and events are shaping up quite nicely for their report.
 That is because Core Laboratories is seeing favorable earnings estimate revision activity as of late, which is generally a precursor to an earnings beat. After all, analysts raising estimates right before earnings — with the most up-to-date information possible — is a pretty good indicator of some favorable trends underneath the surface for CLB in this report.
@@ -1731,25 +2841,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="E63" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>CP and Hapag-Lloyd announce additional seasonal call into Port Saint John</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>CALGARY, AB, April 25, 2022 /PRNewswire/ - Canadian Pacific (NYSE: CP) (TSX: CP) and Hapag-Lloyd AG (XETR: HLAG) (FWB: HLG) today announced an additional call into Port Saint John, N.B., via a seasonal extra loader in another step forward for the growing Atlantic Canada port.
 This additional call follows their inaugural service call into Port Saint John in May 2021, connecting via CP rail service to inland markets in Canada and the United States.
@@ -1773,25 +2883,25 @@
 SOURCE Canadian Pacific</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="E64" t="n">
         <v>0.995</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Earnings Preview: Core Laboratories (CLB) Q1 Earnings Expected to Decline</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>The market expects Core Laboratories (CLB) to deliver a year-over-year decline in earnings on higher revenues when it reports results for the quarter ended March 2022. This widely-known consensus outlook is important in assessing the company's earnings picture, but a powerful factor that might influence its near-term stock price is how the actual results compare to these estimates.
 The stock might move higher if these key numbers top expectations in the upcoming earnings report, which is expected to be released on April 27. On the other hand, if they miss, the stock may move lower.
@@ -1828,25 +2938,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="E65" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>2022-03-31</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Christina Lake Cannabis Announces Late Filing of Annual Financial Statements and Management Cease Trade Order</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Christina Lake Cannabis Corp.
 VANCOUVER, British Columbia, March 31, 2022 (GLOBE NEWSWIRE) -- Christina Lake Cannabis Corp., (CSE: CLC)(the “Company” or “CLC”) announces today that as a result of delays to its audit, the Company’s annual financial statements and accompanying management's discussion and analysis for the fiscal year ended November 30, 2021 (the “Annual Filings”) were not finalized by March 30, 2022, being the date that such filings are due under applicable Canadian securities law requirements. The Company has applied for, and has been granted, a management cease trade order (the "MCTO") by the British Columbia Securities Commission.
@@ -1869,25 +2979,25 @@
 The CSE and Information Service Provider have not reviewed and does not accept responsibility for the accuracy or adequacy of this release.</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="E66" t="n">
         <v>0.9379999999999999</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>2022-03-30</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Christina Lake Cannabis Corp. Closes Redemption of Class B Preferred Shares</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Christina Lake Cannabis Corp.
 VANCOUVER, British Columbia, March 30, 2022 (GLOBE NEWSWIRE) -- (CSE: CLC) Christina Lake Cannabis Corp. (the “Corporation or “Christina Lake”) announces that further to the press release issued on March 22, 2022, the Corporation has closed the redemption of the class B preferred shares (the “Preferred Shares”) with the holders of the Preferred Shares (the “Preferred Holders”) in accordance with the redemption notice provided on March 21, 2022 (the "Redemption").
@@ -1907,25 +3017,25 @@
 THE CSE HAS NOT REVIEWED AND DOES NOT ACCEPT RESPONSIBILITY FOR THE ACCURACY OR ADEQUACY OF THIS RELEASE, NOR HAS OR DOES THE CSE’S REGULATION SERVICES PROVIDER.</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="E67" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>2022-03-23</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Here’s Why Ariel Investments Initiated a Position in Core Laboratories N.V. (CLB)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Ariel Investments, an investment management firm, published its “Ariel Fund &amp; Ariel Appreciation Fund” fourth quarter 2021 investor letter – a copy of which can be downloaded here. For the three months ending December 31, 2021, Ariel Fund and Ariel Appreciation Fund lagged their primary value benchmarks. This was largely due to some weakness among our highest conviction consumer names. Still, Ariel Appreciation Fund solidly outpaced its core benchmark during the quarter and landed between the value and core indices for the full year. Meanwhile, Ariel Fund crushed both its primary and secondary benchmarks for the year. Spare some time to check the fund’s top 5 holdings to have a clue about their top bets for 2022.
 Ariel Investments, in its Q4 2021 investor letter, mentioned Core Laboratories N.V. (NYSE:CLB) and discussed its stance on the firm. Founded in 1936, Core Laboratories N.V. (NYSE:CLB) is an Amsterdam, Netherlands-based petroleum industry company with a $1.3 billion market capitalization, and is currently spearheaded by its CEO, Lawrence Bruno. Core Laboratories N.V. (NYSE:CLB) delivered a 31.33% return since the beginning of the year, while its 12-month returns are up by 0.93%. The stock closed at $29.30 per share on March 21, 2022.
@@ -1936,25 +3046,25 @@
 Disclosure: None. This article is originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="E68" t="n">
         <v>0.981</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>2022-03-23</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Oil &amp;amp; Gas Stock Roundup: Oilfield Service Giants Decide to Move From Russia</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>It was a week when oil prices registered further decline but natural gas futures rose.
 On the news front, oilfield service providers Halliburton HAL, Schlumberger SLB and Core Laboratories CLB provided an update on their Russian operations. Announcements from The Williams Companies WMB and Eni SpA E also made it to the headlines.
@@ -2000,25 +3110,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="E69" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>2022-03-22</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Christina Lake Cannabis Corp. Announces Redemption of Class B Preferred Shares</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Christina Lake Cannabis Corp.
 VANCOUVER, British Columbia, March 22, 2022 (GLOBE NEWSWIRE) -- (CSE: CLC) Christina Lake Cannabis Corp. (the “Corporation or “Christina Lake”) announces that, further to the press release issued on March 11, 2022, whereby the Corporation announced certain amendments to the terms of its class B preferred shares ("Preferred Shares"), the board of directors of the Corporation has now provided notice to the holders of Preferred Shares (the "Preferred Holders"), for a compulsory redemption of their Preferred Shares, which is intended to be completed on or about March 25, 2022, in accordance with the revised terms of the Preferred Shares (the "Redemption").
@@ -2038,25 +3148,25 @@
 THE CSE HAS NOT REVIEWED AND DOES NOT ACCEPT RESPONSIBILITY FOR THE ACCURACY OR ADEQUACY OF THIS RELEASE, NOR HAS OR DOES THE CSE’S REGULATION SERVICES PROVIDER.</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="E70" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>2022-03-17</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Core Laboratories, Euronext Amsterdam and Talos Energy Inc. have announced a strategic alliance to provide technical evaluation and assurance for carbon capture and sequestration opportunities.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>AMSTERDAM, March 17, 2022 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core", "Core Lab", or the "Company") and Talos Energy Inc. ("Talos") (NYSE: "TALO") have announced a strategic alliance to provide technical evaluation and assurance for carbon capture and sequestration ("CCS") opportunities. The alliance combines Core Lab's market-leading reservoir description and optimization technologies with Talos's expertise in subsurface characterization and engineering.
 Under this alliance, Core Lab and Talos will collaborate to evaluate potential CCS sites for suitability and optimal subsurface stratigraphic targets through robust reservoir characterization techniques, including: stratigraphic test wells, reservoir core sampling and geological evaluation, as well as analysis of rock and fluid sample properties. These technical data sets will be used to deliver best-in-class sequestration assurance through custom subsurface evaluation and monitoring plans. The alliance also provides a framework for the two companies to further explore opportunities to collaborate on delivering technical assurance around transparency in monitoring and verification of CO2 streams.
@@ -2073,25 +3183,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="E71" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>2022-03-17</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Core Labs (CLB) Hit by Russia Conflict, Pegs Down Q1 View</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Shares in oilfield services firm Core Laboratories CLB slid more than 4% in extended trading after the company warned of falling earnings and revenues as the Russia-Ukraine crisis began to bite. Citing an impact on service revenues and product sales, the firm lowered its first-quarter revenue guidance to $110-$113 million from the prior $117-$122 million and its EPS view to 5-8 cents from 16-20 cents. Meanwhile, operating margin is now expected in the range of 5-6%, compared with 11% earlier. 
 The company said that cyberattacks on third -party units — prior to Russia’s full-scale invasion of Ukraine — hampered business by scuttling demand for crude-oil assay work, especially in Europe. According to CLB, such work continues to suffer in Europe, Russia and Ukraine as the war drags on. Core Laboratories further informed that it has put its Ukrainian operations on hold in order to protect workers, while suspending production sales delivery in the country. 
@@ -2115,25 +3225,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="E72" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>2022-03-17</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Did Core Laboratories N.V. (NYSE:CLB) Use Debt To Deliver Its ROE Of 13%?</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Many investors are still learning about the various metrics that can be useful when analysing a stock. This article is for those who would like to learn about Return On Equity (ROE). To keep the lesson grounded in practicality, we'll use ROE to better understand Core Laboratories N.V. (NYSE:CLB).
 Return on equity or ROE is a key measure used to assess how efficiently a company's management is utilizing the company's capital. In short, ROE shows the profit each dollar generates with respect to its shareholder investments.
@@ -2160,25 +3270,25 @@
 This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="E73" t="n">
         <v>0.968</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>2022-03-16</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>CORE LAB ANNOUNCES REVISED Q1 2022 GUIDANCE</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>CONSTRUCTIVE VIEW ON 2022 COMPANY OUTLOOK LAUNCH OF INDUSTRY CARBON CAPTURE AND SEQUESTRATION CONSORTIUM FIRST QUARTER 2022 EARNINGS WEBCAST AT 7:30 A.M. CDT / 2:30 P.M. CEST ON 28 APRIL 2022
 AMSTERDAM, March 16, 2022 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core", "Core Lab", or the "Company") is announcing revised guidance from continuing operations for the first quarter of 2022, as well as commencement of a joint-industry consortium project focused on carbon capture and sequestration ("CCS").
@@ -2200,25 +3310,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="E74" t="n">
         <v>0.99</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>2022-03-16</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Talos Energy Announces Formal Execution of Texas GLO Carbon Capture Site Lease and Establishes Strategic Alliance with Core Lab</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>HOUSTON, March 16, 2022 /PRNewswire/ -- Talos Energy Inc. ("Talos" or the "Company") (NYSE: TALO) today announced that Bayou Bend CCS LLC, Talos's venture with Carbonvert, Inc. (the "Venture"), executed definitive lease documentation with the Texas General Land Office ("GLO"), formalizing the previously announced carbon capture and sequestration ("CCS") site located offshore Jefferson County, Texas, near the Beaumont and Port Arthur, Texas industrial corridor. Talos separately announced that it had established a CCS strategic alliance with Core Laboratories N.V. ("Core Lab") (NYSE: CLB) (Euronext Amsterdam: CLB) to provide technical evaluation and assurance services for CCS subsurface analysis, including the Company's upcoming 2022 stratigraphic evaluation wells. (PRNewsfoto/Talos Energy)
 Texas GLO Lease On March 11, 2022, the Venture jointly executed lease documentation with the GLO establishing the first ever major offshore carbon sequestration site in the United States. The lease comprises more than 40,000 acres immediately adjacent to the Beaumont and Port Arthur, Texas industrial corridor and maintains an estimated sequestration capacity of 225 – 275 million metric tons of CO2. The project will be known as Bayou Bend CCS. Talos will be the operator and holds a 50% equity interest.
@@ -2239,25 +3349,25 @@
 SOURCE Talos Energy</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="E75" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>2022-03-08</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Moves 14.2% Higher: Will This Strength Last?</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) shares ended the last trading session 14.2% higher at $30.99. The jump came on an impressive volume with a higher-than-average number of shares changing hands in the session. This compares to the stock's 0.4% gain over the past four weeks.
 Core Laboratories stock ended sharply higher on Monday, driven by optimism over crude prices spurred by a supportive macro backdrop, geopolitical tensions and the OPEC+ supply curtailments. The steady increase in commodity prices to more than $100 a barrel has lifted the oilfield service space and contributed to the strength in this leading energy technology solutions provider.
@@ -2274,25 +3384,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="E76" t="n">
         <v>0.992</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Why Is Core Laboratories (CLB) Up 7.1% Since Last Earnings Report?</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>It has been about a month since the last earnings report for Core Laboratories (CLB). Shares have added about 7.1% in that time frame, outperforming the S&amp;P 500.
 Will the recent positive trend continue leading up to its next earnings release, or is Core Laboratories due for a pullback? Before we dive into how investors and analysts have reacted as of late, let's take a quick look at the most recent earnings report in order to get a better handle on the important catalysts.
@@ -2325,25 +3435,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E77" t="n">
         <v>0.992</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>2022-02-09</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Core Labs (CLB) Q4 Earnings Meet Estimates, Revenues Surpass</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Core Laboratories CLB reported fourth-quarter 2021 results, wherein adjusted earnings of 20 cents a share were on par with the Zacks Consensus Estimate. This is attributable to an improvement in the overall business landscape for the company and year-over-year international revenues of more than 14%. The bottom line showed an improvement from the year-ago quarter’s earnings of 18 cents per share. This upside is attributable to the year-over-year increase in revenues.
 This oilfield service provider’s adjusted revenues of $125.1 million beat the Zacks Consensus Estimate of $123 million by about 1.5%. The top line also rose from the year-ago quarter’s revenues of $113.7 million.
@@ -2379,25 +3489,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="E78" t="n">
         <v>0.992</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>2022-02-04</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Capital Asset Advisory Services LLC Buys iShares Russell 3000 ETF, iShares 7-10 Year Treasury ...</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Investment company Capital Asset Advisory Services LLC (Current Portfolio) buys iShares Russell 3000 ETF, iShares 7-10 Year Treasury Bond ETF, Vanguard Short-Term Inflation-Protected Securities, Vanguard Ultra-Short Bond ETF, iShares Short Treasury Bond ETF, sells Vanguard Total Bond Market ETF, iShares iBoxx USD High Yield Corporate Bond ETF, SPDR Dow Jones Industrial Average ETF, Utilities Select Sector SPDR ETF, SPDR MSCI USA StrategicFactors SM ETF during the 3-months ended 2021Q4, according to the most recent filings of the investment company, Capital Asset Advisory Services LLC. As of 2021Q4, Capital Asset Advisory Services LLC owns 597 stocks with a total value of $942 million. These are the details of the buys and sells.
 New Purchases: IWV, VUSB, EVRG, BK, DNA, CRTO, IRT, IGT, CI, AMD, KB, OKE, CSWC, EOG, FUL, NXTG, CBRE, HUT, CHD, OCSL, MLCO, EXR, O, LRCX, FDX, BGRN, BUFR, CRBN, SSO, USIG, WOOD, XHB, Added Positions: IDEV, VV, IEF, VTIP, IAU, AGG, VO, SHV, IHG, GOOG, RILY, DAVA, LDSF, PTBD, DHR, STM, RACE, FVD, AUDC, MCD, MRK, TMO, MA, AMT, APH, C, FISV, MMC, LIN, SONY, AER, VRSK, FEU, SRLN, USHY, ARCC, CAE, DE, DSGX, IT, GS, ICE, MDT, NKE, PFE, FNV, DG, XYL, AAAU, FIXD, IWD, IWF, SCHP, AJG, BRK.B, CRL, HPQ, IBM, INFO, INTC, LMT, LOGI, LOW, NOK, NDSN, PG, POOL, SMG, WPM, SNN, TJX, TER, VZ, WRB, ZBRA, IBKR, KMI, ABBV, ZTS, ICLR, NRZ, CDW, TWLO, AM, CTVA, AMJ, BIL, FISR, FNDX, FPXI, FV, IHI, IVV, IWB, JKG, PAVE, RDVY, VB, VBK, VGK, VUG, XLE, PLD, ABT, ACN, AMGN, ANSS, ABR, AZPN, ADP, TFC, CVS, CHE, CSGP, COP, COO, CPRT, GLW, CCI, LIVN, EMN, LLY, EMR, EFX, ERIC, EXPO, FICO, FNF, FITB, GD, GILD, IP, JKHY, KEY, LII, MET, NFLX, NI, ORCL, PNC, PRU, PEG, ROK, ROL, TDY, THO, TSN, WPC, WFC, DFS, PM, AVGO, LPLA, MRCC, BFAM, ALLE, QURE, SITE, TTD, VICI, AVLR, OPRA, ELAN, DCT, U, BSY, CWI, DSI, EFA, FINX, FPX, FXD, FXI, GII, IEO, IEUR, IWM, IWP, IWR, JNK, KXI, SCHB, SCHG, SHE, SHYG, SLY, SPAB, SPLV, SPYG, VEU, VPL, XMHQ, XYLD, Reduced Positions: BND, HYG, XLU, AAPL, XLP, ROUS, SPY, USMV, VCIT, XLC, PGX, REZ, VWO, GIB, OTEX, CMCSA, TRI, YNDX, HTRB, RODM, AMZN, HD, LQD, ROSC, VCR, VTC, VXUS, QCOM, MELI, TSLA, BABA, GLD, ITA, ITB, MINT, SCHD, VXF, XLF, MMM, T, ADBE, CHKP, CVX, DTE, GOOGL, HBAN, NVDA, CRM, DIS, BX, MSCI, FB, PANW, SHOP, PAGS, HMOP, ICVT, MTUM, RHS, SCHO, SLV, SPTL, VHT, XLI, XLK, XLRE, ASML, AAP, AMAT, BA, BMY, CAT, FIS, DVN, DXCM, ETN, EQIX, F, INTU, JPM, JNJ, MSFT, NEM, RSG, SO, SBUX, TXN, TSCO, UGI, USB, UPS, GWW, ULTA, V, LYB, APTV, WDAY, PYPL, SQ, TEAM, ALC, AMCR, BIV, BSV, DVY, FLOT, GBIL, HSRT, IBB, IEI, IHE, IYW, LGLV, PFF, PTNQ, QUAL, ROAM, RSP, SCHF, SPEM, VDC, VEA, VMBS, VONG, VRP, XAR, XLSR, MO, AXP, BAC, CSX, KO, CMA, DUK, ECL, ESLT, ENB, GIS, GGG, GPI, HON, HBNC, LCI, PEP, PKI, PSA, SNY, TSM, TXT, UNP, UNH, WST, WEC, DAL, STWD, BAH, ARCO, NOW, ARES, ETSY, PLNT, HPE, FCPT, OKTA, DOCU, UBER, BKLN, BLV, BOND, IGIB, CSM, EMB, ESML, FALN, FFEB, FNDF, GWX, HDV, HTAB, HYDB, HYS, IAGG, ICLN, IEFA, IGV, IUSB, IUSG, IXC, IYF, IYH, KBWY, LIT, PRF, PSP, PTMC, ROBT, RWK, SCHA, SCHH, SCHR, SHY, SMIN, SPHD, SPHQ, SPIB, SPLB, SPMD, SPSB, SPSM, SPTM, SPYV, VAW, VCLT, VCSH, VDE, VGT, VIG, VONV, VOT, VT, VTV, XHE, XLV, XLY, Sold Out: DIA, QUS, JMIA, PSO, APD, CLB, ASND, HIMX, LSPD, UPST, MGK, CX, WIX, HLI, IPAY, OEF, VPU, BP, RDS.B, LULU, TDOC, SE, ZM, GDX, IYM, LVHD, MDY, VOX, GE, MNST, DAC, GSL, SPLK, BOTZ, EWD, IGE, PICK, PTH, SLVP, RDS.A, QRTEA, RDHL, TLSA, ACWV, ARKK, BAPR, CEMB, FDIS, FDLO, FLRN, FLTR, FSTA, FTRI, FUTY, HEWG, IBDM, MGC, MJ, PAPR, REM, RGI, SCHZ, SIL, SILJ, SOXX, VLUE, VSGX, YCBD, SLVM, KD, AAXJ, ANGL, ARKF, ARKG, ARKQ, ARKW, BJK, BMAR, BWX, BWZ, CBND, CTEC, DVYE, EEMV, EFG, ESGV, EVX, EWZ, FCOM, FDVV, FHLC, FMAT, FNCL, FTEC, FVAL, FXU, GOEX, HYMB, IAI, IBDS, IBHA, IBMJ, IBND, IGOV, IHAK, ISTB, IYE, JXI, KBE, MLPX, MXI, PEJ, PFXF, PHO, PICB, PJAN, PJUL, PJUN, PMAR, POTX, PPA, RDIV, RNDM, RWX, RYLD, SCHV, SPLG, SPMB, SUSA, TDIV, TIP, UJUN, VEGI, VFH, VIS, XBI, XLB, XOP, XPH, XTL,
@@ -2450,48 +3560,48 @@
 4. Stocks that Capital Asset Advisory Services LLC keeps buyingThis article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="E79" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>2022-02-04</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q4 2021 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q4 2021 Earnings CallFeb 03, 2022, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood morning, and welcome to the Core Laboratories fourth quarter 2021 earnings conference call.</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="E80" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>2022-02-02</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Meets Q4 Earnings Estimates</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.20 per share, in line with the Zacks Consensus Estimate. This compares to earnings of $0.18 per share a year ago. These figures are adjusted for non-recurring items.
 A quarter ago, it was expected that this energy services company would post earnings of $0.19 per share when it actually produced earnings of $0.18, delivering a surprise of -5.26%.
@@ -2517,25 +3627,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="E81" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>2022-02-02</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>CORE LAB REPORTS FOURTH QUARTER AND FULL YEAR 2021 RESULTS FROM CONTINUING OPERATIONS:</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>- FOURTH QUARTER REVENUE OF $125.1 MILLION; UP 6% SEQUENTIALLY; UP 10% YEAR-OVER-YEAR
 - FOURTH QUARTER PRODUCTION ENHANCEMENT REVENUE UP 15% SEQUENTIALLY; UP 51% YEAR-OVER-YEAR
@@ -2591,25 +3701,25 @@
 % Variance  ASSETS:  December 31, 2021   September 30, 2021   December 31, 2020   vs. Q3-21  vs. Q4-20...</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="E82" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>2022-01-31</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Core Laboratories (NYSE:CLB) Will Be Hoping To Turn Its Returns On Capital Around</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>When we're researching a company, it's sometimes hard to find the warning signs, but there are some financial metrics that can help spot trouble early. Typically, we'll see the trend of both return on capital employed (ROCE) declining and this usually coincides with a decreasing amount of capital employed. This indicates the company is producing less profit from its investments and its total assets are decreasing. So after glancing at the trends within Core Laboratories (NYSE:CLB), we weren't too hopeful.
 What is Return On Capital Employed (ROCE)?
@@ -2630,25 +3740,25 @@
 This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E83" t="n">
         <v>0.804</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Country Trust Bank Buys Consumer Discretionary Select Sector SPDR, PayPal Holdings Inc, MasTec ...</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Bloomington, IL, based Investment company Country Trust Bank (Current Portfolio) buys Consumer Discretionary Select Sector SPDR, PayPal Holdings Inc, MasTec Inc, Amphenol Corp, Real Estate Select Sector SPDR Fund (The), sells NVIDIA Corp, Hanesbrands Inc, Lowe's Inc, Alphabet Inc, General Electric Co during the 3-months ended 2021Q4, according to the most recent filings of the investment company, Country Trust Bank. As of 2021Q4, Country Trust Bank owns 507 stocks with a total value of $3.7 billion. These are the details of the buys and sells.
 New Purchases: MTZ, XLRE, FMHI, PDI, MBB, PLTR, TRGP, DKNG, CVET, REZI, BHF, ALPP, TTD, AGR, HCA, INN, SIX, LESL, GTX, PTLO, KD, ONL, RIVN, GSLC, IWD, IYZ, OEF, VCSH, VFH, VYMI, PPL, AEP, AJG, BAX, CCL, VERU, FE, GERN, LVS, LEG, MGA, MAA, ES, ORI, AOS, PH, POOL, SNA, SCS, TD, VFC, WSO, WHR, HEES, TEL, IBDRY, TAK, FAF, Added Positions: XLY, PYPL, AGG, APH, LQD, FIVE, MKL, V, SRLN, TMUS, DAL, VRTX, INCY, FBND, VEA, EFA, XLK, BNDX, XLI, IEMG, XLV, IWR, LLY, XLC, AXP, BAB, JPM, JNJ, FISV, VLO, FB, SYY, FPE, ABMD, VO, VWO, EMB, FALN, CAT, VB, UPS, MCD, VUG, XLB, IWM, IVV, VNQ, VNQI, XLF, IGF, VCIT, ACN, MJ, MUB, SPIB, AMGN, VTV, XLE, XLP, ABT, ORCL, BMY, KO, DEO, ETN, EXC, GIS, GPC, HD, ITW, INTC, BAC, NKE, NVS, OKE, IGSB, PPG, SIVB, TXN, RTX, WFC, BCE, MMM, TFC, AVGO, LYB, KMI, BDX, MO, Reduced Positions: NVDA, HBI, AMZN, MSFT, AAPL, LOW, GE, GOOGL, EQIX, KNX, AWK, KHC, EW, ADBE, FTNT, COP, HON, CSCO, AVTR, ROP, CVS, CB, PEP, USB, XLU, STT, CVX, BLK, NOC, MINT, FMB, SO, CMCSA, XBI, SHM, PM, VTI, EVRG, USA, WEC, WY, PFE, FULC, PRF, PSX, BABA, CDK, MDY, FTV, YETI, IWO, MRNA, IJT, DOW, IBB, DVY, OGN, KMB, T, AEE, AZN, BA, C, CL, DE, D, DUK, EA, ENB, EL, XOM, GD, IBM, WM, LMT, MDT, MRK, MET, MS, NSC, OMC, PGR, PRU, ROST, STX, SWK, TTWO, TTE, VZ, Sold Out: HYD, PCI, KSU, VMW, PHG, RIO, ROG, TRMK, UBSI, VMC, WWW, PEO, MA, AIMC, LULU, ODFL, BUD, QSR, GDDY, PATH, FLBR, FLKR, IYG, MGK, SCHP, SPYV, EXPE, BHP, BBVA, BIIB, BTI, FIS, VALE, CPRT, CLB, OFC, BOOM, ENS, PLD, FCX, HAS, ILMN, K, LFUS, LYV, MTB, MPW, MOG.A, NWL, NI,
@@ -2701,25 +3811,25 @@
 4. Stocks that COUNTRY TRUST BANK keeps buyingThis article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="E84" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>2022-01-26</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Reports Next Week: Wall Street Expects Earnings Growth</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>The market expects Core Laboratories (CLB) to deliver a year-over-year increase in earnings on higher revenues when it reports results for the quarter ended December 2021. This widely-known consensus outlook is important in assessing the company's earnings picture, but a powerful factor that might influence its near-term stock price is how the actual results compare to these estimates.
 The stock might move higher if these key numbers top expectations in the upcoming earnings report, which is expected to be released on February 2. On the other hand, if they miss, the stock may move lower.
@@ -2755,25 +3865,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="E85" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Mraz, Amerine &amp;amp; Associates, Inc. Buys Vanguard Short-Term Inflation-Protected Securities, ...</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Modesto, CA, based Investment company Mraz, Amerine &amp; Associates, Inc. (Current Portfolio) buys Vanguard Short-Term Inflation-Protected Securities, Coterra Energy Inc, Core Laboratories NV, Dimensional U.S. Core Equity 2 ETF, Dimensional International Core Equity Market ETF, sells Covanta Holding Corp, PayPal Holdings Inc, Contango Oil &amp; Gas Co, NOW Inc, American National Group Inc during the 3-months ended 2021Q4, according to the most recent filings of the investment company, Mraz, Amerine &amp; Associates, Inc.. As of 2021Q4, Mraz, Amerine &amp; Associates, Inc. owns 173 stocks with a total value of $389 million. These are the details of the buys and sells.
 New Purchases: CTRA, OIH, VGIT, PFE, ARGO, UNP, AVGO, SLV, Added Positions: VTIP, CLB, DFAC, DFAI, AVDV, AVUV, VGSH, BSM, CLF, OXY, AVEM, VIGI, VIG, EURN, GHC, VTV, IVOL, VAL, DISCK, DVN, ABEV, CNQ, AGO, TPHS, WMB, VT, Reduced Positions: BRK.B, MSFT, ESGR, JEF, ANAT, WTM, WRB, L, MKL, VONV, FRFHF, AMR, CVX, GAM, WFC, SOR, RVT, INSW, UHAL, KMB, T, CSCO, GEOS, TDW, CARS, AAPL, BAC, OEC, GBDC, BR, BAM, LUMN, CTO, SLB, EMR, VTWV, RMT, PTEN, IAU, SWN, TPL, HP, BATRK, LBRDA, FWONK, WABC, SLRC, WY, AEF, GLW, IDT, Sold Out: CVA, PYPL, MCF, DNOW, CSWI, SLVM, BORR,
@@ -2826,25 +3936,25 @@
 4. Stocks that Mraz, Amerine &amp; Associates, Inc. keeps buyingThis article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="E86" t="n">
         <v>0.995</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>ExxonMobil (XOM) to Divest Iraq Assets After Receiving Approval</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Exxon Mobil Corporation’s XOM stake in the massive West Qurna 1 oilfield will be acquired by the Iraq National Oil Company after receiving approval from the country’s government for the acquisition.
 Located in the southern part of Iraq, West Qurna 1 is one of the largest oilfields in the world, with expected recoverable reserves of more than 20 billion barrels. Operated by ExxonMobil, the oilfield has a production capacity of about 500,000 barrels per day.
@@ -2873,48 +3983,48 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="E87" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>2022-01-07</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Why ExxonMobil, Occidental Petroleum, and Core Laboratories Surged Double Digits This Week</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Shares of ExxonMobil (NYSE: XOM), Occidental Petroleum (NYSE: OXY), and Core Laboratories (NYSE: CLB) rose sharply this week, with these stocks up 11.6%, 13.2%, and 14.3% on the week, respectively, as of 3 p.m. ET on Thursday. Better news about the omicron coronavirus variant, strong U.S. jobs growth, and a drama-free OPEC+ meeting all boosted sentiment for demand, pointing to a scenario in which the omicron variant's impact on the economy would likely be less than feared. More good economic news arrived in Wednesday's December private payroll number, which also came in stronger than expected.</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="E88" t="n">
         <v>0.948</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>2022-01-04</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>CORE LABORATORIES' FOURTH QUARTER 2021 WEBCAST AT 7:30 A.M. CST / 2:30 P.M. CET ON FEBRUARY 3, 2022</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>AMSTERDAM, Jan. 4, 2022 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its fourth quarter 2021 conference call over the Internet at 7:30 a.m. CST / 2:30 p.m. CET on February 3, 2022.
 Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Gresham, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on February 2nd and may be accessed through the Company's website at www.corelab.com.
@@ -2925,48 +4035,48 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="E89" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>2022-01-04</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Why ConocoPhillips, Core Labs, and Centennial Resource Stocks Just Popped</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Things are looking ugly for tech stocks on Tuesday, with the tech-heavy Nasdaq down 1.7% as of 2:35 p.m. ET. Energy stocks, on the other hand, are coming up roses, as the "OPEC+" cartel of oil-producing nations (plus Russia) delivers some good news for oil prices. Result: All across the oil sector, energy stocks are bouncing higher.</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="E90" t="n">
         <v>0.718</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>2021-12-16</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Core Laboratories (NYSE:CLB) sheds US$102m, company earnings and investor returns have been trending downwards for past five years</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Long term investing works well, but it doesn't always work for each individual stock. We don't wish catastrophic capital loss on anyone. Anyone who held Core Laboratories N.V. (NYSE:CLB) for five years would be nursing their metaphorical wounds since the share price dropped 81% in that time. We also note that the stock has performed poorly over the last year, with the share price down 21%. Shareholders have had an even rougher run lately, with the share price down 19% in the last 90 days. While a drop like that is definitely a body blow, money isn't as important as health and happiness.
 Given the past week has been tough on shareholders, let's investigate the fundamentals and see what we can learn.
@@ -2985,25 +4095,25 @@
 This article by Simply Wall St is general in nature. We provide commentary based on historical data and analyst forecasts only using an unbiased methodology and our articles are not intended to be financial advice. It does not constitute a recommendation to buy or sell any stock, and does not take account of your objectives, or your financial situation. We aim to bring you long-term focused analysis driven by fundamental data. Note that our analysis may not factor in the latest price-sensitive company announcements or qualitative material. Simply Wall St has no position in any stocks mentioned.</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="E91" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>2021-11-10</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Core Labs' (CLB) Stock Up 9.4% Despite Missing on Q3 Earnings</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories N.V. CLB have gained 9.4% since the third-quarter 2021 earnings announcement on Oct 27.
 Despite this industry player’s earnings miss, its stock rose on the back of a strong future business trends as the momentum for the worldwide crude-oil markets progresses and oilfield activity advances.
@@ -3039,25 +4149,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="E92" t="n">
         <v>0.994</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>2021-11-10</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Were Hedge Funds Right About CVR Energy, Inc. (CVI)?</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>In this article you are going to find out whether hedge funds think CVR Energy, Inc. (NYSE:CVI) is a good investment right now. We like to check what the smart money thinks first before doing extensive research on a given stock. Although there have been several high profile failed hedge fund picks, the consensus picks among hedge fund investors have historically outperformed the market after adjusting for known risk attributes. It's not surprising given that hedge funds have access to better information and more resources to predict the winners in the stock market.
 CVR Energy, Inc. (NYSE:CVI) investors should be aware of a decrease in enthusiasm from smart money recently. CVR Energy, Inc. (NYSE:CVI) was in 16 hedge funds' portfolios at the end of June. The all time high for this statistic is 31. There were 18 hedge funds in our database with CVI holdings at the end of March. Our calculations also showed that CVI isn't among the 30 most popular stocks among hedge funds (click for Q2 rankings).
@@ -3080,25 +4190,25 @@
 Follow Insider Monkey on Twitter</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="E93" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Are Investors Undervaluing Core Laboratories N.V. (NYSE:CLB) By 28%?</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>How far off is Core Laboratories N.V. (NYSE:CLB) from its intrinsic value? Using the most recent financial data, we'll take a look at whether the stock is fairly priced by estimating the company's future cash flows and discounting them to their present value. We will use the Discounted Cash Flow (DCF) model on this occasion. Models like these may appear beyond the comprehension of a lay person, but they're fairly easy to follow.
 Remember though, that there are many ways to estimate a company's value, and a DCF is just one method. If you want to learn more about discounted cash flow, the rationale behind this calculation can be read in detail in the Simply Wall St analysis model.
@@ -3125,25 +4235,25 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="E94" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>2021-10-29</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Here is What Hedge Funds Think About Yext, Inc. (YEXT)</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Hedge Funds and other institutional investors have just completed filing their 13Fs with the Securities and Exchange Commission, revealing their equity portfolios as of the end of June. At Insider Monkey, we follow nearly 900 active hedge funds and notable investors and by analyzing their 13F filings, we can determine the stocks that they are collectively bullish on. One of their picks is Yext, Inc. (NYSE:YEXT), so let’s take a closer look at the sentiment that surrounds it in the current quarter.
 Is Yext, Inc. (NYSE:YEXT) a buy right now? Money managers were getting more optimistic. The number of bullish hedge fund positions increased by 6 recently. Yext, Inc. (NYSE:YEXT) was in 19 hedge funds' portfolios at the end of June. The all time high for this statistic is 23. Our calculations also showed that YEXT isn't among the 30 most popular stocks among hedge funds (click for Q2 rankings). There were 13 hedge funds in our database with YEXT holdings at the end of March.
@@ -3166,25 +4276,25 @@
 Follow Insider Monkey on Twitter</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="E95" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>2021-10-29</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>WideOpenWest, Inc. (WOW): Are Hedge Funds Right About This Stock?</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>A whopping number of 13F filings filed with U.S. Securities and Exchange Commission has been processed by Insider Monkey so that individual investors can look at the overall hedge fund sentiment towards the stocks included in their watchlists. These freshly-submitted public filings disclose money managers’ equity positions as of the end of the three-month period that ended June 30th, so let’s proceed with the discussion of the hedge fund sentiment on WideOpenWest, Inc. (NYSE:WOW).
 WideOpenWest, Inc. (NYSE:WOW) was in 19 hedge funds' portfolios at the end of the second quarter of 2021. The all time high for this statistic is 20. WOW has seen an increase in enthusiasm from smart money in recent months. There were 14 hedge funds in our database with WOW positions at the end of the first quarter. Our calculations also showed that WOW isn't among the 30 most popular stocks among hedge funds (click for Q2 rankings).
@@ -3206,71 +4316,71 @@
 Disclosure: None. This article was originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="E96" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q3 2021 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q3 2021 Earnings CallOct 28, 2021, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood morning, and welcome to the Core Laboratories third quarter 2021 earnings conference call.</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="E97" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Is Slumping Today</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) had declined by as much as 6.3% by 10:45 a.m. EDT on Thursday. Core Labs reported $118 million of revenue for the third quarter, which was well below the low end of its guidance range of $122 million to $126 million. Likewise, earnings per share of $0.18 came in below its $0.19 to $0.21 forecast.</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="E98" t="n">
         <v>0.527</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>2021-10-27</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q3 Earnings and Revenues Lag Estimates</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.18 per share, missing the Zacks Consensus Estimate of $0.19 per share. This compares to earnings of $0.16 per share a year ago. These figures are adjusted for non-recurring items.
 This quarterly report represents an earnings surprise of -5.26%. A quarter ago, it was expected that this energy services company would post earnings of $0.19 per share when it actually produced earnings of $0.18, delivering a surprise of -5.26%.
@@ -3292,25 +4402,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="E99" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>2021-10-27</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Core Lab Reports Third Quarter 2021 Results From Continuing Operations:</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>- REVENUE OF $118.0 MILLION
 - GAAP EPS OF $0.02; $0.18, EX-ITEMS
@@ -3368,25 +4478,25 @@
 31, 2020  vs. Q2-21  vs. Q4-20   Cash and cash equivalents ...</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="E100" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Alger Weatherbie: “Core Lab (CLB) is Positioned to Benefit From the Lifting of Restrictions”</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Alger, an investment management firm, published its “Alger Weatherbie Specialized Growth Fund” third quarter 2021 investor letter – a copy of which can be downloaded here. During the third quarter, the largest portfolio sector weightings were Information Technology and Health Care. The largest sector overweight was Financials. The portfolio had no exposure to the Communication Services, Consumer Staples, or Utilities sectors. You can take a look at the fund’s top 5 holdings to have an idea about their best picks for 2021.
 Alger, in its Q3 2021 investor letter, mentioned Core Laboratories N.V. (NYSE: CLB) and discussed its stance on the firm. Core Laboratories N.V. is an Amsterdam, Netherlands-based petroleum industry company with a $1.3 billion market capitalization. CLB delivered a 6.49% return since the beginning of the year, while its 12-month returns are up by 87.33%. The stock closed at $28.23 per share on October 22, 2021.
@@ -3400,25 +4510,25 @@
 Disclosure: None. This article is originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="E101" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Reports Next Week: Wall Street Expects Earnings Growth</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) is expected to deliver a year-over-year increase in earnings on higher revenues when it reports results for the quarter ended September 2021. This widely-known consensus outlook gives a good sense of the company's earnings picture, but how the actual results compare to these estimates is a powerful factor that could impact its near-term stock price.
 The earnings report, which is expected to be released on October 27, 2021, might help the stock move higher if these key numbers are better than expectations. On the other hand, if they miss, the stock may move lower.
@@ -3454,48 +4564,48 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="E102" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>2021-10-18</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Is Sinking Today</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) slid nearly 5% by 10:30 a.m. EDT on Monday. Weighing on the oil stock was an analyst downgrade. An analyst at Bank of America downgraded the bank's rating on Core Labs from neutral to underperform.</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="E103" t="n">
         <v>0.296</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>2021-10-04</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Hedge Funds Are Selling Great Western Bancorp Inc (GWB)</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>At Insider Monkey, we pore over the filings of nearly 873 top investment firms every quarter, a process we have now completed for the latest reporting period. The data we've gathered as a result gives us access to a wealth of collective knowledge based on these firms' portfolio holdings as of June 30th. In this article, we will use that wealth of knowledge to determine whether or not Great Western Bancorp Inc (NYSE:GWB) makes for a good investment right now.
 Is Great Western Bancorp Inc (NYSE:GWB) a cheap stock to buy now? Money managers were taking a pessimistic view. The number of bullish hedge fund positions were trimmed by 3 in recent months. Great Western Bancorp Inc (NYSE:GWB) was in 10 hedge funds' portfolios at the end of the second quarter of 2021. The all time high for this statistic is 24. Our calculations also showed that GWB isn't among the 30 most popular stocks among hedge funds (click for Q2 rankings). There were 13 hedge funds in our database with GWB holdings at the end of March.
@@ -3518,25 +4628,25 @@
 Follow Insider Monkey on Twitter</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="E104" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>2021-09-27</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Core Laboratories' Third Quarter 2021 Webcast At 7:30 a.m. CDT / 2:30 p.m. CEST On October 28, 2021</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>AMSTERDAM, Sept. 27, 2021 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its third quarter 2021 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on October 28, 2021.
 Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Schreffler, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on October 27th and may be accessed through the Company's website at www.corelab.com.
@@ -3547,25 +4657,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="E105" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. (NYSE:CLB) Delivered A Better ROE Than Its Industry</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>While some investors are already well versed in financial metrics (hat tip), this article is for those who would like to learn about Return On Equity (ROE) and why it is important. By way of learning-by-doing, we'll look at ROE to gain a better understanding of Core Laboratories N.V. (NYSE:CLB).
 Return on equity or ROE is a key measure used to assess how efficiently a company's management is utilizing the company's capital. In short, ROE shows the profit each dollar generates with respect to its shareholder investments.
@@ -3592,25 +4702,25 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="E106" t="n">
         <v>0.991</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>2021-08-27</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Why Is Core Laboratories (CLB) Down 19.4% Since Last Earnings Report?</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>It has been about a month since the last earnings report for Core Laboratories (CLB). Shares have lost about 19.4% in that time frame, underperforming the S&amp;P 500.
 Will the recent negative trend continue leading up to its next earnings release, or is Core Laboratories due for a breakout? Before we dive into how investors and analysts have reacted as of late, let's take a quick look at the most recent earnings report in order to get a better handle on the important drivers.
@@ -3642,71 +4752,71 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="E107" t="n">
         <v>0.992</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>2021-08-23</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Why Shares of Centennial Resource, Core Labs, and Peabody Energy Are on Fire Today</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Oil stocks across the board are flying higher today thanks to the sharp reversal in oil prices, but small-cap stocks are shining the brightest, with Centennial Resource Development (NASDAQ: CDEV) and Core Laboratories (NYSE: CLB) leading from the front. The double-digit price tumble in shares of Centennial Resource and Core Labs last week has presented investors in oil and gas stocks with the perfect opportunity to scoop up some shares today. Crude oil prices are reversing today after a week-long decline and are up more than 5% this morning.</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="E108" t="n">
         <v>0.956</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>2021-08-19</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Why Energy Stocks Are Down This Week</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Energy stocks tumbled this week. The average energy company in the S&amp;P 500 slumped nearly 9% over the past five trading days. Among the notable decliners were Phillips 66 (NYSE: PSX), Occidental Petroleum (NYSE: OXY), Clean Energy Fuels (NASDAQ: CLNE), Core Laboratories (NYSE: CLB), and Continental Resource Development (NASDAQ: CDEV).</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="E109" t="n">
         <v>0.791</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>2021-08-13</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Here’s Why You Should Invest in Core Laboratories (CLB)</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Alger, an investment management firm, published its “Alger Weatherbie Specialized Growth Fund” second quarter 2021 investor letter – a copy of which can be downloaded here. During the quarter, the largest portfolio sector weightings were Financials and Health Care. The largest sector overweight was Financials. Class A shares of the Alger Weatherbie Specialized Growth Fund outperformed the Russell 2500 Growth Index during the second quarter of 2021.. You can take a look at the fund’s top 5 holdings to have an idea about their top bets for 2021.
 In the Q2 2021 investor letter of Alger Weatherbie Specialized Growth Fund, the fund mentioned Core Laboratories N.V. (NYSE: CLB), and discussed its stance on the firm. Core Laboratories N.V. is an Amsterdam, Netherlands-based petroleum industry company, that currently has a $1.3 billion market capitalization. CLB delivered a 9.24% return since the beginning of the year, extending its 12-month returns to 20.47%. The stock closed at $29.49 per share on August 11, 2021.
@@ -3720,25 +4830,25 @@
 Disclosure: None. This article is originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="E110" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Core Laboratories (NYSE:CLB) May Have Issues Allocating Its Capital</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Ignoring the stock price of a company, what are the underlying trends that tell us a business is past the growth phase? When we see a declining return on capital employed (ROCE) in conjunction with a declining base of capital employed, that's often how a mature business shows signs of aging. This reveals that the company isn't compounding shareholder wealth because returns are falling and its net asset base is shrinking. On that note, looking into Core Laboratories (NYSE:CLB), we weren't too upbeat about how things were going.
 What is Return On Capital Employed (ROCE)?
@@ -3759,25 +4869,25 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="E111" t="n">
         <v>0.748</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>2021-08-02</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Core Labs' (CLB) Q2 Earnings and Revenues Miss Estimates</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. CLB recently reported second-quarter 2021 results wherein adjusted earnings of 18 cents a share missed the Zacks Consensus Estimate of 19 cents. This underperformance is attributable to lower-than-expected revenues from the reservoir description segment. However, the bottom line improved from the year-ago quarter’s earnings of 14 cents per share. This upside was attributable to the year-over-year increase in revenues of the production-enhancement segment and lower year-over-year operating expenses, which declined to $105.9 million from $118.3 million a year ago.
 This oilfield service provider’s adjusted revenues of $118.75 million missed the Zacks Consensus Estimate by 0.09%. However, the top line rose from the year-ago quarter’s revenues of $115.74 million.
@@ -3808,71 +4918,71 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="E112" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>2021-07-29</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q2 2021 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q2 2021 Earnings CallJul 29, 2021, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood morning, and welcome to the Core Lab Q2 2021 earnings call.</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="E113" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>2021-07-29</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Why Shares of Core Laboratories Are Falling Today</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>There were some bright spots in the quarterly earnings report, but investors don't seem to care.</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="E114" t="n">
         <v>-0.004</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>2021-07-28</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Lags Q2 Earnings and Revenue Estimates</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.18 per share, missing the Zacks Consensus Estimate of $0.19 per share. This compares to earnings of $0.14 per share a year ago. These figures are adjusted for non-recurring items.
 This quarterly report represents an earnings surprise of -5.26%. A quarter ago, it was expected that this energy services company would post earnings of $0.13 per share when it actually produced earnings of $0.15, delivering a surprise of 15.38%.
@@ -3893,25 +5003,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="E115" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>2021-07-28</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Core Lab Reports Second Quarter 2021 Results From Continuing Operations:</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>- REVENUE OF $118.7 MILLION; UP 10% SEQUENTIALLY; UP 3% YEAR-OVER-YEAR
 - GAAP EPS OF $0.17; $0.18, EX-ITEMS; UP 19% SEQUENTIALLY; UP 31% YEAR-OVER-YEAR
@@ -3985,25 +5095,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="E116" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>2021-07-28</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Here is What Hedge Funds Think About Core Laboratories N.V. (CLB)</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>We at Insider Monkey have gone over 866 13F filings that hedge funds and prominent investors are required to file by the SEC. The 13F filings show the funds' and investors' portfolio positions as of March 31st. In this article, we look at what those funds think of Core Laboratories N.V. (NYSE:CLB) based on that data.
 Core Laboratories N.V. (NYSE:CLB) has experienced an increase in hedge fund sentiment in recent months. Core Laboratories N.V. (NYSE:CLB) was in 17 hedge funds' portfolios at the end of March. The all time high for this statistic is 25. Our calculations also showed that CLB isn't among the 30 most popular stocks among hedge funds (click for Q1 rankings).
@@ -4025,25 +5135,25 @@
 Disclosure: None. This article was originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="E117" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>2021-07-26</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Were Hedge Funds Right About Impinj, Inc. (PI)?</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>We know that hedge funds generate strong, risk-adjusted returns over the long run, therefore imitating the picks that they are collectively bullish on can be a profitable strategy for retail investors. With billions of dollars in assets, smart money investors have to conduct complex analyses, spend many resources and use tools that are not always available for the general crowd. This doesn't mean that they don't have occasional colossal losses; they do (like Melvin Capital's recent GameStop losses). However, it is still a good idea to keep an eye on hedge fund activity. With this in mind, as the current round of 13F filings has just ended, let’s examine the smart money sentiment towards Impinj, Inc. (NASDAQ:PI).
 Impinj, Inc. (NASDAQ:PI) shares haven't seen a lot of action during the second quarter. Overall, hedge fund sentiment was unchanged. The stock was in 18 hedge funds' portfolios at the end of the first quarter of 2021. Our calculations also showed that PI isn't among the 30 most popular stocks among hedge funds (click for Q1 rankings). At the end of this article we will also compare PI to other stocks including Theravance Biopharma Inc (NASDAQ:TBPH), Core Laboratories N.V. (NYSE:CLB), and Marcus &amp; Millichap Inc (NYSE:MMI) to get a better sense of its popularity.
@@ -4066,25 +5176,25 @@
 Follow Insider Monkey on Twitter</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="E118" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>2021-07-21</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Earnings Expected to Grow: What to Know Ahead of Next Week's Release</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Wall Street expects a year-over-year increase in earnings on higher revenues when Core Laboratories (CLB) reports results for the quarter ended June 2021. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
 The earnings report, which is expected to be released on July 28, 2021, might help the stock move higher if these key numbers are better than expectations. On the other hand, if they miss, the stock may move lower.
@@ -4120,48 +5230,48 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="E119" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>2021-07-21</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Why PBF Energy, Centennial Resource Development, and Transocean Rallied Today</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>When Wall Street changes its mind these days, individual stocks can make big moves. It's getting hard to tell what's good news and what's bad.</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="E120" t="n">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>2021-07-14</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>EnerCom's 26th The Oil &amp;amp; Gas Conference® Brings A Broad Group Of Public And Private Energy Companies, Energy Analysts, Industry Leaders And Investors To Denver, Aug. 15-18, 2021</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Registration is Open for The Oil &amp; Gas Conference®, August 15-18, 2021 in Denver, Colorado
 EnerCom Updates Panel Presenters on Day Three of the Oil &amp; Gas Conference
@@ -4188,25 +5298,25 @@
 SOURCE EnerCom, Inc.</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="E121" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>2021-07-09</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Levi Strauss, GM, BioNTech Rise Premarket</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>By Peter Nurse
 Investing.com -- Stocks in focus in premarket trade on Friday, July 9th. Please refresh for updates.
@@ -4224,71 +5334,71 @@
 Cigarette maker Philip Morris to buy UK producer of respiratory treatments</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="E122" t="n">
         <v>0.976</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>2021-07-01</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Why Core Labs, Centennial Resource Development, and Transocean Popped in Early Trading Today</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) rose as much as 5% in early trading on July 1. Following close behind was Centennial Resource Development (NASDAQ: CDEV), which rose roughly the same amount. Transocean (NYSE: RIG), meanwhile, jumped a heady 12% shortly after the open.</t>
         </is>
       </c>
-      <c r="E97" t="n">
+      <c r="E123" t="n">
         <v>0.296</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>2021-07-01</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Why Core Labs, Centennial Resource Development, and Transocean Popped in Early Trading Today</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) rose as much as 5% in early trading on July 1. Following close behind was Centennial Resource Development (NASDAQ: CDEV), which rose roughly the same amount. Transocean (NYSE: RIG), meanwhile, jumped a heady 12% shortly after the open.</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="E124" t="n">
         <v>0.296</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Core Laboratories' Second Quarter 2021 Webcast At 7:30 A.M. CDT / 2:30 P.M. CEST On July 29, 2021</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>AMSTERDAM, June 29, 2021 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its second quarter 2021 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on July 29, 2021.
 Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Schreffler, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on July 28th and may be accessed through the Company's website at www.corelab.com.
@@ -4299,25 +5409,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="E125" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Core Laboratories' Second Quarter 2021 Webcast At 7:30 A.M. CDT / 2:30 P.M. CEST On July 29, 2021</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>AMSTERDAM, June 29, 2021 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its second quarter 2021 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on July 29, 2021.
 Larry Bruno, Chairman and CEO, Chris Hill, CFO, and Gwen Schreffler, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on July 28th and may be accessed through the Company's website at www.corelab.com.
@@ -4328,25 +5438,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="E126" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>2021-06-19</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>The Core Laboratories (NYSE:CLB) Share Price Is Up 112% And Shareholders Are Boasting About It</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>It's been a soft week for Core Laboratories N.V. (NYSE:CLB) shares, which are down 14%. On the other hand, over the last twelve months the stock has delivered rather impressive returns. Indeed, the share price is up an impressive 112% in that time. So it may be that the share price is simply cooling off after a strong rise. Investors should be wondering whether the business itself has the fundamental value required to continue to drive gains.
 Check out our latest analysis for Core Laboratories
@@ -4365,25 +5475,25 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="E127" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>2021-06-19</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>The Core Laboratories (NYSE:CLB) Share Price Is Up 112% And Shareholders Are Boasting About It</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>It's been a soft week for Core Laboratories N.V. (NYSE:CLB) shares, which are down 14%. On the other hand, over the last twelve months the stock has delivered rather impressive returns. Indeed, the share price is up an impressive 112% in that time. So it may be that the share price is simply cooling off after a strong rise. Investors should be wondering whether the business itself has the fundamental value required to continue to drive gains.
 Check out our latest analysis for Core Laboratories
@@ -4402,163 +5512,163 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="E128" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Why Core Labs Stock Slumped This Week</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) had declined 13.3% over the past week as of 3:15 p.m. EDT on Thursday. On Monday, an analyst from Citi downgraded shares of Core Labs from neutral to sell. The analyst also set their price target at $36 per share, still about 15% below the most recent price.</t>
         </is>
       </c>
-      <c r="E103" t="n">
+      <c r="E129" t="n">
         <v>0.681</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Why Core Labs Stock Slumped This Week</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) had declined 13.3% over the past week as of 3:15 p.m. EDT on Thursday. On Monday, an analyst from Citi downgraded shares of Core Labs from neutral to sell. The analyst also set their price target at $36 per share, still about 15% below the most recent price.</t>
         </is>
       </c>
-      <c r="E104" t="n">
+      <c r="E130" t="n">
         <v>0.681</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Why Energy Stocks Are Up Big This Week</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>Several energy stocks were up by more than 10% this week as of Thursday afternoon. Among the notable names joining that rally were Core Laboratories (NYSE: CLB), Clean Energy Fuels (NASDAQ: CLNE), Oceaneering International (NYSE: OII), and Occidental Petroleum (NYSE: OXY). The biggest driver was the continued improvement in oil prices, which approached a more than two-year high this week.</t>
         </is>
       </c>
-      <c r="E105" t="n">
+      <c r="E131" t="n">
         <v>0.836</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Why Energy Stocks Are Up Big This Week</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>Several energy stocks were up by more than 10% this week as of Thursday afternoon. Among the notable names joining that rally were Core Laboratories (NYSE: CLB), Clean Energy Fuels (NASDAQ: CLNE), Oceaneering International (NYSE: OII), and Occidental Petroleum (NYSE: OXY). The biggest driver was the continued improvement in oil prices, which approached a more than two-year high this week.</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="E132" t="n">
         <v>0.836</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Why These Oil Stocks Are Soaring Today</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Leading oilfield service company Schlumberger (NYSE: SLB) sees better days ahead for the oil industry. The company not only provided strong financial guidance for the year, but the company's CEO also gave a very optimistic forecast at an industry conference. It also drove up shares of several other oilfield service companies, including Core Laboratories (NYSE: CLB), Oceaneering International (NYSE: OII), Liberty Oilfield Services (NYSE: LBRT), TechnipFMC (NYSE: FTI), and Nextier Oilfield Solutions (NYSE: NEX), which were all up by more than 10% at one point on the day.</t>
         </is>
       </c>
-      <c r="E107" t="n">
+      <c r="E133" t="n">
         <v>0.925</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Why These Oil Stocks Are Soaring Today</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>Leading oilfield service company Schlumberger (NYSE: SLB) sees better days ahead for the oil industry. The company not only provided strong financial guidance for the year, but the company's CEO also gave a very optimistic forecast at an industry conference. It also drove up shares of several other oilfield service companies, including Core Laboratories (NYSE: CLB), Oceaneering International (NYSE: OII), Liberty Oilfield Services (NYSE: LBRT), TechnipFMC (NYSE: FTI), and Nextier Oilfield Solutions (NYSE: NEX), which were all up by more than 10% at one point on the day.</t>
         </is>
       </c>
-      <c r="E108" t="n">
+      <c r="E134" t="n">
         <v>0.925</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Up 33.5% Since Last Earnings Report: Can It Continue?</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>A month has gone by since the last earnings report for Core Laboratories (CLB). Shares have added about 33.5% in that time frame, outperforming the S&amp;P 500.
 Will the recent positive trend continue leading up to its next earnings release, or is Core Laboratories due for a pullback? Before we dive into how investors and analysts have reacted as of late, let's take a quick look at the most recent earnings report in order to get a better handle on the important drivers.
@@ -4588,25 +5698,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E109" t="n">
+      <c r="E135" t="n">
         <v>0.984</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Up 33.5% Since Last Earnings Report: Can It Continue?</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>A month has gone by since the last earnings report for Core Laboratories (CLB). Shares have added about 33.5% in that time frame, outperforming the S&amp;P 500.
 Will the recent positive trend continue leading up to its next earnings release, or is Core Laboratories due for a pullback? Before we dive into how investors and analysts have reacted as of late, let's take a quick look at the most recent earnings report in order to get a better handle on the important drivers.
@@ -4636,71 +5746,71 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E110" t="n">
+      <c r="E136" t="n">
         <v>0.984</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Why Centennial Resource, SM Energy, and Kosmos Energy All Fell Sharply at the Open Today</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>These energy names got off to a weak start, but that was hardly surprising given the commodity price moves taking place in early trading.</t>
         </is>
       </c>
-      <c r="E111" t="n">
+      <c r="E137" t="n">
         <v>0.215</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Why Centennial Resource, SM Energy, and Kosmos Energy All Fell Sharply at the Open Today</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>These energy names got off to a weak start, but that was hardly surprising given the commodity price moves taking place in early trading.</t>
         </is>
       </c>
-      <c r="E112" t="n">
+      <c r="E138" t="n">
         <v>0.215</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>2021-05-04</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Registration is Open for The Oil &amp;amp; Gas Conference®, August 15-18, 2021 in Denver, Colorado</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>EnerCom's 26th The Oil &amp; Gas Conference® brings a broad group of public and private energy companies, energy analysts, industry leaders and investors to Denver, Aug. 15-18, 2021
 DENVER, May 4, 2021 /PRNewswire/ -- Institutional investors, portfolio managers, financial analysts, CIOs and other investment community professionals who invest in the energy space should register now for The Oil &amp; Gas Conference® which will take place Aug. 15-18, 2021, at the Denver Downtown Westin hotel.
@@ -4724,25 +5834,25 @@
 SOURCE EnerCom, Inc.</t>
         </is>
       </c>
-      <c r="E113" t="n">
+      <c r="E139" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>2021-05-04</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Registration is Open for The Oil &amp;amp; Gas Conference®, August 15-18, 2021 in Denver, Colorado</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>EnerCom's 26th The Oil &amp; Gas Conference® brings a broad group of public and private energy companies, energy analysts, industry leaders and investors to Denver, Aug. 15-18, 2021
 DENVER, May 4, 2021 /PRNewswire/ -- Institutional investors, portfolio managers, financial analysts, CIOs and other investment community professionals who invest in the energy space should register now for The Oil &amp; Gas Conference® which will take place Aug. 15-18, 2021, at the Denver Downtown Westin hotel.
@@ -4766,25 +5876,25 @@
 SOURCE EnerCom, Inc.</t>
         </is>
       </c>
-      <c r="E114" t="n">
+      <c r="E140" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>2021-04-24</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. Just Beat EPS By 43%: Here's What Analysts Think Will Happen Next</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>The first-quarter results for Core Laboratories N.V. (NYSE:CLB) were released last week, making it a good time to revisit its performance. Revenues of US$108m fell slightly short of expectations, but earnings were a definite bright spot, with statutory per-share profits of US$0.18 an impressive 43% ahead of estimates. Following the result, the analysts have updated their earnings model, and it would be good to know whether they think there's been a strong change in the company's prospects, or if it's business as usual. We've gathered the most recent statutory forecasts to see whether the analysts have changed their earnings models, following these results.
 See our latest analysis for Core Laboratories  earnings-and-revenue-growth
@@ -4800,25 +5910,25 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="E141" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>2021-04-24</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. Just Beat EPS By 43%: Here's What Analysts Think Will Happen Next</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>The first-quarter results for Core Laboratories N.V. (NYSE:CLB) were released last week, making it a good time to revisit its performance. Revenues of US$108m fell slightly short of expectations, but earnings were a definite bright spot, with statutory per-share profits of US$0.18 an impressive 43% ahead of estimates. Following the result, the analysts have updated their earnings model, and it would be good to know whether they think there's been a strong change in the company's prospects, or if it's business as usual. We've gathered the most recent statutory forecasts to see whether the analysts have changed their earnings models, following these results.
 See our latest analysis for Core Laboratories  earnings-and-revenue-growth
@@ -4834,71 +5944,71 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E116" t="n">
+      <c r="E142" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q1 2021 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q1 2021 Earnings CallApr 22, 2021, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood day, and welcome to the Core Laboratories first-quarter 2021 earnings conference call.</t>
         </is>
       </c>
-      <c r="E117" t="n">
+      <c r="E143" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q1 2021 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q1 2021 Earnings CallApr 22, 2021, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood day, and welcome to the Core Laboratories first-quarter 2021 earnings conference call.</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="E144" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Core Labs' (CLB) Q1 Earnings Beat Estimates, Revenues Miss</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. CLB recently reported first-quarter 2021 results wherein adjusted earnings of 15 cents a share came ahead of the Zacks Consensus Estimate of 13 cents. This outperformance is attributable to lower year-over-year operating expenses, which declined to $96.8 million from $261.4 million a year ago. However, the bottom line declined from the year-ago quarter’s earnings of 31 cents per share. This downside was caused by a drop in the year-over-year revenues of both reservoir description and production-enhancement segments.
 Further, this oilfield service provider’s adjusted revenues of $108.38 million missed the Zacks Consensus Estimate of $110 million. Moreover, the top line fell from the year-ago quarter’s revenues of $152.4 million.
@@ -4931,25 +6041,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E119" t="n">
+      <c r="E145" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Core Labs' (CLB) Q1 Earnings Beat Estimates, Revenues Miss</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. CLB recently reported first-quarter 2021 results wherein adjusted earnings of 15 cents a share came ahead of the Zacks Consensus Estimate of 13 cents. This outperformance is attributable to lower year-over-year operating expenses, which declined to $96.8 million from $261.4 million a year ago. However, the bottom line declined from the year-ago quarter’s earnings of 31 cents per share. This downside was caused by a drop in the year-over-year revenues of both reservoir description and production-enhancement segments.
 Further, this oilfield service provider’s adjusted revenues of $108.38 million missed the Zacks Consensus Estimate of $110 million. Moreover, the top line fell from the year-ago quarter’s revenues of $152.4 million.
@@ -4982,25 +6092,25 @@
 To read this article on Zacks.com click here.</t>
         </is>
       </c>
-      <c r="E120" t="n">
+      <c r="E146" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q1 Earnings Top Estimates</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.15 per share, beating the Zacks Consensus Estimate of $0.13 per share. This compares to earnings of $0.31 per share a year ago. These figures are adjusted for non-recurring items.
 This quarterly report represents an earnings surprise of 15.38%. A quarter ago, it was expected that this energy services company would post earnings of $0.17 per share when it actually produced earnings of $0.18, delivering a surprise of 5.88%.
@@ -5022,25 +6132,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E121" t="n">
+      <c r="E147" t="n">
         <v>0.994</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q1 Earnings Top Estimates</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.15 per share, beating the Zacks Consensus Estimate of $0.13 per share. This compares to earnings of $0.31 per share a year ago. These figures are adjusted for non-recurring items.
 This quarterly report represents an earnings surprise of 15.38%. A quarter ago, it was expected that this energy services company would post earnings of $0.17 per share when it actually produced earnings of $0.18, delivering a surprise of 5.88%.
@@ -5062,25 +6172,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E122" t="n">
+      <c r="E148" t="n">
         <v>0.994</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Core Lab Reports First Quarter 2021 Results From Continuing Operations:</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>- COMPANY FIRST QUARTER REVENUE OF $108.4 MILLION; DOWN 4.7% SEQUENTIALLY
 - FIRST QUARTER GAAP EPS OF $0.18; $0.15, EX-ITEMS; DOWN 15.6% SEQUENTIALLY
@@ -5153,25 +6263,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E123" t="n">
+      <c r="E149" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Core Lab Reports First Quarter 2021 Results From Continuing Operations:</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>- COMPANY FIRST QUARTER REVENUE OF $108.4 MILLION; DOWN 4.7% SEQUENTIALLY
 - FIRST QUARTER GAAP EPS OF $0.18; $0.15, EX-ITEMS; DOWN 15.6% SEQUENTIALLY
@@ -5244,25 +6354,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E124" t="n">
+      <c r="E150" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Is EVRI Stock A Buy or Sell?</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>We know that hedge funds generate strong, risk-adjusted returns over the long run, therefore imitating the picks that they are collectively bullish on can be a profitable strategy for retail investors. With billions of dollars in assets, smart money investors have to conduct complex analyses, spend many resources and use tools that are not always available for the general crowd. This doesn't mean that they don't have occasional colossal losses; they do (like Melvin Capital's recent GameStop losses). However, it is still a good idea to keep an eye on hedge fund activity. With this in mind, as the current round of 13F filings has just ended, let’s examine the smart money sentiment towards Everi Holdings Inc (NYSE:EVRI).
 Is EVRI stock a buy? Everi Holdings Inc (NYSE:EVRI) was in 29 hedge funds' portfolios at the end of December. The all time high for this statistic is 30. EVRI shareholders have witnessed an increase in support from the world's most elite money managers recently. There were 26 hedge funds in our database with EVRI positions at the end of the third quarter. Our calculations also showed that EVRI isn't among the 30 most popular stocks among hedge funds (click for Q4 rankings).
@@ -5284,71 +6394,71 @@
 How to Best Use Insider Monkey To Increase Your Returns 13 Countries with Largest Gay Populations 30 Most Dangerous Cities in the US</t>
         </is>
       </c>
-      <c r="E125" t="n">
+      <c r="E151" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Why Shares of Core Labs, SM Energy, and Centennial Resource Development Were Big Movers Today</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Shares of energy services company Core Laboratories (NYSE: CLB) rose as much as 7.5% in the first 90 minutes of trading on Wednesday. Relatively small onshore U.S. exploration and production companies SM Energy (NYSE: SM) and Centennial Resource Development (NASDAQ: CDEV), meanwhile, were up 12% and 16.5%, respectively, at their peaks. There was no particular news out of any of these energy sector names, but there was a notable update out of the International Energy Administration (IEA).</t>
         </is>
       </c>
-      <c r="E126" t="n">
+      <c r="E152" t="n">
         <v>0.754</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Why Shares of Core Labs, SM Energy, and Centennial Resource Development Were Big Movers Today</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Shares of energy services company Core Laboratories (NYSE: CLB) rose as much as 7.5% in the first 90 minutes of trading on Wednesday. Relatively small onshore U.S. exploration and production companies SM Energy (NYSE: SM) and Centennial Resource Development (NASDAQ: CDEV), meanwhile, were up 12% and 16.5%, respectively, at their peaks. There was no particular news out of any of these energy sector names, but there was a notable update out of the International Energy Administration (IEA).</t>
         </is>
       </c>
-      <c r="E127" t="n">
+      <c r="E153" t="n">
         <v>0.754</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Earnings Preview: Core Laboratories (CLB) Q1 Earnings Expected to Decline</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Wall Street expects a year-over-year decline in earnings on lower revenues when Core Laboratories (CLB) reports results for the quarter ended March 2021. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
 The earnings report, which is expected to be released on April 21, 2021, might help the stock move higher if these key numbers are better than expectations. On the other hand, if they miss, the stock may move lower.
@@ -5385,25 +6495,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E128" t="n">
+      <c r="E154" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>2021-04-14</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Earnings Preview: Core Laboratories (CLB) Q1 Earnings Expected to Decline</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Wall Street expects a year-over-year decline in earnings on lower revenues when Core Laboratories (CLB) reports results for the quarter ended March 2021. While this widely-known consensus outlook is important in gauging the company's earnings picture, a powerful factor that could impact its near-term stock price is how the actual results compare to these estimates.
 The earnings report, which is expected to be released on April 21, 2021, might help the stock move higher if these key numbers are better than expectations. On the other hand, if they miss, the stock may move lower.
@@ -5440,25 +6550,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E129" t="n">
+      <c r="E155" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>2021-03-27</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Estimating The Intrinsic Value Of Core Laboratories N.V. (NYSE:CLB)</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>Today we will run through one way of estimating the intrinsic value of Core Laboratories N.V. (NYSE:CLB) by projecting its future cash flows and then discounting them to today's value. We will take advantage of the Discounted Cash Flow (DCF) model for this purpose. There's really not all that much to it, even though it might appear quite complex.
 Companies can be valued in a lot of ways, so we would point out that a DCF is not perfect for every situation. Anyone interested in learning a bit more about intrinsic value should have a read of the Simply Wall St analysis model.
@@ -5485,25 +6595,25 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E130" t="n">
+      <c r="E156" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>2021-03-27</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Estimating The Intrinsic Value Of Core Laboratories N.V. (NYSE:CLB)</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>Today we will run through one way of estimating the intrinsic value of Core Laboratories N.V. (NYSE:CLB) by projecting its future cash flows and then discounting them to today's value. We will take advantage of the Discounted Cash Flow (DCF) model for this purpose. There's really not all that much to it, even though it might appear quite complex.
 Companies can be valued in a lot of ways, so we would point out that a DCF is not perfect for every situation. Anyone interested in learning a bit more about intrinsic value should have a read of the Simply Wall St analysis model.
@@ -5530,117 +6640,117 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E131" t="n">
+      <c r="E157" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Why Core Laboratories' Shares Popped 7.1% Today</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Shares of oil and gas services company Core Laboratories (NYSE: CLB) jumped as much as 7.1% in trading on Wednesday as oil prices soared. Crude oil prices rose sharply early in trading on Wednesday with West Texas Intermediate (WTI) prices up as much as 6.2% to $61.34 per barrel. While the price of oil doesn't directly impact Core Labs' business, it's a big driver of the amount of exploration companies will do, which ultimately funnels business to Core Labs.</t>
         </is>
       </c>
-      <c r="E132" t="n">
+      <c r="E158" t="n">
         <v>-0.052</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Why Core Laboratories' Shares Popped 7.1% Today</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Shares of oil and gas services company Core Laboratories (NYSE: CLB) jumped as much as 7.1% in trading on Wednesday as oil prices soared. Crude oil prices rose sharply early in trading on Wednesday with West Texas Intermediate (WTI) prices up as much as 6.2% to $61.34 per barrel. While the price of oil doesn't directly impact Core Labs' business, it's a big driver of the amount of exploration companies will do, which ultimately funnels business to Core Labs.</t>
         </is>
       </c>
-      <c r="E133" t="n">
+      <c r="E159" t="n">
         <v>-0.052</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Fell 6% Today</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>The energy services company has been caught in the ups and downs of the broader energy sector. Here's why that's par for the course.</t>
         </is>
       </c>
-      <c r="E134" t="n">
+      <c r="E160" t="n">
         <v>0.494</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Fell 6% Today</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>The energy services company has been caught in the ups and downs of the broader energy sector. Here's why that's par for the course.</t>
         </is>
       </c>
-      <c r="E135" t="n">
+      <c r="E161" t="n">
         <v>0.494</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>2021-03-22</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Core Laboratories' First Quarter 2021 Webcast At 7:30 A.M. CDT / 2:30 P.M. CEST On April 22, 2021</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>AMSTERDAM, March 22, 2021 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its first quarter 2021 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on April 22, 2021.
 Larry Bruno, Chairman, CEO and President, Chris Hill, CFO, and Gwen Schreffler, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on April 21st and may be accessed through the Company's website at www.corelab.com.
@@ -5651,25 +6761,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E136" t="n">
+      <c r="E162" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>2021-03-22</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>Core Laboratories' First Quarter 2021 Webcast At 7:30 A.M. CDT / 2:30 P.M. CEST On April 22, 2021</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>AMSTERDAM, March 22, 2021 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its first quarter 2021 conference call over the Internet at 7:30 a.m. CDT / 2:30 p.m. CEST on April 22, 2021.
 Larry Bruno, Chairman, CEO and President, Chris Hill, CFO, and Gwen Schreffler, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on April 21st and may be accessed through the Company's website at www.corelab.com.
@@ -5680,25 +6790,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E137" t="n">
+      <c r="E163" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Ariel Investments: ‘Core Lab (CLB) Generated a Significant Amount of Free Cash Flow’</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>Ariel Investments, an investment management firm, published its fourth-quarter 2020 ‘Ariel Fund’, ‘Ariel Appreciation Fund’, ‘Ariel Focus Fund’, ‘Ariel International Fund’, and ‘Ariel Global Fund’ Investor Letter – a copy of which can be downloaded here. In the fourth quarter of 2020, a return of 31.56% was recorded by Ariel fund, 23.57% by Ariel Appreciation Fund, 21.62% by Ariel Focus Fund, 8.26% by Ariel International Fund, and 9.80% return by Ariel Global Fund. You can view the fund’s top 5 holdings to have a peek at their top bets for 2021.
 Ariel Investments, in their Q4 2020 investor letter, emphasized their Core Laboratories N.V. (NYSE: CLB) position. Core Laboratories N.V. is a Netherland-based petroleum industry company that offers reservoir description and production enhancement assistance. It currently has a $1.7 billion market capitalization. Since the beginning of the year, CLB is up 43.04%, impressively extending its 12-month gains to 190.35%. As of March 8, 2021, the stock closed at $37.92 per share.
@@ -5713,94 +6823,94 @@
 Disclosure: None. This article is originally published at Insider Monkey.</t>
         </is>
       </c>
-      <c r="E138" t="n">
+      <c r="E164" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>2021-02-23</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>Why Core Laboratories Shares Plunged 11.9% Today</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) fell as much as 11.9% on Tuesday as oil prices and the overall market dropped. The big drop happened early in the day and coincided with a quick nearly 2% drop in oil prices. Oil recovered, and so did Core Labs, but that's why there was a big sell-off early.</t>
         </is>
       </c>
-      <c r="E139" t="n">
+      <c r="E165" t="n">
         <v>-0.128</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q4 2020 Earnings Call Transcript</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Image source: The Motley Fool. Core Laboratories (NYSE: CLB)Q4 2020 Earnings CallJan 28, 2021, 8:30 a.m. ETContents: Prepared Remarks Questions and Answers Call Participants Prepared Remarks: OperatorGood morning, and welcome to the Core Laboratories' fourth-quarter 2020 earnings conference call.</t>
         </is>
       </c>
-      <c r="E140" t="n">
+      <c r="E166" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Rose 5% and Fell 5% on the Same Day</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Shares of energy services company Core Laboratories (NYSE: CLB) opened the day with a 5% gain from the previous close. First the good news, analysts had been expecting Core Laboratories to report earnings of $0.16 per share in the fourth quarter of 2020, but the company earned $0.18, taking out one-time items. Weak demand from exploration and production companies in the face of low oil prices clearly remains an ongoing problem even though the company did better than analysts had hoped.</t>
         </is>
       </c>
-      <c r="E141" t="n">
+      <c r="E167" t="n">
         <v>0.805</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>2021-01-28</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Core Labs' (CLB) Q4 Earnings and Revenues Beat Estimates</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. CLB recently reported fourth-quarter 2020 results wherein adjusted earnings of 18 cents a share came ahead of the Zacks Consensus Estimate of 17 cents. This outperformance is attributable to stronger-than-expected profits from both its divisions and lower year-over-year operating expenses, which declined to $90.3 million from $135.7 million a year ago. However, the bottom line declined from the year-ago quarter’s earnings of 38 cents per share. This downside was caused by a drop in the year-over-year revenues of both reservoir description and production-enhancement segments.
 Meanwhile, this oilfield service provider’s adjusted revenues of $113.75 million outpaced the Zacks Consensus Estimate of $110 million. However, the top line fell from the year-ago quarter’s revenues of $157 million.
@@ -5834,25 +6944,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E142" t="n">
+      <c r="E168" t="n">
         <v>0.995</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) Q4 Earnings and Revenues Top Estimates</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Core Laboratories (CLB) came out with quarterly earnings of $0.18 per share, beating the Zacks Consensus Estimate of $0.17 per share. This compares to earnings of $0.38 per share a year ago. These figures are adjusted for non-recurring items.
 This quarterly report represents an earnings surprise of 5.88%. A quarter ago, it was expected that this energy services company would post earnings of $0.14 per share when it actually produced earnings of $0.16, delivering a surprise of 14.29%.
@@ -5874,25 +6984,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E143" t="n">
+      <c r="E169" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Core Lab Reports Fourth Quarter And Full Year 2020 Results From Continuing Operations</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>- COMPANY FOURTH QUARTER REVENUE OF $114 MILLION ; UP 8% SEQUENTIALLY
 - FOURTH QUARTER GAAP EPS OF $0.31 ; $0.18 , EX-ITEMS; UP OVER 10% SEQUENTIALLY
@@ -5994,25 +7104,25 @@
 Core uses the non-GAAP measure of free cash flow to evaluate its cash flows and results of operations. Free cash flow is an important measurement because it represents the cash from operations, in excess of capital expenditures, available to operate the business and fund non-discretionary obligations. Free cash flow is not a measure of operating performance under GA</t>
         </is>
       </c>
-      <c r="E144" t="n">
+      <c r="E170" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>A Preview Of Core Laboratories's Earnings</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>On Wednesday, January 27, Core Laboratories (NYSE:CLB) will release its latest earnings report. Here is Benzinga's outlook for the company.
 Net Income, Earnings, And Earnings Per Share
@@ -6033,25 +7143,25 @@
 © 2021 Benzinga.com. Benzinga does not provide investment advice. All rights reserved.</t>
         </is>
       </c>
-      <c r="E145" t="n">
+      <c r="E171" t="n">
         <v>0.981</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
         <is>
           <t>2021-01-22</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>What's in Store for Core Laboratories (CLB) in Q4 Earnings?</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Core Laboratories N.V. CLB is scheduled to release fourth-quarter 2020 results on Wednesday Jan 27, after the closing bell.
 The Zacks Consensus Estimate for the to-be-reported quarter’s earnings is pegged at 15 cents while the same for revenues stands at $108.87 million.
@@ -6090,25 +7200,25 @@
 Zacks Investment Research</t>
         </is>
       </c>
-      <c r="E146" t="n">
+      <c r="E172" t="n">
         <v>0.994</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>2021-01-15</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Core Lab Announces Q1 2021 Quarterly Dividend</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>AMSTERDAM, Jan. 15, 2021 /PRNewswire/ -- The Board of Supervisory Directors of Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam Exchange: "CLB NA") has announced a cash dividend of $0.01 per share of common stock payable in the first quarter of 2021. This first quarter dividend would mean a total payout of $0.04 per share of common stock, if maintained for the entire year. The quarterly $0.01 per share cash dividend will be payable on Tuesday, 16 February 2021, to shareholders of record on Monday, 25 January 2021. Dutch withholding tax will be deducted from the dividend at a rate of 15%.
 Any determination to declare a future quarterly cash dividend, as well as the amount of any such cash dividend that may be declared, will be based on the Company's financial position, earnings, earnings outlook, capital expenditure plans, ongoing share repurchases, potential acquisition opportunities, and other relevant factors at the time.
@@ -6121,25 +7231,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E147" t="n">
+      <c r="E173" t="n">
         <v>0.982</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>2021-01-14</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Read This Before Selling Core Laboratories N.V. (NYSE:CLB) Shares</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>We often see insiders buying up shares in companies that perform well over the long term. The flip side of that is that there are more than a few examples of insiders dumping stock prior to a period of weak performance. So shareholders might well want to know whether insiders have been buying or selling shares in Core Laboratories N.V. (NYSE:CLB).
 What Is Insider Buying?
@@ -6163,48 +7273,48 @@
 Have feedback on this article? Concerned about the content?Get in touch with us directly. Alternatively, email editorial-team (at) simplywallst.com.</t>
         </is>
       </c>
-      <c r="E148" t="n">
+      <c r="E174" t="n">
         <v>0.991</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>2021-01-12</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Why Shares of Golar LNG, Enterprise Products Partners, SM Energy, Occidental, and Core Labs Rallied Today</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>The energy markets got a shock, and it rippled across the entire industry landscape. There are lessons here.</t>
         </is>
       </c>
-      <c r="E149" t="n">
+      <c r="E175" t="n">
         <v>-0.128</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>2020-12-28</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Core Laboratories' Fourth Quarter 2020 Webcast At 7:30 A.M. CST / 2:30 P.M. CET On January 28, 2021</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>AMSTERDAM, Dec. 28, 2020 /PRNewswire/ -- Core Laboratories (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") will broadcast its fourth quarter 2020 conference call over the Internet at 7:30 a.m. CST / 2:30 p.m. CET on January 28, 2021.
 Larry Bruno, Chairman, CEO and President, Chris Hill, CFO, and Gwen Schreffler, SVP Corporate Development and Investor Relations, will discuss financial and operational results. An earnings press release will be issued after market close on January 27th and may be accessed through the Company's website at www.corelab.com.
@@ -6215,25 +7325,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E150" t="n">
+      <c r="E176" t="n">
         <v>0.796</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
         <is>
           <t>2020-12-24</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>Is SIBN A Good Stock To Buy According To Hedge Funds?</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>In this article we will check out the progression of hedge fund sentiment towards SI-BONE, Inc. (NASDAQ:SIBN) and determine whether it is a good investment right now. We at Insider Monkey like to examine what billionaires and hedge funds think of a company before spending days of research on it. Given their 2 and 20 payment structure, hedge funds have more incentives and resources than the average investor. The funds have access to expert networks and get tips from industry insiders. They also employ numerous Ivy League graduates and MBAs. Like everyone else, hedge funds perform miserably at times, but their consensus picks have historically outperformed the market after risk adjustments.
 Is SIBN a good stock to buy? Money managers were turning bullish. The number of bullish hedge fund positions went up by 3 lately. SI-BONE, Inc. (NASDAQ:SIBN) was in 19 hedge funds' portfolios at the end of September. The all time high for this statistic is 19. This means the bullish number of hedge fund positions in this stock currently sits at its all time high. Our calculations also showed that SIBN isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks). There were 16 hedge funds in our database with SIBN positions at the end of the second quarter.
@@ -6256,25 +7366,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 11 Countries with Highest Natural Gas Reserves 25 States With Highest Depression Rates</t>
         </is>
       </c>
-      <c r="E151" t="n">
+      <c r="E177" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
         <is>
           <t>2020-12-24</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Is SIBN A Good Stock To Buy According To Hedge Funds?</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>In this article we will check out the progression of hedge fund sentiment towards SI-BONE, Inc. (NASDAQ:SIBN) and determine whether it is a good investment right now. We at Insider Monkey like to examine what billionaires and hedge funds think of a company before spending days of research on it. Given their 2 and 20 payment structure, hedge funds have more incentives and resources than the average investor. The funds have access to expert networks and get tips from industry insiders. They also employ numerous Ivy League graduates and MBAs. Like everyone else, hedge funds perform miserably at times, but their consensus picks have historically outperformed the market after risk adjustments.
 Is SIBN a good stock to buy? Money managers were turning bullish. The number of bullish hedge fund positions went up by 3 lately. SI-BONE, Inc. (NASDAQ:SIBN) was in 19 hedge funds' portfolios at the end of September. The all time high for this statistic is 19. This means the bullish number of hedge fund positions in this stock currently sits at its all time high. Our calculations also showed that SIBN isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks). There were 16 hedge funds in our database with SIBN positions at the end of the second quarter.
@@ -6297,25 +7407,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 11 Countries with Highest Natural Gas Reserves 25 States With Highest Depression Rates</t>
         </is>
       </c>
-      <c r="E152" t="n">
+      <c r="E178" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>2020-12-19</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Is TVTY A Good Stock To Buy Now According To Hedge Funds?</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>Although the masses and most of the financial media blame hedge funds for their exorbitant fee structure and disappointing performance, these investors have proved to have great stock picking abilities over the years (that's why their assets under management continue to swell). We believe hedge fund sentiment should serve as a crucial tool of an individual investor’s stock selection process, as it may offer great insights of how the brightest minds of the finance industry feel about specific stocks. After all, these people have access to smartest analysts and expensive data/information sources that individual investors can't match. So should one consider investing in Tivity Health, Inc. (NASDAQ:TVTY)? The smart money sentiment can provide an answer to this question.
 Is TVTY a good stock to buy now? Tivity Health, Inc. (NASDAQ:TVTY) investors should pay attention to an increase in activity from the world's largest hedge funds of late. Tivity Health, Inc. (NASDAQ:TVTY) was in 17 hedge funds' portfolios at the end of the third quarter of 2020. The all time high for this statistic is 24. There were 16 hedge funds in our database with TVTY holdings at the end of June. Our calculations also showed that TVTY isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks).
@@ -6340,25 +7450,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 11 Best Lithium and Battery Stocks To Buy 10 Countries with the Biggest Gay Populations in the World</t>
         </is>
       </c>
-      <c r="E153" t="n">
+      <c r="E179" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>2020-12-18</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Benzinga's Top Upgrades, Downgrades For December 18, 2020</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Upgrades
 According to Citigroup, the prior rating for H.B. Fuller Co (NYSE:FUL) was changed from Neutral to Buy. In the third quarter, H.B. Fuller showed an EPS of $0.76, compared to $0.86 from the year-ago quarter. The current stock performance of H.B. Fuller shows a 52-week-high of $55.28 and a 52-week-low of $23.68. Moreover, at the end of the last trading period, the closing price was at $52.87. Benchmark upgraded the previous rating for Huron Consulting Group Inc (NASDAQ:HURN) from Hold to Buy. In the third quarter, Huron Consulting Group showed an EPS of $0.59, compared to $0.79 from the year-ago quarter. The current stock performance of Huron Consulting Group shows a 52-week-high of $70.91 and a 52-week-low of $35.15. Moreover, at the end of the last trading period, the closing price was at $53.30. According to Bernstein, the prior rating for Smith &amp; Nephew PLC (NYSE:SNN) was changed from Market Perform to Outperform. The current stock performance of Smith &amp; Nephew shows a 52-week-high of $52.26 and a 52-week-low of $26.07. Moreover, at the end of the last trading period, the closing price was at $41.85. According to B. Riley FBR, the prior rating for Preferred Bank (NASDAQ:PFBC) was changed from Neutral to Buy. In the third quarter, Preferred Bank showed an EPS of $1.15, compared to $1.32 from the year-ago quarter. The current stock performance of Preferred Bank shows a 52-week-high of $64.50 and a 52-week-low of $20.04. Moreover, at the end of the last trading period, the closing price was at $46.30. DA Davidson upgraded the previous rating for OceanFirst Financial Corp (NASDAQ:OCFC) from Neutral to Buy. In the third quarter, OceanFirst Financial showed an EPS of $0.00, compared to $0.54 from the year-ago quarter. The current stock performance of OceanFirst Financial shows a 52-week-high of $25.61 and a 52-week-low of $11.60. Moreover, at the end of the last trading period, the closing price was at $17.79. For Macy's Inc (NYSE:M), Jefferies upgraded the previous rating of Hold to Buy. In the third quarter, Macy's showed an EPS of $0.19, compared to $0.07 from the year-ago quarter. The stock has a 52-week-high of $18.57 and a 52-week-low of $4.38. At the end of the last trading period, Macy's closed at $10.42. According to DA Davidson, the prior rating for Heartland Financial USA Inc (NASDAQ:HTLF) was changed from Neutral to Buy. In the third quarter, Heartland Financial showed an EPS of $1.23, compared to $0.94 from the year-ago quarter. At the moment, the stock has a 52-week-high of $51.85 and a 52-week-low of $25.26. Heartland Financial closed at $41.71 at the end of the last trading period. For Ellington Financial Inc (NYSE:EFC), Keefe, Bruyette &amp; Woods upgraded the previous rating of Market Perform to Outperform. For the third quarter, Ellington Financial had an EPS of $0.41, compared to year-ago quarter EPS of $0.47. At the moment, the stock has a 52-week-high of $19.12 and a 52-week-low of $3.24. Ellington Financial closed at $15.23 at the end of the last trading period. According to JP Morgan, the prior rating for Dow Inc (NYSE:DOW) was changed from Neutral to Overweight. In the third quarter, Dow showed an EPS of $0.50, compared to $0.91 from the year-ago quarter. At the moment, the stock has a 52-week-high of $58.18 and a 52-week-low of $21.95. Dow closed at $53.82 at the end of the last trading period. For Myers Industries Inc (NYSE:MYE), KeyBanc upgraded the previous rating of Sector Weight to Overweight. In the third quarter, Myers Industries showed an EPS of $0.30, compared to $0.15 from the year-ago quarter. At the moment, the stock has a 52-week-high of $19.26 and a 52-week-low of $6.91. Myers Industries closed at $19.16 at the end of the last trading period.
@@ -6376,25 +7486,25 @@
 © 2020 Benzinga.com. Benzinga does not provide investment advice. All rights reserved.</t>
         </is>
       </c>
-      <c r="E154" t="n">
+      <c r="E180" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t>2020-12-18</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Benzinga's Top Upgrades, Downgrades For December 18, 2020</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>Upgrades
 According to Citigroup, the prior rating for H.B. Fuller Co (NYSE:FUL) was changed from Neutral to Buy. In the third quarter, H.B. Fuller showed an EPS of $0.76, compared to $0.86 from the year-ago quarter. The current stock performance of H.B. Fuller shows a 52-week-high of $55.28 and a 52-week-low of $23.68. Moreover, at the end of the last trading period, the closing price was at $52.87. Benchmark upgraded the previous rating for Huron Consulting Group Inc (NASDAQ:HURN) from Hold to Buy. In the third quarter, Huron Consulting Group showed an EPS of $0.59, compared to $0.79 from the year-ago quarter. The current stock performance of Huron Consulting Group shows a 52-week-high of $70.91 and a 52-week-low of $35.15. Moreover, at the end of the last trading period, the closing price was at $53.30. According to Bernstein, the prior rating for Smith &amp; Nephew PLC (NYSE:SNN) was changed from Market Perform to Outperform. The current stock performance of Smith &amp; Nephew shows a 52-week-high of $52.26 and a 52-week-low of $26.07. Moreover, at the end of the last trading period, the closing price was at $41.85. According to B. Riley FBR, the prior rating for Preferred Bank (NASDAQ:PFBC) was changed from Neutral to Buy. In the third quarter, Preferred Bank showed an EPS of $1.15, compared to $1.32 from the year-ago quarter. The current stock performance of Preferred Bank shows a 52-week-high of $64.50 and a 52-week-low of $20.04. Moreover, at the end of the last trading period, the closing price was at $46.30. DA Davidson upgraded the previous rating for OceanFirst Financial Corp (NASDAQ:OCFC) from Neutral to Buy. In the third quarter, OceanFirst Financial showed an EPS of $0.00, compared to $0.54 from the year-ago quarter. The current stock performance of OceanFirst Financial shows a 52-week-high of $25.61 and a 52-week-low of $11.60. Moreover, at the end of the last trading period, the closing price was at $17.79. For Macy's Inc (NYSE:M), Jefferies upgraded the previous rating of Hold to Buy. In the third quarter, Macy's showed an EPS of $0.19, compared to $0.07 from the year-ago quarter. The stock has a 52-week-high of $18.57 and a 52-week-low of $4.38. At the end of the last trading period, Macy's closed at $10.42. According to DA Davidson, the prior rating for Heartland Financial USA Inc (NASDAQ:HTLF) was changed from Neutral to Buy. In the third quarter, Heartland Financial showed an EPS of $1.23, compared to $0.94 from the year-ago quarter. At the moment, the stock has a 52-week-high of $51.85 and a 52-week-low of $25.26. Heartland Financial closed at $41.71 at the end of the last trading period. For Ellington Financial Inc (NYSE:EFC), Keefe, Bruyette &amp; Woods upgraded the previous rating of Market Perform to Outperform. For the third quarter, Ellington Financial had an EPS of $0.41, compared to year-ago quarter EPS of $0.47. At the moment, the stock has a 52-week-high of $19.12 and a 52-week-low of $3.24. Ellington Financial closed at $15.23 at the end of the last trading period. According to JP Morgan, the prior rating for Dow Inc (NYSE:DOW) was changed from Neutral to Overweight. In the third quarter, Dow showed an EPS of $0.50, compared to $0.91 from the year-ago quarter. At the moment, the stock has a 52-week-high of $58.18 and a 52-week-low of $21.95. Dow closed at $53.82 at the end of the last trading period. For Myers Industries Inc (NYSE:MYE), KeyBanc upgraded the previous rating of Sector Weight to Overweight. In the third quarter, Myers Industries showed an EPS of $0.30, compared to $0.15 from the year-ago quarter. At the moment, the stock has a 52-week-high of $19.26 and a 52-week-low of $6.91. Myers Industries closed at $19.16 at the end of the last trading period.
@@ -6412,48 +7522,48 @@
 © 2020 Benzinga.com. Benzinga does not provide investment advice. All rights reserved.</t>
         </is>
       </c>
-      <c r="E155" t="n">
+      <c r="E181" t="n">
         <v>0.993</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
         <is>
           <t>2020-12-17</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>Why Core Laboratories Stock Sank Today</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Shares of Core Laboratories (NYSE: CLB) sank today, down by 9% as of 2:30 p.m. EST, after the company announced a secondary offering. Core Laboratories is looking to raise $60 million. The deal will be conducted as an at-the-market (ATM) offering, with distribution partner banks selling shares into the market at prevailing prices.</t>
         </is>
       </c>
-      <c r="E156" t="n">
+      <c r="E182" t="n">
         <v>0.527</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
         <is>
           <t>2020-12-17</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Core Lab Announces $60,000,000 At-the-Market Equity Offering Program</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>AMSTERDAM, Dec. 17, 2020 /PRNewswire/ -- Core Laboratories N.V. (NYSE: "CLB US" and Euronext Amsterdam: "CLB NA") ("Core," "Core Lab," or the "Company") announced today that it has established an at-the-market equity offering program (the "ATM Program") under which it may, from time to time, sell its common shares having an aggregate sales price of up to $60,000,000 (the "Shares"), and has entered into an equity distribution agreement ("Equity Distribution Agreement") with Wells Fargo Securities, LLC ("Wells Fargo Securities"), as sales agent.
 Upon delivery of a placement notice and subject to the terms and conditions of the Equity Distribution Agreement, Wells Fargo Securities will use reasonable efforts consistent with its normal trading and sales practices, applicable laws and the rules of the New York Stock Exchange to sell the Shares from time to time based upon Core Lab's instructions for the sales, including price, time or size limits specified by Core Lab. Pursuant to the Equity Distribution Agreement, sales of the Shares may be made by any method permitted by law, including in ordinary brokers' transactions, negotiated transactions, block trades, and transactions deemed to be "at-the-market offerings," as defined in Rule 415 under the Securities Act of 1933, as amended. Wells Fargo Securities' obligations to sell the Shares under the Equity Distribution Agreement are subject to satisfaction of certain conditions, including customary closing conditions.
@@ -6469,25 +7579,25 @@
 SOURCE Core Laboratories N.V.</t>
         </is>
       </c>
-      <c r="E157" t="n">
+      <c r="E183" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
         <is>
           <t>2020-12-16</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Is CLB A Good Stock To Buy Now?</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>At Insider Monkey, we pore over the filings of nearly 817 top investment firms every quarter, a process we have now completed for the latest reporting period. The data we've gathered as a result gives us access to a wealth of collective knowledge based on these firms' portfolio holdings as of September 30. In this article, we will use that wealth of knowledge to determine whether or not Core Laboratories N.V. (NYSE:CLB) makes for a good investment right now.
 Is CLB a good stock to buy now? Core Laboratories N.V. (NYSE:CLB) has experienced a decrease in support from the world's most elite money managers in recent months. Core Laboratories N.V. (NYSE:CLB) was in 16 hedge funds' portfolios at the end of September. The all time high for this statistic is 25. There were 19 hedge funds in our database with CLB holdings at the end of June. Our calculations also showed that CLB isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks).
@@ -6510,25 +7620,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 30 Most Dangerous Cities in the US 10 Easiest Fifths to Drink in One Night</t>
         </is>
       </c>
-      <c r="E158" t="n">
+      <c r="E184" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>Is OCSL A Good Stock To Buy Now?</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>The financial regulations require hedge funds and wealthy investors that exceeded the $100 million equity holdings threshold to file a report that shows their positions at the end of every quarter. Even though it isn't the intention, these filings to a certain extent level the playing field for ordinary investors. The latest round of 13F filings disclosed the funds' positions on September 30th, about a month before the elections. We at Insider Monkey have made an extensive database of more than 817 of those established hedge funds and famous value investors' filings. In this article, we analyze how these elite funds and prominent investors traded Oaktree Specialty Lending Corporation (NASDAQ:OCSL) based on those filings.
 Is OCSL a good stock to buy now? Investors who are in the know were turning bullish. The number of long hedge fund positions went up by 2 in recent months. Oaktree Specialty Lending Corporation (NASDAQ:OCSL) was in 14 hedge funds' portfolios at the end of September. The all time high for this statistic is 19. Our calculations also showed that OCSL isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks). There were 12 hedge funds in our database with OCSL positions at the end of the second quarter.
@@ -6551,25 +7661,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 13 Countries with largest gay populations 7 Happiest Highest Job Satisfaction Nursing Specialties</t>
         </is>
       </c>
-      <c r="E159" t="n">
+      <c r="E185" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>Is OCSL A Good Stock To Buy Now?</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>The financial regulations require hedge funds and wealthy investors that exceeded the $100 million equity holdings threshold to file a report that shows their positions at the end of every quarter. Even though it isn't the intention, these filings to a certain extent level the playing field for ordinary investors. The latest round of 13F filings disclosed the funds' positions on September 30th, about a month before the elections. We at Insider Monkey have made an extensive database of more than 817 of those established hedge funds and famous value investors' filings. In this article, we analyze how these elite funds and prominent investors traded Oaktree Specialty Lending Corporation (NASDAQ:OCSL) based on those filings.
 Is OCSL a good stock to buy now? Investors who are in the know were turning bullish. The number of long hedge fund positions went up by 2 in recent months. Oaktree Specialty Lending Corporation (NASDAQ:OCSL) was in 14 hedge funds' portfolios at the end of September. The all time high for this statistic is 19. Our calculations also showed that OCSL isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks). There were 12 hedge funds in our database with OCSL positions at the end of the second quarter.
@@ -6592,25 +7702,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 13 Countries with largest gay populations 7 Happiest Highest Job Satisfaction Nursing Specialties</t>
         </is>
       </c>
-      <c r="E160" t="n">
+      <c r="E186" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Is BRKL A Good Stock To Buy Now?</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>We at Insider Monkey have gone over 817 13F filings that hedge funds and prominent investors are required to file by the SEC The 13F filings show the funds' and investors' portfolio positions as of September 30th. In this article, we look at what those funds think of Brookline Bancorp, Inc. (NASDAQ:BRKL) based on that data.
 Is BRKL a good stock to buy now? Brookline Bancorp, Inc. (NASDAQ:BRKL) was in 13 hedge funds' portfolios at the end of the third quarter of 2020. The all time high for this statistic is 15. BRKL investors should be aware of an increase in hedge fund sentiment of late. There were 11 hedge funds in our database with BRKL positions at the end of the second quarter. Our calculations also showed that BRKL isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks).
@@ -6633,25 +7743,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 30 Richest Cities in America 25 Fastest Growing Cities in the U.S. by Population Growth</t>
         </is>
       </c>
-      <c r="E161" t="n">
+      <c r="E187" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
         <is>
           <t>2020-12-12</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Is AFIN A Good Stock To Buy Now?</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>We know that hedge funds generate strong, risk-adjusted returns over the long run, therefore imitating the picks that they are collectively bullish on can be a profitable strategy for retail investors. With billions of dollars in assets, smart money investors have to conduct complex analyses, spend many resources and use tools that are not always available for the general crowd. This doesn't mean that they don't have occasional colossal losses; they do (like Peltz's recent General Electric losses). However, it is still a good idea to keep an eye on hedge fund activity. With this in mind, as the current round of 13F filings has just ended, let’s examine the smart money sentiment towards American Finance Trust, Inc. (NASDAQ:AFIN).
 Is AFIN a good stock to buy now? Money managers were becoming hopeful. The number of long hedge fund bets increased by 1 in recent months. American Finance Trust, Inc. (NASDAQ:AFIN) was in 11 hedge funds' portfolios at the end of September. The all time high for this statistics is 10. This means the bullish number of hedge fund positions in this stock currently sits at its all time high. Our calculations also showed that AFIN isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks). There were 10 hedge funds in our database with AFIN holdings at the end of June.
@@ -6674,25 +7784,25 @@
 How to Best Use Insider Monkey To Increase Your Returns 15 Biggest Islands On Earth 17 Countries with the Most Single Females in the World</t>
         </is>
       </c>
-      <c r="E162" t="n">
+      <c r="E188" t="n">
         <v>0.998</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>John Rogers' Firm Ups Stakes in 2 Companies</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>- By Sydnee Gatewood
 John Rogers (Trades, Portfolio), leader of Ariel Investments, disclosed earlier this week his firm upped its stakes in Core Laboratories NV (NYSE:CLB) and Madison Square Garden Entertainment Corp. (NYSE:MSGE).
@@ -6730,25 +7840,25 @@
 This article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E163" t="n">
+      <c r="E189" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>John Rogers' Firm Ups Stakes in 2 Companies</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>- By Sydnee Gatewood
 John Rogers (Trades, Portfolio), leader of Ariel Investments, disclosed earlier this week his firm upped its stakes in Core Laboratories NV (NYSE:CLB) and Madison Square Garden Entertainment Corp. (NYSE:MSGE).
@@ -6786,48 +7896,48 @@
 This article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E164" t="n">
+      <c r="E190" t="n">
         <v>0.997</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Why Core Laboratories, SM Energy, and Kosmos Energy Rallied as Much as 12% Today</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>Energy stocks from across the spectrum rose along with the key products the sector produces. Here's what you need to know.</t>
         </is>
       </c>
-      <c r="E165" t="n">
+      <c r="E191" t="n">
         <v>0.273</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
         <is>
           <t>2020-12-08</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Is OXM A Good Stock To Buy Now?</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>While the market driven by short-term sentiment influenced by the accomodative interest rate environment in the US, virus news and stimulus talks, many smart money investors are starting to get cautious towards the current bull run since March and hedging or reducing many of their long positions. Some fund managers are betting on Dow hitting 30,000 to generate strong returns. However, as we know, big investors usually buy stocks with strong fundamentals that can deliver gains both in bull and bear markets, which is why we believe we can profit from imitating them. In this article, we are going to take a look at the smart money sentiment surrounding Oxford Industries, Inc. (NYSE:OXM).
 Is OXM a good stock to buy now? Oxford Industries, Inc. (NYSE:OXM) investors should pay attention to a decrease in hedge fund sentiment recently. Oxford Industries, Inc. (NYSE:OXM) was in 8 hedge funds' portfolios at the end of September. The all time high for this statistics is 23. There were 12 hedge funds in our database with OXM positions at the end of the second quarter. Our calculations also showed that OXM isn't among the 30 most popular stocks among hedge funds (click for Q3 rankings and see the video for a quick look at the top 5 stocks).
@@ -6850,71 +7960,71 @@
 How to Best Use Insider Monkey To Increase Your Returns 25 Best Things To Buy On Amazon Under 20 Dollars 6 Easiest Fields of Law to Practice</t>
         </is>
       </c>
-      <c r="E166" t="n">
+      <c r="E192" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
         <is>
           <t>2020-11-30</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Why QEP Resources, Kosmos Energy, Helix Energy Solutions, and Core Laboratories All Fell Sharply in Early Trading Today</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>Oil prices were lower today, but investors in the energy patch were watching OPEC and not liking what they saw.</t>
         </is>
       </c>
-      <c r="E167" t="n">
+      <c r="E193" t="n">
         <v>0.078</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
         <is>
           <t>2020-11-23</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>Why Core Laboratories, Transocean, and Helix Energy Solutions Rallied in Early Trading Today</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Energy services names got a jolt from excited investors after a third vaccine candidate reported impressive results. Here's what you need to know.</t>
         </is>
       </c>
-      <c r="E168" t="n">
+      <c r="E194" t="n">
         <v>0.778</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
         <is>
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>9th Annual Gateway Conference to Virtually Showcase Leading Companies on September 9-10, 2020</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Executives from a Range of Industries to Present to 500+ Institutional Investors &amp; Analysts
 NEWPORT BEACH, CA / ACCESSWIRE / August 27, 2020 / The Gateway Conference is back for its 9th year and will showcase both public and private companies virtually on September 9th and 10th.
@@ -6940,25 +8050,25 @@
 https://www.accesswire.com/603671/9th-Annual-Gateway-Conference-to-Virtually-Showcase-Leading-Companies-on-September-9-10-2020</t>
         </is>
       </c>
-      <c r="E169" t="n">
+      <c r="E195" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
         <is>
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>9th Annual Gateway Conference to Virtually Showcase Leading Companies on September 9-10, 2020</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>Executives from a Range of Industries to Present to 500+ Institutional Investors &amp; Analysts
 NEWPORT BEACH, CA / ACCESSWIRE / August 27, 2020 / The Gateway Conference is back for its 9th year and will showcase both public and private companies virtually on September 9th and 10th.
@@ -6984,25 +8094,25 @@
 https://www.accesswire.com/603671/9th-Annual-Gateway-Conference-to-Virtually-Showcase-Leading-Companies-on-September-9-10-2020</t>
         </is>
       </c>
-      <c r="E170" t="n">
+      <c r="E196" t="n">
         <v>0.996</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Top 2nd-Quarter Buys of John Rogers' Ariel Investments</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>- By Margaret Moran
 John Rogers (Trades, Portfolio), the chairman, co-CEO and chief investment officer of Ariel Investments, recently disclosed the firm's portfolio updates for the second quarter of 2020, which ended on June 30.
@@ -7045,25 +8155,25 @@
 This article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E171" t="n">
+      <c r="E197" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Top 2nd-Quarter Buys of John Rogers' Ariel Investments</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>- By Margaret Moran
 John Rogers (Trades, Portfolio), the chairman, co-CEO and chief investment officer of Ariel Investments, recently disclosed the firm's portfolio updates for the second quarter of 2020, which ended on June 30.
@@ -7106,25 +8216,25 @@
 This article first appeared on GuruFocus.</t>
         </is>
       </c>
-      <c r="E172" t="n">
+      <c r="E198" t="n">
         <v>0.999</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
         <is>
           <t>2020-05-31</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Hedge Funds Have Never Been Less Bullish On Nexa Resources S.A. (NEXA)</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>The latest 13F reporting period has come and gone, and Insider Monkey is again at the forefront when it comes to making use of this gold mine of data. Insider Monkey finished processing 821 13F filings submitted by hedge funds and prominent investors. These filings show these funds' portfolio positions as of March 31st, 2020. What do these smart investors think about Nexa Resources S.A. (NYSE:NEXA)?
 Is Nexa Resources S.A. (NYSE:NEXA) undervalued? Money managers are turning less bullish. The number of long hedge fund positions were cut by 1 lately. Our calculations also showed that NEXA isn't among the 30 most popular stocks among hedge funds (click for Q1 rankings and see the video for a quick look at the top 5 stocks). NEXA was in 4 hedge funds' portfolios at the end of March. There were 5 hedge funds in our database with NEXA holdings at the end of the previous quarter.
@@ -7148,8 +8258,87 @@
 How to Best Use Insider Monkey To Increase Your Returns 5 Easiest to Use DVD and Blu-ray Players for Seniors and Elderly 25 Best Bumble Bios For Girls</t>
         </is>
       </c>
-      <c r="E173" t="n">
+      <c r="E199" t="n">
         <v>0.996</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2019-04-17</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Detailed Research: Economic Perspectives on Brookfield Infrastructure Partners LP, QIAGEN N.V, Carbon Black, United-Guardian, Core Laboratories N.V, and Applied DNA Sciences — What Drives Growth in Today's Competitive Landscape</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>NEW YORK, April  17, 2019  (GLOBE NEWSWIRE) -- In new independent research reports released early this morning, Market Source Research released its latest key findings for all current investors, traders, and shareholders of Brookfield Infrastructure Partners LP (NYSE:BIP), QIAGEN N.V. (NYSE:QGEN), Carbon Black, Inc. (NASDAQ:CBLK), United-Guardian, Inc. (NASDAQ:UG), Core Laboratories N.V. (NYSE:CLB), and Applied DNA Sciences Inc (NASDAQ:APDN), including updated fundamental summaries, consolidated fiscal reporting, and fully-qualified certified analyst research.
+Complimentary Access: Research Reports
+Full copies of recently published reports are available to readers at the links below.
+BIP DOWNLOAD: http://MarketSourceResearch.com/register/?so=BIP
+ QGEN DOWNLOAD: http://MarketSourceResearch.com/register/?so=QGEN
+ CBLK DOWNLOAD: http://MarketSourceResearch.com/register/?so=CBLK
+ UG DOWNLOAD: http://MarketSourceResearch.com/register/?so=UG
+ CLB DOWNLOAD: http://MarketSourceResearch.com/register/?so=CLB
+ APDN DOWNLOAD: http://MarketSourceResearch.com/register/?so=APDN
+(You may have to copy and paste the link into your browser and hit the [ENTER] key)
+The new research reports from Market Source Research, available for free download at the links above, examine Brookfield Infrastructure Partners LP (NYSE:BIP), QIAGEN N.V. (NYSE:QGEN), Carbon Black, Inc. (NASDAQ:CBLK), United-Guardian, Inc. (NASDAQ:UG), Core Laboratories N.V. (NYSE:CLB), and Applied DNA Sciences Inc (NASDAQ:APDN) on a fundamental level and outlines the overall demand for their products and services in addition to an in-depth review of the business strategy, management discussion, and overall direction going forward. Several excerpts from the recently released reports are available to today's readers below.
+-----------------------------------------
+Important Notice: the following excerpts are not designed to be standalone summaries and as such, important information may be missing from these samples. Please download the entire research report, free of charge, to ensure you are reading all relevant material information. Percentage calculations are performed after rounding. All amounts in millions (MM), except per share amounts.
+-----------------------------------------
+BROOKFIELD INFRASTRUCTURE PARTNERS LP (BIP) REPORT OVERVIEW
+Brookfield Infrastructure Partners LP's Recent Financial Performance
+For the three months ended December 31st, 2018 vs December 31st, 2017, Brookfield Infrastructure Partners LP reported revenue of $1,428.00MM vs $984.00MM (up 45.12%) and analysts estimated basic earnings per share $0.06 vs $0.09 (down 33.33%). For the twelve months ended December 31st, 2018 vs December 31st, 2017, Brookfield Infrastructure Partners LP reported revenue of $4,652.00MM vs $3,535.00MM (up 31.60%) and analysts estimated basic earnings per share $0.59 vs -$0.04. Analysts expect earnings to be released on May 3rd, 2019. The report will be for the fiscal period ending March 31st, 2019. The reported EPS for the same quarter last year was $0.85. The estimated EPS forecast for the next fiscal year is $3.86 and is expected to report on February 5th, 2020.
+To read the full Brookfield Infrastructure Partners LP (BIP) report, download it here: http://MarketSourceResearch.com/register/?so=BIP
+-----------------------------------------
+QIAGEN N.V. (QGEN) REPORT OVERVIEW
+QIAGEN N.V's Recent Financial Performance
+For the three months ended December 31st, 2018 vs December 31st, 2017, QIAGEN N.V reported revenue of $403.17MM vs $396.86MM (up 1.59%) and analysts estimated basic earnings per share $0.27 vs -$0.17. For the twelve months ended December 31st, 2018 vs December 31st, 2017, QIAGEN N.V reported revenue of $1,501.85MM vs $1,417.54MM (up 5.95%) and analysts estimated basic earnings per share $0.84 vs $0.18 (up 366.67%). Analysts expect earnings to be released on May 6th, 2019. The report will be for the fiscal period ending March 31st, 2019. Reported EPS for the same quarter last year was $0.26. The estimated EPS forecast for the next fiscal year is $1.63 and is expected to report on February 3rd, 2020.
+To read the full QIAGEN N.V. (QGEN) report, download it here: http://MarketSourceResearch.com/register/?so=QGEN
+-----------------------------------------
+CARBON BLACK, INC. (CBLK) REPORT OVERVIEW
+Carbon Black's Recent Financial Performance
+For the three months ended December 31st, 2018 vs December 31st, 2017, Carbon Black reported revenue of $56.88MM vs $44.65MM (up 27.40%) and analysts estimated basic earnings per share $3.95 vs -$2.56. For the twelve months ended December 31st, 2018 vs December 31st, 2017, Carbon Black reported revenue of $209.72MM vs $160.78MM (up 30.44%) and analysts estimated basic earnings per share -$5.82 vs -$7.83. Analysts expect earnings to be released on June 6th, 2019. The report will be for the fiscal period ending March 31st, 2019. Reported EPS for the same quarter last year was -$1.19. The estimated EPS forecast for the next fiscal year is -$0.73 and is expected to report on February 19th, 2020.
+To read the full Carbon Black, Inc. (CBLK) report, download it here: http://MarketSourceResearch.com/register/?so=CBLK
+-----------------------------------------
+UNITED-GUARDIAN, INC. (UG) REPORT OVERVIEW
+United-Guardian's Recent Financial Performance
+For the three months ended December 31st, 2018 vs December 31st, 2017, United-Guardian reported revenue of $2.88MM vs $3.23MM (down 10.92%) and basic earnings per share $0.13 vs $0.22 (down 40.91%). For the twelve months ended December 31st, 2018 vs December 31st, 2017, United-Guardian reported revenue of $13.77MM vs $12.97MM (up 6.18%) and analysts estimated basic earnings per share $0.95 vs $0.84 (up 13.10%). Analysts expect earnings to be released on May 9th, 2019. The report will be for the fiscal period ending March 31st, 2019.
+To read the full United-Guardian, Inc. (UG) report, download it here: http://MarketSourceResearch.com/register/?so=UG
+-----------------------------------------
+CORE LABORATORIES N.V. (CLB) REPORT OVERVIEW
+Core Laboratories N.V's Recent Financial Performance
+For the three months ended December 31st, 2018 vs December 31st, 2017, Core Laboratories N.V reported revenue of $173.21MM vs $170.11MM (up 1.82%) and analysts estimated basic earnings per share $0.20 vs $0.49 (down 59.18%). For the twelve months ended December 31st, 2018 vs December 31st, 2017, Core Laboratories N.V reported revenue of $700.85MM vs $647.82MM (up 8.19%) and analysts estimated basic earnings per share $1.80 vs $1.88 (down 4.26%). Analysts expect earnings to be released on April 24th, 2019. The report will be for the fiscal period ending March 31st, 2019. The reported EPS for the same quarter last year was $0.57. The estimated EPS forecast for the next fiscal year is $2.72 and is expected to report on January 29th, 2020.
+To read the full Core Laboratories N.V. (CLB) report, download it here: http://MarketSourceResearch.com/register/?so=CLB
+-----------------------------------------
+APPLIED DNA SCIENCES INC (APDN) REPORT OVERVIEW
+Applied DNA Sciences' Recent Financial Performance
+For the three months ended December 31st, 2018 vs December 31st, 2017, Applied DNA Sciences reported revenue of $0.88MM vs $0.65MM (up 36.53%) and analysts estimated basic earnings per share -$0.11 vs -$0.12. For the twelve months ended September 30th, 2018 vs September 30th, 2017, Applied DNA Sciences reported revenue of $3.90MM vs $4.75MM (down 17.85%) and analysts estimated basic earnings per share -$0.40 vs -$0.49. Analysts expect earnings to be released on May 2nd, 2019. The report will be for the fiscal period ending March 31st, 2019.
+To read the full Applied DNA Sciences Inc (APDN) report, download it here: http://MarketSourceResearch.com/register/?so=APDN
+-----------------------------------------
+ABOUT MARKET SOURCE RESEARCH
+Market Source Research delivers the key research reports that helps serious investors, registered brokers, professional traders, and personal investment advisers find reliable information in today's markets. Market Source Research's team is comprised of financial professionals, many of which hold Chartered Financial Analyst® (CFA®) designations and FINRA® BrokerCheck® certifications. Whether identifying emerging trends, or discovering new opportunity, the team at Market Source Research is dedicated to providing accurate, informative, and objective content that's ahead of the curve. With insights on individual companies as well as sectors, readers get the industry's best available combination of big-picture perspective as well as granular detail.
+REGISTERED MEMBER STATUS
+Market Source Research's oversight and audit staff are registered analysts, brokers, and/or financial advisers ("Registered Members") working within Equity Research, Media, and Compliance departments. Market Source Research's roster includes qualified CFA® charterholders, licensed securities attorneys, and registered FINRA® members holding duly issued CRD® numbers. Current licensed status of several Registered Members at Market Source Research have been independently verified by an outside audit firm, including policy and audit records duly executed by Registered Members. Complaints, concerns, questions, or inquiries regarding this release should be directed to Market Source Research's Compliance department by Phone, at +1 (704) 343-6361, or by E-mail at compliance@MarketSourceResearch.com.
+LEGAL NOTICES
+Information contained herein is not an offer or solicitation to buy, hold, or sell any security. Market Source Research, Market Source Research members, and/or Market Source Research affiliates are not responsible for any gains or losses that result from the opinions expressed. Market Source Research makes no representations as to the completeness, accuracy, or timeliness of the material provided and all materials are subject to change without notice. Market Source Research has not been compensated for the publication of this press release by any of the above mentioned companies. Market Source Research is not a financial advisory firm, investment adviser, or broker-dealer, and does not undertake any activities that would require such registration. For our full disclaimer, disclosure, and terms of service please visit our website.
+Media Contact:
+ Jim Patterson, Media Department
+ Office: +1 (704) 343-6361
+ E-mail: media@MarketSourceResearch.com
+© 2019 Market Source Research. All Rights Reserved. For republishing permissions, please contact a partner network manager at partnership@MarketSourceResearch.com.
+CFA® and Chartered Financial Analyst® are registered trademarks owned by CFA Institute.
+FINRA®, BrokerCheck®, and CRD® are registered trademarks owned by Financial Industry Regulatory Authority, Inc.</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>
